--- a/doc/工作流接口说明.xlsx
+++ b/doc/工作流接口说明.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="8640"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="8640" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="创建工作流实例" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,8 @@
     <sheet name="工作流流转" sheetId="5" r:id="rId3"/>
     <sheet name="待办查询（工作流实例ID）" sheetId="6" r:id="rId4"/>
     <sheet name="待办查询（业务数据ID）" sheetId="7" r:id="rId5"/>
+    <sheet name="已办查询（工作流实例ID）" sheetId="8" r:id="rId6"/>
+    <sheet name="已办查询（业务数据ID）" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="116">
   <si>
     <t>接口名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -778,6 +780,128 @@
   "sign" : "",
   "sysid" : "xx",
   "tokenSec" : ""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取用户已处理过的工作流实例ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取用户已处理过的工作流实例对应的第三方使用系统的业务数据ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "body" : [
+    "XF1DCD3546DE78456C9F78E97FA7EB2017",
+    "XF25D32A82EC1740F7B36DDCB58B26BAAE",
+    "XF4F1CD59D903641B3A3E69B862503FE75",
+    "XF5534F0D22B0348DD9E68BC68A5F73A2F",
+    "XF78CFEAEF9A7A4AE18B0617CAE7F636DE",
+    "XF823C8E49549D464BB3AAF4B5EF093E9A",
+    "XF91B081FEE1BA4CE4A59EB62D6BA6CA31",
+    "XF96A77CAE20664881A17F6B93CA16F10B",
+    "XF9EA97BE2A9B64A3F96F5437202DB8462",
+    "XFBA892D216A164770BD566E059F82F78C",
+    "XFC14E9B07FA4B45A3ADDE225E622247A2",
+    "XFD239741E917244C1ADA432ACA5644997",
+    "XFF9D094FB60CD44D29766B177EBDAB675",
+    "XF2EFF153536F54CE884F237B58C7E6EC6",
+    "XF48C02BC9B5D64282BECE7CA94612BEA1",
+    "XF642A8FA30D9E43D98310BE11C0E4F8CF",
+    "XF7100F7FB029C4DD2BCD860DA4A115F0F",
+    "XF93BB8218A4E54CD4AC9CA2B210CE90F7",
+    "XF9F675E58D6C4409CBB8EC6E9E6EDC696",
+    "XFAABA79922FA54DC3A602773433D55BA0",
+    "XFB5A936081B9B477B9F3B29709A4C301B"
+  ],
+  "encry" : "",
+  "format" : "",
+  "rc" : "0",
+  "result" : "true",
+  "ri" : "",
+  "serialNo" : "2018061115494590798379XFlowWeb",
+  "session" : "",
+  "sid" : "I006QueryWorkIDsByDone",
+  "sidv" : "",
+  "sign" : "",
+  "sysid" : "xx",
+  "tokenSec" : ""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "sysid": "xx",
+    "sid": "I006QueryWorkIDsByDone",
+    "body": {
+        "user": {
+            "userID": "8a81b2b54b7b391b014b7d143a7400fe",
+            "userName": "公用选型负责人"
+        }
+    }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I007QueryServiceDataIDsByDone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I006QueryWorkIDsByDone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "body" : [
+    "SID20180604143857gyxsry",
+    "SID20180605115204gyxsry",
+    "SID20180605115321gyxsry",
+    "SID20180605170153gyxsry",
+    "SID20180605172357gyxsry",
+    "SID20180605174635gyxsry",
+    "SID20180606111827gyxsry",
+    "SID20180606111925gyxsry",
+    "SID20180606143924gyxsry",
+    "SID20180606144011gyxsry",
+    "SID20180607092031gyxsry",
+    "SID20180607143923gyxsry",
+    "SID20180611104658gyxsry",
+    "SID20180606171158gyxsry",
+    "SID20180607092127gyxsry",
+    "SID20180607092850gyxsry",
+    "SID20180607105858gyxsry",
+    "SID20180607111341gyxsry",
+    "SID20180607114216gyxsry",
+    "SID20180607132925gyxsry",
+    "SID20180611123233gyxsry"
+  ],
+  "encry" : "",
+  "format" : "",
+  "rc" : "0",
+  "result" : "true",
+  "ri" : "",
+  "serialNo" : "2018061115524496992427XFlowWeb",
+  "session" : "",
+  "sid" : "I007QueryServiceDataIDsByDone",
+  "sidv" : "",
+  "sign" : "",
+  "sysid" : "xx",
+  "tokenSec" : ""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "sysid": "xx",
+    "sid": "I007QueryServiceDataIDsByDone",
+    "body": {
+        "user": {
+            "userID": "8a81b2b54b7b391b014b7d143a7400fe",
+            "userName": "公用选型负责人"
+        }
+    }
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -909,7 +1033,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -943,11 +1067,14 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -955,13 +1082,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1250,7 +1377,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14:C14"/>
     </sheetView>
   </sheetViews>
@@ -1268,57 +1395,57 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="6" t="s">
@@ -1353,7 +1480,7 @@
       <c r="D7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="11" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="4"/>
@@ -1465,7 +1592,7 @@
       <c r="D13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="11" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="4"/>
@@ -1497,14 +1624,14 @@
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="6" t="s">
@@ -1609,196 +1736,196 @@
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
     </row>
     <row r="24" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="13"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="13"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="13"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="13"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="13"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="13"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="13"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="13"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="13"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
     </row>
     <row r="34" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="13"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="13"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="13"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="13"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="13"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
+      <c r="A39" s="14"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="13"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="13"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="13"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="13"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A24:A33"/>
-    <mergeCell ref="B24:F33"/>
-    <mergeCell ref="A34:A43"/>
-    <mergeCell ref="B34:F43"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B2:F2"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A24:A33"/>
+    <mergeCell ref="B24:F33"/>
+    <mergeCell ref="A34:A43"/>
+    <mergeCell ref="B34:F43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1831,57 +1958,57 @@
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="9" t="s">
@@ -1916,7 +2043,7 @@
       <c r="D7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="11" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="4"/>
@@ -2028,10 +2155,10 @@
       <c r="D13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="18" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2048,10 +2175,10 @@
       <c r="D14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="17"/>
+      <c r="F14" s="19"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="3"/>
@@ -2062,14 +2189,14 @@
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="9" t="s">
@@ -2174,197 +2301,197 @@
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="13"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="13"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="13"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="13"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="13"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="13"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="13"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="13"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="13"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="13"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="13"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="13"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="13"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="13"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
+      <c r="A39" s="14"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="13"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="13"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="13"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="13"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A24:A33"/>
-    <mergeCell ref="B24:F33"/>
-    <mergeCell ref="A34:A43"/>
-    <mergeCell ref="B34:F43"/>
+    <mergeCell ref="A16:F16"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A24:A33"/>
+    <mergeCell ref="B24:F33"/>
+    <mergeCell ref="A34:A43"/>
+    <mergeCell ref="B34:F43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -2396,57 +2523,57 @@
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="9" t="s">
@@ -2481,7 +2608,7 @@
       <c r="D7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="11" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="4"/>
@@ -2593,10 +2720,10 @@
       <c r="D13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="18" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2613,10 +2740,10 @@
       <c r="D14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="17"/>
+      <c r="F14" s="19"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="3" t="s">
@@ -2631,10 +2758,10 @@
       <c r="D15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="18"/>
+      <c r="F15" s="12"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="3" t="s">
@@ -2652,7 +2779,7 @@
       <c r="E16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="18" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2672,7 +2799,7 @@
       <c r="E17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="17"/>
+      <c r="F17" s="19"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
@@ -2690,7 +2817,7 @@
       <c r="E18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="18"/>
+      <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="3" t="s">
@@ -2708,7 +2835,7 @@
       <c r="E19" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="18"/>
+      <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="3"/>
@@ -2719,14 +2846,14 @@
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="9" t="s">
@@ -2831,198 +2958,198 @@
       <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
     </row>
     <row r="29" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="13"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="13"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="13"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="13"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="13"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="13"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="13"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="13"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="13"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
     </row>
     <row r="39" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="13"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="13"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="13"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="13"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="13"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="13"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="13"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
+      <c r="A46" s="14"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="13"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
+      <c r="A47" s="14"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="13"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
+      <c r="A48" s="14"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="A28:F28"/>
     <mergeCell ref="A29:A38"/>
     <mergeCell ref="B29:F38"/>
     <mergeCell ref="A39:A48"/>
     <mergeCell ref="B39:F48"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F16:F17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -3036,8 +3163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A32" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3054,57 +3181,57 @@
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="9" t="s">
@@ -3139,7 +3266,7 @@
       <c r="D7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="11" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="4"/>
@@ -3247,14 +3374,14 @@
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="9" t="s">
@@ -3359,196 +3486,196 @@
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
     </row>
     <row r="22" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="13"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="13"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="13"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="13"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="13"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="13"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="13"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="13"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="13"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
     </row>
     <row r="32" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="13"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="13"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="13"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="13"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="13"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="13"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="13"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
+      <c r="A39" s="14"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="13"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="13"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="A22:A31"/>
     <mergeCell ref="B22:F31"/>
     <mergeCell ref="A32:A41"/>
     <mergeCell ref="B32:F41"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A14:F14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -3580,57 +3707,57 @@
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="9" t="s">
@@ -3665,7 +3792,7 @@
       <c r="D7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="11" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="4"/>
@@ -3773,14 +3900,14 @@
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="9" t="s">
@@ -3885,196 +4012,1096 @@
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
     </row>
     <row r="22" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="13"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="13"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="13"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="13"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="13"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="13"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="13"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="13"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="13"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
     </row>
     <row r="32" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="13"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="13"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="13"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="13"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="13"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="13"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="13"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
+      <c r="A39" s="14"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="13"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="13"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="A22:A31"/>
     <mergeCell ref="B22:F31"/>
     <mergeCell ref="A32:A41"/>
     <mergeCell ref="B32:F41"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="27.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A18" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="14"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="14"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="14"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="14"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="14"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="14"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="14"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="14"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="14"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+    </row>
+    <row r="28" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A28" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="14"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="14"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="14"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="14"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="14"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="14"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="14"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="14"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="14"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A18:A27"/>
+    <mergeCell ref="B18:F27"/>
+    <mergeCell ref="A28:A37"/>
+    <mergeCell ref="B28:F37"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A10:F10"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="27.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A18" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="14"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="14"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="14"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="14"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="14"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="14"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="14"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="14"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="14"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+    </row>
+    <row r="28" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A28" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="14"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="14"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="14"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="14"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="14"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="14"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="14"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="14"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="14"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A18:A27"/>
+    <mergeCell ref="B18:F27"/>
+    <mergeCell ref="A28:A37"/>
+    <mergeCell ref="B28:F37"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A10:F10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/doc/工作流接口说明.xlsx
+++ b/doc/工作流接口说明.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="8640" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="8640" tabRatio="728"/>
   </bookViews>
   <sheets>
     <sheet name="创建工作流实例" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="120">
   <si>
     <t>接口名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -203,10 +203,6 @@
   </si>
   <si>
     <t>templateName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作流模板名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -903,6 +899,26 @@
         }
     }
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>versionNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作流模板名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作流模板版本号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1076,17 +1092,17 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1375,10 +1391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:C14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1395,47 +1411,47 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="13" t="s">
@@ -1581,13 +1597,13 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>11</v>
@@ -1599,333 +1615,351 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="E15" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="6" t="s">
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B18" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C18" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D18" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E18" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F18" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="3" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>52</v>
-      </c>
+      <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="4" t="s">
+      <c r="B22" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="E22" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-    </row>
-    <row r="24" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A24" s="14" t="s">
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+    </row>
+    <row r="25" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A25" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="14"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
+      <c r="B25" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="14"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="14"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="14"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="14"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="14"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="14"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="14"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="14"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-    </row>
-    <row r="34" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A34" s="14" t="s">
+      <c r="A33" s="16"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="16"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+    </row>
+    <row r="35" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A35" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="14"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
+      <c r="B35" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="14"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="14"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="14"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="14"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="14"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="14"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="14"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="14"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="16"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A25:A34"/>
+    <mergeCell ref="B25:F34"/>
+    <mergeCell ref="A35:A44"/>
+    <mergeCell ref="B35:F44"/>
+    <mergeCell ref="A17:F17"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A24:A33"/>
-    <mergeCell ref="B24:F33"/>
-    <mergeCell ref="A34:A43"/>
-    <mergeCell ref="B34:F43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1958,47 +1992,47 @@
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
+      <c r="B4" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="13" t="s">
@@ -2144,13 +2178,13 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>11</v>
@@ -2159,18 +2193,18 @@
         <v>13</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>11</v>
@@ -2241,10 +2275,10 @@
         <v>39</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>31</v>
@@ -2259,19 +2293,19 @@
         <v>40</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2279,13 +2313,13 @@
         <v>41</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>71</v>
-      </c>
       <c r="D21" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>28</v>
@@ -2311,175 +2345,180 @@
       <c r="F23" s="13"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="16"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="16"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="16"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="16"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="16"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="16"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="16"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="16"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="16"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="14"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="14"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="14"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="14"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="14"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="14"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="14"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="14"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="14"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="14"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="14"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="14"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="14"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="14"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="14"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="14"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="14"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="14"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A24:A33"/>
+    <mergeCell ref="B24:F33"/>
+    <mergeCell ref="A34:A43"/>
+    <mergeCell ref="B34:F43"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="B1:F1"/>
@@ -2487,11 +2526,6 @@
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A24:A33"/>
-    <mergeCell ref="B24:F33"/>
-    <mergeCell ref="A34:A43"/>
-    <mergeCell ref="B34:F43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -2523,47 +2557,47 @@
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
+      <c r="B4" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="13" t="s">
@@ -2709,13 +2743,13 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>11</v>
@@ -2724,18 +2758,18 @@
         <v>13</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>11</v>
@@ -2747,13 +2781,13 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>11</v>
@@ -2765,33 +2799,33 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>74</v>
-      </c>
       <c r="E16" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>11</v>
@@ -2803,13 +2837,13 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>11</v>
@@ -2821,16 +2855,16 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>28</v>
@@ -2898,10 +2932,10 @@
         <v>39</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>31</v>
@@ -2916,19 +2950,19 @@
         <v>40</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2936,13 +2970,13 @@
         <v>41</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>88</v>
-      </c>
       <c r="D26" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>28</v>
@@ -2968,175 +3002,180 @@
       <c r="F28" s="13"/>
     </row>
     <row r="29" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="16"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="16"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="16"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="16"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="16"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="16"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="16"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="16"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="16"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+    </row>
+    <row r="39" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A39" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="14"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="14"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="14"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="14"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="14"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="14"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="14"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="14"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="14"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-    </row>
-    <row r="39" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A39" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="14"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="14"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="14"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="14"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="14"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
+      <c r="A44" s="16"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="14"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
+      <c r="A45" s="16"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="14"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
+      <c r="A46" s="16"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="14"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
+      <c r="A47" s="16"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="14"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
+      <c r="A48" s="16"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A29:A38"/>
+    <mergeCell ref="B29:F38"/>
+    <mergeCell ref="A39:A48"/>
+    <mergeCell ref="B39:F48"/>
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="F16:F17"/>
@@ -3145,11 +3184,6 @@
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A29:A38"/>
-    <mergeCell ref="B29:F38"/>
-    <mergeCell ref="A39:A48"/>
-    <mergeCell ref="B39:F48"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -3181,47 +3215,47 @@
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
+      <c r="B4" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="13" t="s">
@@ -3426,10 +3460,10 @@
         <v>39</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>31</v>
@@ -3444,19 +3478,19 @@
         <v>40</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3464,13 +3498,13 @@
         <v>41</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>28</v>
@@ -3496,186 +3530,186 @@
       <c r="F21" s="13"/>
     </row>
     <row r="22" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
+      <c r="B22" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="14"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="14"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="14"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="14"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="14"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="14"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="14"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="14"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="14"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
     </row>
     <row r="32" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
+      <c r="B32" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="14"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="14"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="14"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="14"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="14"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="14"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="14"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="14"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="14"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A22:A31"/>
+    <mergeCell ref="B22:F31"/>
+    <mergeCell ref="A32:A41"/>
+    <mergeCell ref="B32:F41"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A22:A31"/>
-    <mergeCell ref="B22:F31"/>
-    <mergeCell ref="A32:A41"/>
-    <mergeCell ref="B32:F41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -3707,47 +3741,47 @@
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
+      <c r="B4" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="13" t="s">
@@ -3952,10 +3986,10 @@
         <v>39</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>31</v>
@@ -3970,19 +4004,19 @@
         <v>40</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>105</v>
-      </c>
       <c r="E18" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3990,13 +4024,13 @@
         <v>41</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>28</v>
@@ -4022,186 +4056,186 @@
       <c r="F21" s="13"/>
     </row>
     <row r="22" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
+      <c r="B22" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="14"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="14"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="14"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="14"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="14"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="14"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="14"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="14"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="14"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
     </row>
     <row r="32" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
+      <c r="B32" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="14"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="14"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="14"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="14"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="14"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="14"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="14"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="14"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="14"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A22:A31"/>
+    <mergeCell ref="B22:F31"/>
+    <mergeCell ref="A32:A41"/>
+    <mergeCell ref="B32:F41"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A22:A31"/>
-    <mergeCell ref="B22:F31"/>
-    <mergeCell ref="A32:A41"/>
-    <mergeCell ref="B32:F41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4233,47 +4267,47 @@
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
+      <c r="B4" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="13" t="s">
@@ -4402,10 +4436,10 @@
         <v>39</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>11</v>
@@ -4420,19 +4454,19 @@
         <v>40</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4440,10 +4474,10 @@
         <v>41</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>11</v>
@@ -4472,186 +4506,186 @@
       <c r="F17" s="13"/>
     </row>
     <row r="18" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
+      <c r="B18" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="14"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="14"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="14"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="14"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="14"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="14"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="14"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="14"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="14"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
     </row>
     <row r="28" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
+      <c r="B28" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="14"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="14"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="14"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="14"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="14"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="14"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="14"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="14"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="14"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="A17:F17"/>
     <mergeCell ref="A18:A27"/>
     <mergeCell ref="B18:F27"/>
     <mergeCell ref="A28:A37"/>
     <mergeCell ref="B28:F37"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A10:F10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4665,7 +4699,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
@@ -4683,47 +4717,47 @@
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
+      <c r="B4" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="13" t="s">
@@ -4852,10 +4886,10 @@
         <v>39</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>11</v>
@@ -4870,19 +4904,19 @@
         <v>40</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4890,10 +4924,10 @@
         <v>41</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>11</v>
@@ -4922,186 +4956,186 @@
       <c r="F17" s="13"/>
     </row>
     <row r="18" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
+      <c r="B18" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="14"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="14"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="14"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="14"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="14"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="14"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="14"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="14"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="14"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
     </row>
     <row r="28" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
+      <c r="B28" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="14"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="14"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="14"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="14"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="14"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="14"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="14"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="14"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="14"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="A17:F17"/>
     <mergeCell ref="A18:A27"/>
     <mergeCell ref="B18:F27"/>
     <mergeCell ref="A28:A37"/>
     <mergeCell ref="B28:F37"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A10:F10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/doc/工作流接口说明.xlsx
+++ b/doc/工作流接口说明.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="8640" tabRatio="728"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="8640" tabRatio="728" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="创建工作流实例" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="121">
   <si>
     <t>接口名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -555,34 +555,6 @@
   </si>
   <si>
     <t>{
-    "sysid": "xx",
-    "sid": "I003ToNext",
-    "body": {
-        "user": {
-            "userID": "8a81b2b54b7b391b014b7d14a00409ff",
-            "userName": "公用主管",
-            "roles": [
-                {
-                    "roleID": "001",
-                    "roleName": "选型主管"
-                }
-            ]
-        },
-        "serviceDataID": "SID001",
-        "activityRouteCode": "选型评审-单人选型",
-        "participants": [
-            {
-                "objectID": "8a81b2b54b7b391b014b7d143a7400fe",
-                "objectName": "公用选型负责人",
-                "objectType": "1"
-            }
-        ]
-    }
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
   "body" : {
     "createOrg" : "",
     "createOrgID" : "",
@@ -919,6 +891,38 @@
   </si>
   <si>
     <t>Integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "sysid": "xx",
+    "sid": "I003ToNext",
+    "body": {
+        "user": {
+            "userID": "8a81b2b54b7b391b014b7d14a00409ff",
+            "userName": "公用主管",
+            "roles": [
+                {
+                    "roleID": "001",
+                    "roleName": "选型主管"
+                }
+            ]
+        },
+        "serviceDataID": "SID001",
+        "activityRouteCode": "选型评审-单人选型",
+        "participants": [
+            {
+                "objectID": "8a81b2b54b7b391b014b7d143a7400fe",
+                "objectName": "公用选型负责人",
+                "objectType": "1"
+            }
+        ]
+    }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走哪条路的活动路由Code</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1092,17 +1096,17 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1393,7 +1397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -1411,47 +1415,47 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="13" t="s">
@@ -1603,7 +1607,7 @@
         <v>44</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>11</v>
@@ -1618,13 +1622,13 @@
         <v>48</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>28</v>
@@ -1633,7 +1637,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>45</v>
@@ -1780,186 +1784,186 @@
       <c r="F24" s="13"/>
     </row>
     <row r="25" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="16"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="16"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="16"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="16"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="16"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="16"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="16"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="16"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="16"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
     </row>
     <row r="35" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="16"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="16"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="16"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="16"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
+      <c r="A39" s="14"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="16"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="16"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="16"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="16"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="16"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A25:A34"/>
-    <mergeCell ref="B25:F34"/>
-    <mergeCell ref="A35:A44"/>
-    <mergeCell ref="B35:F44"/>
     <mergeCell ref="A17:F17"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B2:F2"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A25:A34"/>
+    <mergeCell ref="B25:F34"/>
+    <mergeCell ref="A35:A44"/>
+    <mergeCell ref="B35:F44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1992,47 +1996,47 @@
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="13" t="s">
@@ -2345,180 +2349,175 @@
       <c r="F23" s="13"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="16"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="16"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="16"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="16"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="16"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="16"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="16"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="16"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="16"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="16"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="16"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="16"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="16"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="16"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
+      <c r="A39" s="14"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="16"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="16"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="16"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="16"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A24:A33"/>
-    <mergeCell ref="B24:F33"/>
-    <mergeCell ref="A34:A43"/>
-    <mergeCell ref="B34:F43"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="B1:F1"/>
@@ -2526,6 +2525,11 @@
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A24:A33"/>
+    <mergeCell ref="B24:F33"/>
+    <mergeCell ref="A34:A43"/>
+    <mergeCell ref="B34:F43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -2539,8 +2543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2557,47 +2561,47 @@
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="13" t="s">
@@ -2787,7 +2791,7 @@
         <v>89</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>11</v>
@@ -2802,7 +2806,7 @@
         <v>80</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>72</v>
@@ -2822,7 +2826,7 @@
         <v>81</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>74</v>
@@ -2840,7 +2844,7 @@
         <v>82</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>75</v>
@@ -2858,7 +2862,7 @@
         <v>83</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>76</v>
@@ -3002,180 +3006,175 @@
       <c r="F28" s="13"/>
     </row>
     <row r="29" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="14"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="14"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="14"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="14"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="14"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="14"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="14"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="14"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="14"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+    </row>
+    <row r="39" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A39" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="16"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="16"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="16"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="16"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="16"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="16"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="16"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="16"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="16"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-    </row>
-    <row r="39" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A39" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="16"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="16"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="16"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="16"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="16"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="16"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="16"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
+      <c r="A46" s="14"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="16"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
+      <c r="A47" s="14"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="16"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
+      <c r="A48" s="14"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A29:A38"/>
-    <mergeCell ref="B29:F38"/>
-    <mergeCell ref="A39:A48"/>
-    <mergeCell ref="B39:F48"/>
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="F16:F17"/>
@@ -3184,6 +3183,11 @@
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A29:A38"/>
+    <mergeCell ref="B29:F38"/>
+    <mergeCell ref="A39:A48"/>
+    <mergeCell ref="B39:F48"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -3215,47 +3219,47 @@
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="B1" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="B4" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="13" t="s">
@@ -3484,7 +3488,7 @@
         <v>52</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>28</v>
@@ -3530,186 +3534,186 @@
       <c r="F21" s="13"/>
     </row>
     <row r="22" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
+      <c r="B22" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="16"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="16"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="16"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="16"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="16"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="16"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="16"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="16"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="16"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
     </row>
     <row r="32" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
+      <c r="B32" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="16"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="16"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="16"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="16"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="16"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="16"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="16"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
+      <c r="A39" s="14"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="16"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="16"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A22:A31"/>
-    <mergeCell ref="B22:F31"/>
-    <mergeCell ref="A32:A41"/>
-    <mergeCell ref="B32:F41"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A22:A31"/>
+    <mergeCell ref="B22:F31"/>
+    <mergeCell ref="A32:A41"/>
+    <mergeCell ref="B32:F41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -3741,47 +3745,47 @@
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="B1" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="B4" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="13" t="s">
@@ -4007,10 +4011,10 @@
         <v>49</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>28</v>
@@ -4027,7 +4031,7 @@
         <v>45</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>54</v>
@@ -4056,186 +4060,186 @@
       <c r="F21" s="13"/>
     </row>
     <row r="22" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
+      <c r="B22" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="16"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="16"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="16"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="16"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="16"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="16"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="16"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="16"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="16"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
     </row>
     <row r="32" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
+      <c r="B32" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="16"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="16"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="16"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="16"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="16"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="16"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="16"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
+      <c r="A39" s="14"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="16"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="16"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A22:A31"/>
-    <mergeCell ref="B22:F31"/>
-    <mergeCell ref="A32:A41"/>
-    <mergeCell ref="B32:F41"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A22:A31"/>
+    <mergeCell ref="B22:F31"/>
+    <mergeCell ref="A32:A41"/>
+    <mergeCell ref="B32:F41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4267,47 +4271,47 @@
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="B1" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="B4" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="13" t="s">
@@ -4460,7 +4464,7 @@
         <v>52</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>28</v>
@@ -4506,186 +4510,186 @@
       <c r="F17" s="13"/>
     </row>
     <row r="18" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
+      <c r="B18" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="16"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="16"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="16"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="16"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="16"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="16"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="16"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="16"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="16"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
     </row>
     <row r="28" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
+      <c r="B28" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="16"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="16"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="16"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="16"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="16"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="16"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="16"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="16"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="16"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A18:A27"/>
+    <mergeCell ref="B18:F27"/>
+    <mergeCell ref="A28:A37"/>
+    <mergeCell ref="B28:F37"/>
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A18:A27"/>
-    <mergeCell ref="B18:F27"/>
-    <mergeCell ref="A28:A37"/>
-    <mergeCell ref="B28:F37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4717,47 +4721,47 @@
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
+      <c r="B1" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="B4" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="13" t="s">
@@ -4910,7 +4914,7 @@
         <v>52</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>28</v>
@@ -4956,186 +4960,186 @@
       <c r="F17" s="13"/>
     </row>
     <row r="18" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
+      <c r="B18" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="16"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="16"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="16"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="16"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="16"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="16"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="16"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="16"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="16"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
     </row>
     <row r="28" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
+      <c r="B28" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="16"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="16"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="16"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="16"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="16"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="16"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="16"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="16"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="16"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A18:A27"/>
+    <mergeCell ref="B18:F27"/>
+    <mergeCell ref="A28:A37"/>
+    <mergeCell ref="B28:F37"/>
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A18:A27"/>
-    <mergeCell ref="B18:F27"/>
-    <mergeCell ref="A28:A37"/>
-    <mergeCell ref="B28:F37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/doc/工作流接口说明.xlsx
+++ b/doc/工作流接口说明.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="8640" tabRatio="728" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="8640" tabRatio="728" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="创建工作流实例" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="待办查询（业务数据ID）" sheetId="7" r:id="rId5"/>
     <sheet name="已办查询（工作流实例ID）" sheetId="8" r:id="rId6"/>
     <sheet name="已办查询（业务数据ID）" sheetId="9" r:id="rId7"/>
+    <sheet name="查询汇总情况" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="147">
   <si>
     <t>接口名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -923,6 +924,227 @@
   </si>
   <si>
     <t>走哪条路的活动路由Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I008querySummarys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇总相关所有流转信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TablePartitionLink&lt;String ,FlowProcess&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "sysid": "xx",
+    "sid": "I008querySummarys",
+    "body": {
+       "serviceDataID": "能玩游戏吗009"
+    }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "body" : {
+    "XF087567D4C02844E5B2F2515E8F6B7586" : [
+      {
+        "counter" : "1",
+        "counterPass" : "2",
+        "createOrg" : "",
+        "createOrgID" : "",
+        "createTime" : "2019-09-18 15:37:33",
+        "creater" : "小明",
+        "createrID" : "Children-01",
+        "currentActivityCode" : "妈妈是否同意",
+        "currentActivityID" : "A-ManyRoute-003",
+        "currentActivityName" : "妈妈是否同意",
+        "futureParticipants" : "",
+        "infoComment" : "",
+        "isPass" : "",
+        "limitOrgID" : "",
+        "limitTime" : "2000-01-01 00:00:00",
+        "limitUserID" : "",
+        "nextActivityCode" : "汇总结果",
+        "nextActivityID" : "A-ManyRoute-004",
+        "nextActivityName" : "汇总结果",
+        "nextProcessID" : "XFD60C1118B469412A8464B643977B757F",
+        "operateDatas" : "",
+        "operateFiles" : "",
+        "operateOrg" : "",
+        "operateOrgID" : "",
+        "operateTime" : "2019-09-18 15:37:55",
+        "operateTimeLen" : "0",
+        "operateType" : "汇签",
+        "operateTypeID" : "RT003",
+        "operateUser" : "小明的妈妈",
+        "operateUserID" : "Mother-01",
+        "participants" : "",
+        "passType" : "",
+        "previousActivityCode" : "想玩游戏",
+        "previousActivityID" : "A-ManyRoute-001",
+        "previousActivityName" : "想玩游戏",
+        "previousOperateTypeID" : "RT002",
+        "previousProcessID" : "XF087567D4C02844E5B2F2515E8F6B7586",
+        "processID" : "XF1582F0EA1E954055B129D1A8363E5F0D",
+        "processNo" : "-1",
+        "serviceDataID" : "能玩游戏吗009",
+        "splitProcessID" : "XF087567D4C02844E5B2F2515E8F6B7586",
+        "summary" : "50.0",
+        "summaryPass" : "100.0",
+        "templateID" : "",
+        "workID" : "XF04CF2770F57D491BB93BEF7BC6FAB516"
+      },
+      {
+        "counter" : "1",
+        "counterPass" : "2",
+        "createOrg" : "",
+        "createOrgID" : "",
+        "createTime" : "2019-09-18 15:37:33",
+        "creater" : "小明",
+        "createrID" : "Children-01",
+        "currentActivityCode" : "爸爸是否同意",
+        "currentActivityID" : "A-ManyRoute-002",
+        "currentActivityName" : "爸爸是否同意",
+        "futureParticipants" : "",
+        "infoComment" : "",
+        "isPass" : "",
+        "limitOrgID" : "",
+        "limitTime" : "2000-01-01 00:00:00",
+        "limitUserID" : "",
+        "nextActivityCode" : "汇总结果",
+        "nextActivityID" : "A-ManyRoute-004",
+        "nextActivityName" : "汇总结果",
+        "nextProcessID" : "XFD1D234E962824C35B89A91ADDC685B8D",
+        "operateDatas" : "",
+        "operateFiles" : "",
+        "operateOrg" : "",
+        "operateOrgID" : "",
+        "operateTime" : "2019-09-18 15:38:07",
+        "operateTimeLen" : "0",
+        "operateType" : "汇签",
+        "operateTypeID" : "RT003",
+        "operateUser" : "小明的爸爸",
+        "operateUserID" : "Father-01",
+        "participants" : "",
+        "passType" : "",
+        "previousActivityCode" : "想玩游戏",
+        "previousActivityID" : "A-ManyRoute-001",
+        "previousActivityName" : "想玩游戏",
+        "previousOperateTypeID" : "RT002",
+        "previousProcessID" : "XF087567D4C02844E5B2F2515E8F6B7586",
+        "processID" : "XFBC4A61D143F748D8A1E18D89BA6EFE78",
+        "processNo" : "-1",
+        "serviceDataID" : "能玩游戏吗009",
+        "splitProcessID" : "XF087567D4C02844E5B2F2515E8F6B7586",
+        "summary" : "50.0",
+        "summaryPass" : "100.0",
+        "templateID" : "",
+        "workID" : "XF04CF2770F57D491BB93BEF7BC6FAB516"
+      }
+    ]
+  },
+  "encry" : "",
+  "format" : "",
+  "rc" : "0",
+  "result" : "true",
+  "ri" : "",
+  "serialNo" : "2019091817515143016745XFlowWeb",
+  "session" : "",
+  "sid" : "I008querySummarys",
+  "sidv" : "",
+  "sign" : "",
+  "sysid" : "xx",
+  "tokenSec" : ""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每位人员审批的汇总值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇总通过值。当大于等于此值后，才能继续向下流转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlowProcess.summary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询汇总情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlowProcess.summaryPass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlowProcess.counter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlowProcess.counterPass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlowProcess.passType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交汇总的人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇总人数的限制。当大于等于此值后，才能继续向下流转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇总类型。指summaryPass和counterPass的关系是与，还是或</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取值范围为（AND、OR）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1053,7 +1275,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1096,17 +1318,20 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1415,57 +1640,57 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="6" t="s">
@@ -1662,14 +1887,14 @@
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="6" t="s">
@@ -1774,196 +1999,196 @@
       <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
     </row>
     <row r="25" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="14"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="14"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="14"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="14"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="14"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="14"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="14"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="14"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="14"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
     </row>
     <row r="35" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="14"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="14"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="14"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="14"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="14"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="14"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="14"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="14"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
+      <c r="A43" s="17"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="14"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
+      <c r="A44" s="17"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A25:A34"/>
+    <mergeCell ref="B25:F34"/>
+    <mergeCell ref="A35:A44"/>
+    <mergeCell ref="B35:F44"/>
     <mergeCell ref="A17:F17"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A25:A34"/>
-    <mergeCell ref="B25:F34"/>
-    <mergeCell ref="A35:A44"/>
-    <mergeCell ref="B35:F44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1996,57 +2221,57 @@
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="9" t="s">
@@ -2196,7 +2421,7 @@
       <c r="E13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="19" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2216,7 +2441,7 @@
       <c r="E14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="19"/>
+      <c r="F14" s="20"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="3"/>
@@ -2227,14 +2452,14 @@
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="9" t="s">
@@ -2339,185 +2564,190 @@
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="14"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="14"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="14"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="14"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="14"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="14"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="14"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="14"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="14"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="14"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="14"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="14"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="14"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="14"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="14"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="14"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="14"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="14"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
+      <c r="A43" s="17"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A24:A33"/>
+    <mergeCell ref="B24:F33"/>
+    <mergeCell ref="A34:A43"/>
+    <mergeCell ref="B34:F43"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="B1:F1"/>
@@ -2525,11 +2755,6 @@
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A24:A33"/>
-    <mergeCell ref="B24:F33"/>
-    <mergeCell ref="A34:A43"/>
-    <mergeCell ref="B34:F43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -2543,7 +2768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -2561,57 +2786,57 @@
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="9" t="s">
@@ -2761,7 +2986,7 @@
       <c r="E13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="19" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2781,7 +3006,7 @@
       <c r="E14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="19"/>
+      <c r="F14" s="20"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="3" t="s">
@@ -2817,7 +3042,7 @@
       <c r="E16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="19" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2837,7 +3062,7 @@
       <c r="E17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="19"/>
+      <c r="F17" s="20"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
@@ -2884,14 +3109,14 @@
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="9" t="s">
@@ -2996,185 +3221,190 @@
       <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
     </row>
     <row r="29" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="14"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="14"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="14"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="14"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="14"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="14"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="14"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="14"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="14"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
     </row>
     <row r="39" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="14"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="14"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="14"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="14"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
+      <c r="A43" s="17"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="14"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
+      <c r="A44" s="17"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="14"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
+      <c r="A45" s="17"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="14"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
+      <c r="A46" s="17"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="14"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
+      <c r="A47" s="17"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="14"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
+      <c r="A48" s="17"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A29:A38"/>
+    <mergeCell ref="B29:F38"/>
+    <mergeCell ref="A39:A48"/>
+    <mergeCell ref="B39:F48"/>
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="F16:F17"/>
@@ -3183,11 +3413,6 @@
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A29:A38"/>
-    <mergeCell ref="B29:F38"/>
-    <mergeCell ref="A39:A48"/>
-    <mergeCell ref="B39:F48"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -3219,57 +3444,57 @@
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="9" t="s">
@@ -3412,14 +3637,14 @@
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="9" t="s">
@@ -3524,196 +3749,196 @@
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
     </row>
     <row r="22" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="14"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="14"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="14"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="14"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="14"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="14"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="14"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="14"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="14"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
     </row>
     <row r="32" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="14"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="14"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="14"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="14"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="14"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="14"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="14"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="14"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="14"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A22:A31"/>
+    <mergeCell ref="B22:F31"/>
+    <mergeCell ref="A32:A41"/>
+    <mergeCell ref="B32:F41"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A22:A31"/>
-    <mergeCell ref="B22:F31"/>
-    <mergeCell ref="A32:A41"/>
-    <mergeCell ref="B32:F41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -3745,57 +3970,57 @@
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="9" t="s">
@@ -3938,14 +4163,14 @@
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="9" t="s">
@@ -4050,196 +4275,196 @@
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
     </row>
     <row r="22" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="14"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="14"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="14"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="14"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="14"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="14"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="14"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="14"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="14"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
     </row>
     <row r="32" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="14"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="14"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="14"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="14"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="14"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="14"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="14"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="14"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="14"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A22:A31"/>
+    <mergeCell ref="B22:F31"/>
+    <mergeCell ref="A32:A41"/>
+    <mergeCell ref="B32:F41"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A22:A31"/>
-    <mergeCell ref="B22:F31"/>
-    <mergeCell ref="A32:A41"/>
-    <mergeCell ref="B32:F41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4271,57 +4496,57 @@
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="10" t="s">
@@ -4388,14 +4613,14 @@
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="10" t="s">
@@ -4500,196 +4725,196 @@
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
     </row>
     <row r="18" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="14"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="14"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="14"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="14"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="14"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="14"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="14"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="14"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="14"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
     </row>
     <row r="28" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="14"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="14"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="14"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="14"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="14"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="14"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="14"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="14"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="14"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A18:A27"/>
-    <mergeCell ref="B18:F27"/>
-    <mergeCell ref="A28:A37"/>
-    <mergeCell ref="B28:F37"/>
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A18:A27"/>
+    <mergeCell ref="B18:F27"/>
+    <mergeCell ref="A28:A37"/>
+    <mergeCell ref="B28:F37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4703,7 +4928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
@@ -4721,57 +4946,57 @@
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="10" t="s">
@@ -4838,14 +5063,14 @@
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="10" t="s">
@@ -4950,196 +5175,723 @@
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
     </row>
     <row r="18" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="14"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="14"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="14"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="14"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="14"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="14"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="14"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="14"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="14"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
     </row>
     <row r="28" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="14"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="14"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="14"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="14"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="14"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="14"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="14"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="14"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="14"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A18:A27"/>
-    <mergeCell ref="B18:F27"/>
-    <mergeCell ref="A28:A37"/>
-    <mergeCell ref="B28:F37"/>
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A18:A27"/>
+    <mergeCell ref="B18:F27"/>
+    <mergeCell ref="A28:A37"/>
+    <mergeCell ref="B28:F37"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="17"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="17"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="17"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="17"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="17"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="17"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="17"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="17"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="17"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="17"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="17"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="17"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="17"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="17"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="17"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="17"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="17"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="17"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A22:A31"/>
+    <mergeCell ref="B22:F31"/>
+    <mergeCell ref="A32:A41"/>
+    <mergeCell ref="B32:F41"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="F7:F8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/doc/工作流接口说明.xlsx
+++ b/doc/工作流接口说明.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="161">
   <si>
     <t>接口名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -334,154 +334,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-    "sysid": "xx",
-    "sid": "I002QueryNextRoutes",
-    "body": {
-        "user": {
-            "userID": "8a81b2b54b7b391b014b7d14a00409ff",
-            "userName": "公用主管",
-            "roles": [
-                {
-                    "roleID": "001",
-                    "roleName": "选型主管"
-                }
-            ]
-        },
-        "serviceDataID": "SID001"
-    }
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "body" : [
-    {
-      "activity" : "",
-      "activityCode" : "选型评审",
-      "activityID" : "A003",
-      "activityRouteCode" : "单人评审-单人选型",
-      "activityRouteID" : "AR007",
-      "activityRouteName" : "评审后转向单人选型",
-      "conditionMethod" : "",
-      "conditionVType" : "0",
-      "conditionValue" : "",
-      "conditionXJavaID" : "",
-      "createTime" : "2018-04-24 01:01:01",
-      "creater" : "郑伟",
-      "createrID" : "8a81b2aa4e4865b4014e535c6c900115",
-      "infoComment" : "",
-      "lastTime" : "2018-04-24 01:01:01",
-      "lastUser" : "郑伟",
-      "lastUserID" : "8a81b2aa4e4865b4014e535c6c900115",
-      "nextActivity" : "",
-      "nextActivityCode" : "单人选型",
-      "nextActivityID" : "A004",
-      "participantByCreater" : "",
-      "participants" : "",
-      "routeType" : {
-        "infoComment" : "",
-        "orderNo" : "",
-        "routeType" : "转派",
-        "routeTypeID" : "RT001"
-      },
-      "routeTypeID" : "RT001",
-      "templateID" : "T001"
-    },
-    {
-      "activity" : "",
-      "activityCode" : "选型评审",
-      "activityID" : "A003",
-      "activityRouteCode" : "单人评审-选型分包",
-      "activityRouteID" : "AR008",
-      "activityRouteName" : "评审后转向选型分包",
-      "conditionMethod" : "",
-      "conditionVType" : "0",
-      "conditionValue" : "",
-      "conditionXJavaID" : "",
-      "createTime" : "2018-04-24 01:01:01",
-      "creater" : "郑伟",
-      "createrID" : "8a81b2aa4e4865b4014e535c6c900115",
-      "infoComment" : "",
-      "lastTime" : "2018-04-24 01:01:01",
-      "lastUser" : "郑伟",
-      "lastUserID" : "8a81b2aa4e4865b4014e535c6c900115",
-      "nextActivity" : "",
-      "nextActivityCode" : "选型分包",
-      "nextActivityID" : "A005",
-      "participantByCreater" : "",
-      "participants" : "",
-      "routeType" : {
-        "infoComment" : "",
-        "orderNo" : "",
-        "routeType" : "转派",
-        "routeTypeID" : "RT001"
-      },
-      "routeTypeID" : "RT001",
-      "templateID" : "T001"
-    },
-    {
-      "activity" : "",
-      "activityCode" : "选型评审",
-      "activityID" : "A003",
-      "activityRouteCode" : "单人评审-选型申请",
-      "activityRouteID" : "AR009",
-      "activityRouteName" : "评审未通过",
-      "conditionMethod" : "",
-      "conditionVType" : "0",
-      "conditionValue" : "",
-      "conditionXJavaID" : "",
-      "createTime" : "2018-04-24 01:01:01",
-      "creater" : "郑伟",
-      "createrID" : "8a81b2aa4e4865b4014e535c6c900115",
-      "infoComment" : "",
-      "lastTime" : "2018-04-24 01:01:01",
-      "lastUser" : "郑伟",
-      "lastUserID" : "8a81b2aa4e4865b4014e535c6c900115",
-      "nextActivity" : "",
-      "nextActivityCode" : "选型申请",
-      "nextActivityID" : "A001",
-      "participantByCreater" : "",
-      "participants" : "",
-      "routeType" : {
-        "infoComment" : "",
-        "orderNo" : "",
-        "routeType" : "驳回",
-        "routeTypeID" : "RT020"
-      },
-      "routeTypeID" : "RT020",
-      "templateID" : "T001"
-    }
-  ],
-  "encry" : "",
-  "format" : "",
-  "rc" : "0",
-  "result" : "true",
-  "ri" : "",
-  "serialNo" : "2018051810000601535969XFlowWeb",
-  "session" : "",
-  "sid" : "I002QueryNextRoutes",
-  "sidv" : "",
-  "sign" : "",
-  "sysid" : "xx",
-  "tokenSec" : ""
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>List&lt;ActivityRoute&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>路由集合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>activityRouteCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动路由Code</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -927,10 +780,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I008querySummarys</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -944,16 +793,6 @@
   </si>
   <si>
     <t>TablePartitionLink&lt;String ,FlowProcess&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "sysid": "xx",
-    "sid": "I008querySummarys",
-    "body": {
-       "serviceDataID": "能玩游戏吗009"
-    }
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1145,6 +984,435 @@
   </si>
   <si>
     <t>取值范围为（AND、OR）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "body": {
+        "currentActivity": {
+            "activityCode": "汇总结果",
+            "activityID": "A-ManyRoute-004",
+            "activityName": "汇总结果",
+            "activityType": {
+                "activityType": "常规",
+                "activityTypeID": "AT001",
+                "infoComment": "",
+                "orderNo": ""
+            },
+            "activityTypeID": "",
+            "backgroudColor": "",
+            "counterPass": "2",
+            "createTime": "",
+            "creater": "",
+            "createrID": "",
+            "flagColor": "",
+            "fontColor": "",
+            "height": "",
+            "iconURL": "",
+            "infoComment": "",
+            "lastTime": "",
+            "lastUser": "",
+            "lastUserID": "",
+            "lineColor": "",
+            "participantByActivitys": "",
+            "participantByCreater": "",
+            "participants": "",
+            "passType": "OR",
+            "routes": "",
+            "summaryPass": "100.0",
+            "templateID": "T-ManyRoute-001",
+            "width": "",
+            "x": "",
+            "y": "",
+            "z": ""
+        },
+        "currentProcess": {
+            "counter": "2",
+            "counterPass": "2",
+            "createOrg": "",
+            "createOrgID": "",
+            "createTime": "2019-09-19 10:57:29",
+            "creater": "小明的妈妈",
+            "createrID": "Mother-01",
+            "currentActivityCode": "汇总结果",
+            "currentActivityID": "A-ManyRoute-004",
+            "currentActivityName": "汇总结果",
+            "futureParticipants": "",
+            "infoComment": "",
+            "isPass": "1",
+            "limitOrgID": "",
+            "limitTime": "2000-01-01 00:00:00",
+            "limitUserID": "",
+            "nextActivityCode": "",
+            "nextActivityID": "",
+            "nextActivityName": "",
+            "nextProcessID": "",
+            "operateDatas": "",
+            "operateFiles": "",
+            "operateOrg": "",
+            "operateOrgID": "",
+            "operateTime": "2019-09-19 10:57:29",
+            "operateTimeLen": "0",
+            "operateType": "",
+            "operateTypeID": "",
+            "operateUser": "小明的妈妈",
+            "operateUserID": "Mother-01",
+            "participants": "",
+            "passType": "",
+            "previousActivityCode": "妈妈是否同意",
+            "previousActivityID": "A-ManyRoute-003",
+            "previousActivityName": "妈妈是否同意",
+            "previousOperateTypeID": "RT003",
+            "previousProcessID": "XFD52585EAB0004138AAF4E4F3CC61089A",
+            "processID": "XFA23D682552DD403B8CD713960BAFDFA7",
+            "processNo": "-1",
+            "serviceDataID": "能玩游戏吗011",
+            "splitProcessID": "XFB0432B54C8D64C2E8BE59CB64F4DC5FF",
+            "summary": "100.0",
+            "summaryPass": "100.0",
+            "templateID": "",
+            "workID": "XF860BE5B05F064B8CBDC22F747BF2F757"
+        },
+        "flow": {
+            "createOrg": "",
+            "createOrgID": "",
+            "createTime": "2019-09-19 10:54:56",
+            "creater": "小明",
+            "createrID": "Children-01",
+            "flowTemplateID": "T-ManyRoute-001",
+            "isDelete": "0",
+            "isValid": "1",
+            "lastOrg": "",
+            "lastOrgID": "",
+            "lastProcessID": "XFA23D682552DD403B8CD713960BAFDFA7",
+            "lastTime": "2019-09-19 10:57:29",
+            "lastUser": "小明的妈妈",
+            "lastUserID": "Mother-01",
+            "processes": "",
+            "serviceDataID": "能玩游戏吗011",
+            "workFatherID": "",
+            "workID": "XF860BE5B05F064B8CBDC22F747BF2F757"
+        },
+        "routes": [
+            {
+                "activity": {
+                    "activityCode": "汇总结果",
+                    "activityID": "A-ManyRoute-004",
+                    "activityName": "汇总结果",
+                    "activityType": {
+                        "activityType": "常规",
+                        "activityTypeID": "AT001",
+                        "infoComment": "",
+                        "orderNo": ""
+                    },
+                    "activityTypeID": "",
+                    "backgroudColor": "",
+                    "counterPass": "2",
+                    "createTime": "",
+                    "creater": "",
+                    "createrID": "",
+                    "flagColor": "",
+                    "fontColor": "",
+                    "height": "",
+                    "iconURL": "",
+                    "infoComment": "",
+                    "lastTime": "",
+                    "lastUser": "",
+                    "lastUserID": "",
+                    "lineColor": "",
+                    "participantByActivitys": "",
+                    "participantByCreater": "",
+                    "participants": "",
+                    "passType": "OR",
+                    "routes": "",
+                    "summaryPass": "100.0",
+                    "templateID": "T-ManyRoute-001",
+                    "width": "",
+                    "x": "",
+                    "y": "",
+                    "z": ""
+                },
+                "activityCode": "汇总结果",
+                "activityID": "A-ManyRoute-004",
+                "activityRouteCode": "执行",
+                "activityRouteID": "AR-ManyRoute-004To005",
+                "activityRouteName": "执行",
+                "conditionMethod": "",
+                "conditionVType": "0",
+                "conditionValue": "",
+                "conditionXJavaID": "",
+                "createTime": "2019-09-11 01:01:01",
+                "creater": "ZhengWei(HY)",
+                "createrID": "UID-00001",
+                "fontColor": "#000000",
+                "infoComment": "",
+                "lastTime": "2019-09-16 15:55:35",
+                "lastUser": "ZhengWei(HY)",
+                "lastUserID": "UID-00001",
+                "lineColor": "#6AB975",
+                "nextActivity": {
+                    "activityCode": "执行结果",
+                    "activityID": "A-ManyRoute-005",
+                    "activityName": "执行结果",
+                    "activityType": {
+                        "activityType": "常规",
+                        "activityTypeID": "AT001",
+                        "infoComment": "",
+                        "orderNo": ""
+                    },
+                    "activityTypeID": "",
+                    "backgroudColor": "",
+                    "counterPass": "0",
+                    "createTime": "",
+                    "creater": "",
+                    "createrID": "",
+                    "flagColor": "",
+                    "fontColor": "",
+                    "height": "",
+                    "iconURL": "",
+                    "infoComment": "",
+                    "lastTime": "",
+                    "lastUser": "",
+                    "lastUserID": "",
+                    "lineColor": "",
+                    "participantByActivitys": "",
+                    "participantByCreater": "",
+                    "participants": "",
+                    "passType": "",
+                    "routes": "",
+                    "summaryPass": "0.0",
+                    "templateID": "T-ManyRoute-001",
+                    "width": "",
+                    "x": "",
+                    "y": "",
+                    "z": ""
+                },
+                "nextActivityCode": "执行结果",
+                "nextActivityID": "A-ManyRoute-005",
+                "participantByCreater": "",
+                "participants": "",
+                "routeType": {
+                    "infoComment": "",
+                    "orderNo": "",
+                    "routeType": "转派",
+                    "routeTypeID": "RT001"
+                },
+                "routeTypeID": "RT001",
+                "templateID": "T-ManyRoute-001"
+            }
+        ],
+        "summarys": [
+            {
+                "counter": "1",
+                "counterPass": "2",
+                "createOrg": "",
+                "createOrgID": "",
+                "createTime": "2019-09-19 10:56:39",
+                "creater": "小明",
+                "createrID": "Children-01",
+                "currentActivityCode": "妈妈是否同意",
+                "currentActivityID": "A-ManyRoute-003",
+                "currentActivityName": "妈妈是否同意",
+                "futureParticipants": "",
+                "infoComment": "要做完作业才能玩",
+                "isPass": "",
+                "limitOrgID": "",
+                "limitTime": "2000-01-01 00:00:00",
+                "limitUserID": "",
+                "nextActivityCode": "汇总结果",
+                "nextActivityID": "A-ManyRoute-004",
+                "nextActivityName": "汇总结果",
+                "nextProcessID": "XFA23D682552DD403B8CD713960BAFDFA7",
+                "operateDatas": "",
+                "operateFiles": "",
+                "operateOrg": "",
+                "operateOrgID": "",
+                "operateTime": "2019-09-19 10:57:29",
+                "operateTimeLen": "0",
+                "operateType": "汇签",
+                "operateTypeID": "RT003",
+                "operateUser": "小明的妈妈",
+                "operateUserID": "Mother-01",
+                "participants": "",
+                "passType": "",
+                "previousActivityCode": "想玩游戏",
+                "previousActivityID": "A-ManyRoute-001",
+                "previousActivityName": "想玩游戏",
+                "previousOperateTypeID": "RT002",
+                "previousProcessID": "XFB0432B54C8D64C2E8BE59CB64F4DC5FF",
+                "processID": "XFD52585EAB0004138AAF4E4F3CC61089A",
+                "processNo": "-1",
+                "serviceDataID": "能玩游戏吗011",
+                "splitProcessID": "XFB0432B54C8D64C2E8BE59CB64F4DC5FF",
+                "summary": "50.0",
+                "summaryPass": "100.0",
+                "templateID": "",
+                "workID": "XF860BE5B05F064B8CBDC22F747BF2F757"
+            },
+            {
+                "counter": "1",
+                "counterPass": "2",
+                "createOrg": "",
+                "createOrgID": "",
+                "createTime": "2019-09-19 10:56:39",
+                "creater": "小明",
+                "createrID": "Children-01",
+                "currentActivityCode": "爸爸是否同意",
+                "currentActivityID": "A-ManyRoute-002",
+                "currentActivityName": "爸爸是否同意",
+                "futureParticipants": "",
+                "infoComment": "要学完英语才能玩",
+                "isPass": "",
+                "limitOrgID": "",
+                "limitTime": "2000-01-01 00:00:00",
+                "limitUserID": "",
+                "nextActivityCode": "汇总结果",
+                "nextActivityID": "A-ManyRoute-004",
+                "nextActivityName": "汇总结果",
+                "nextProcessID": "XF80D2C26601A14393869330E1C74DE991",
+                "operateDatas": "学的快，还有奖励",
+                "operateFiles": "这里是英语资料",
+                "operateOrg": "",
+                "operateOrgID": "",
+                "operateTime": "2019-09-19 10:56:53",
+                "operateTimeLen": "0",
+                "operateType": "汇签",
+                "operateTypeID": "RT003",
+                "operateUser": "小明的爸爸",
+                "operateUserID": "Father-01",
+                "participants": "",
+                "passType": "",
+                "previousActivityCode": "想玩游戏",
+                "previousActivityID": "A-ManyRoute-001",
+                "previousActivityName": "想玩游戏",
+                "previousOperateTypeID": "RT002",
+                "previousProcessID": "XFB0432B54C8D64C2E8BE59CB64F4DC5FF",
+                "processID": "XF2BB9A3E5F7AF456EB5F0E721E79F58EB",
+                "processNo": "-1",
+                "serviceDataID": "能玩游戏吗011",
+                "splitProcessID": "XFB0432B54C8D64C2E8BE59CB64F4DC5FF",
+                "summary": "50.0",
+                "summaryPass": "100.0",
+                "templateID": "",
+                "workID": "XF860BE5B05F064B8CBDC22F747BF2F757"
+            }
+        ]
+    },
+    "encry": "",
+    "format": "",
+    "rc": "0",
+    "result": "true",
+    "ri": "",
+    "serialNo": "2019091911440552137594XFlowWeb",
+    "session": "",
+    "sid": "I002QueryNextRoutes",
+    "sidv": "",
+    "sign": "",
+    "sysid": "xx",
+    "tokenSec": ""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "sysid": "xx",
+    "sid": "I002QueryNextRoutes",
+    "body": {
+        "user": {
+            "userID": "Children-01",
+            "userName": "小明",
+            "roles": [
+                {
+                    "roleID": "Children-Role",
+                    "roleName": "孩子的角色"
+                }
+            ]
+        },
+        "serviceDataID": "能玩游戏吗011"
+    }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NextRoutes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前活动节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActivityInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlowProcess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前流转信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NextRoutes.currentActivity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NextRoutes.currentProcess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlowInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作流实例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有可走路由时，才有数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NextRoutes.flow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NextRoutes.routes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NextRoutes.summarys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;ActivityRoute&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;FlowProcess&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以走的路由</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历次的汇总信息（按时间倒序排列）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I008QuerySummarys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "sysid": "xx",
+    "sid": "I008QuerySummarys",
+    "body": {
+       "serviceDataID": "能玩游戏吗009"
+    }
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1832,7 +2100,7 @@
         <v>44</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>11</v>
@@ -1847,13 +2115,13 @@
         <v>48</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>28</v>
@@ -1862,7 +2130,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>45</v>
@@ -2201,20 +2469,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="27.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2525,16 +2793,16 @@
         <v>49</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2542,76 +2810,126 @@
         <v>41</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>69</v>
+        <v>147</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>70</v>
+        <v>143</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>54</v>
+        <v>144</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="4"/>
+      <c r="F21" s="4" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="4"/>
+      <c r="A22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="3"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="17" t="s">
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="17"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="17"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="17"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="17"/>
-      <c r="B28" s="15"/>
+      <c r="B28" s="18" t="s">
+        <v>141</v>
+      </c>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
@@ -2658,12 +2976,8 @@
       <c r="F33" s="15"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>66</v>
-      </c>
+      <c r="A34" s="17"/>
+      <c r="B34" s="15"/>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
@@ -2694,8 +3008,12 @@
       <c r="F37" s="15"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="17"/>
-      <c r="B38" s="15"/>
+      <c r="A38" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>140</v>
+      </c>
       <c r="C38" s="15"/>
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
@@ -2741,13 +3059,45 @@
       <c r="E43" s="15"/>
       <c r="F43" s="15"/>
     </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="17"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="17"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="17"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="17"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+    </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A24:A33"/>
-    <mergeCell ref="B24:F33"/>
-    <mergeCell ref="A34:A43"/>
-    <mergeCell ref="B34:F43"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A28:A37"/>
+    <mergeCell ref="B28:F37"/>
+    <mergeCell ref="A38:A47"/>
+    <mergeCell ref="B38:F47"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="B1:F1"/>
@@ -2787,7 +3137,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
@@ -2821,7 +3171,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
@@ -3010,13 +3360,13 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>11</v>
@@ -3028,33 +3378,33 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D16" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="19" t="s">
         <v>73</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>11</v>
@@ -3066,13 +3416,13 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>11</v>
@@ -3084,16 +3434,16 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>28</v>
@@ -3182,10 +3532,10 @@
         <v>49</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>28</v>
@@ -3199,10 +3549,10 @@
         <v>41</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>54</v>
@@ -3235,7 +3585,7 @@
         <v>19</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
@@ -3319,7 +3669,7 @@
         <v>20</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
@@ -3445,7 +3795,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
@@ -3479,7 +3829,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
@@ -3713,7 +4063,7 @@
         <v>52</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>28</v>
@@ -3763,7 +4113,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
@@ -3847,7 +4197,7 @@
         <v>20</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
@@ -3971,7 +4321,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
@@ -4005,7 +4355,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
@@ -4236,10 +4586,10 @@
         <v>49</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>28</v>
@@ -4256,7 +4606,7 @@
         <v>45</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>54</v>
@@ -4289,7 +4639,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
@@ -4373,7 +4723,7 @@
         <v>20</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
@@ -4497,7 +4847,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
@@ -4531,7 +4881,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
@@ -4689,7 +5039,7 @@
         <v>52</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>28</v>
@@ -4739,7 +5089,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
@@ -4823,7 +5173,7 @@
         <v>20</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
@@ -4947,7 +5297,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
@@ -4981,7 +5331,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
@@ -5139,7 +5489,7 @@
         <v>52</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>28</v>
@@ -5189,7 +5539,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
@@ -5273,7 +5623,7 @@
         <v>20</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
@@ -5379,7 +5729,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5397,7 +5747,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
@@ -5431,7 +5781,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
@@ -5470,7 +5820,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>55</v>
@@ -5490,7 +5840,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>45</v>
@@ -5588,10 +5938,10 @@
         <v>49</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>28</v>
@@ -5602,16 +5952,16 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="3" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>28</v>
@@ -5620,16 +5970,16 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="3" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>28</v>
@@ -5638,16 +5988,16 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>28</v>
@@ -5656,16 +6006,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>28</v>
@@ -5674,13 +6024,13 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="3" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>11</v>
@@ -5689,7 +6039,7 @@
         <v>28</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -5715,7 +6065,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
@@ -5799,7 +6149,7 @@
         <v>20</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
@@ -5886,12 +6236,12 @@
     <mergeCell ref="B22:F31"/>
     <mergeCell ref="A32:A41"/>
     <mergeCell ref="B32:F41"/>
+    <mergeCell ref="F7:F8"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="F7:F8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/doc/工作流接口说明.xlsx
+++ b/doc/工作流接口说明.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="8640" tabRatio="728" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="8640" tabRatio="728" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="创建工作流实例" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="178">
   <si>
     <t>接口名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1415,6 +1415,69 @@
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>summary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>counter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>operateFiles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>operateDatas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>infoComment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇总值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交汇总的总人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作文件信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作数据信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇总时才有效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1543,7 +1606,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1586,20 +1649,23 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1908,57 +1974,57 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="6" t="s">
@@ -2155,14 +2221,14 @@
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="6" t="s">
@@ -2267,196 +2333,196 @@
       <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
     </row>
     <row r="25" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="17"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="17"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="17"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="17"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="17"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="17"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="17"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="17"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="17"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
     </row>
     <row r="35" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="17"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="17"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="17"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="17"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="17"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="17"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="17"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="17"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="17"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
+      <c r="A44" s="16"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A25:A34"/>
-    <mergeCell ref="B25:F34"/>
-    <mergeCell ref="A35:A44"/>
-    <mergeCell ref="B35:F44"/>
     <mergeCell ref="A17:F17"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B2:F2"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A25:A34"/>
+    <mergeCell ref="B25:F34"/>
+    <mergeCell ref="A35:A44"/>
+    <mergeCell ref="B35:F44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -2489,57 +2555,57 @@
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="9" t="s">
@@ -2689,7 +2755,7 @@
       <c r="E13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="20" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2709,7 +2775,7 @@
       <c r="E14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="20"/>
+      <c r="F14" s="21"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="3"/>
@@ -2720,14 +2786,14 @@
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="9" t="s">
@@ -2914,190 +2980,185 @@
       <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="17"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="17"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="17"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="17"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="17"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="17"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="17"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="17"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="17"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="17"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="17"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="17"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="17"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="17"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="17"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
+      <c r="A44" s="16"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="17"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
+      <c r="A45" s="16"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="17"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
+      <c r="A46" s="16"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="17"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
+      <c r="A47" s="16"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A28:A37"/>
-    <mergeCell ref="B28:F37"/>
-    <mergeCell ref="A38:A47"/>
-    <mergeCell ref="B38:F47"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="B1:F1"/>
@@ -3105,6 +3166,11 @@
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A28:A37"/>
+    <mergeCell ref="B28:F37"/>
+    <mergeCell ref="A38:A47"/>
+    <mergeCell ref="B38:F47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -3116,10 +3182,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3136,57 +3202,57 @@
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="9" t="s">
@@ -3336,7 +3402,7 @@
       <c r="E13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="20" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3356,7 +3422,7 @@
       <c r="E14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="20"/>
+      <c r="F14" s="21"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="3" t="s">
@@ -3392,7 +3458,7 @@
       <c r="E16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="20" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3412,7 +3478,7 @@
       <c r="E17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="20"/>
+      <c r="F17" s="21"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
@@ -3451,311 +3517,398 @@
       <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="4"/>
+      <c r="A20" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
+      <c r="A21" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="21"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="A22" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="14"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
-        <v>8</v>
+        <v>164</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>15</v>
+        <v>168</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>16</v>
+        <v>174</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="F23" s="14"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="14"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="3"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B29" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C29" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D29" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="3" t="s">
+      <c r="E29" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B30" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D30" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F25" s="4" t="s">
+      <c r="E30" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="3" t="s">
+    <row r="31" spans="1:6">
+      <c r="A31" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B31" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C31" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D31" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="14" t="s">
+      <c r="E31" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="3"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-    </row>
-    <row r="29" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A29" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="17"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="17"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="17"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="17"/>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="17"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
+    <row r="34" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A34" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="17"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="17"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="17"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="17"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-    </row>
-    <row r="39" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A39" s="17" t="s">
+      <c r="A38" s="16"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="16"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="16"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="16"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="16"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="16"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+    </row>
+    <row r="44" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A44" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B44" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="17"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="17"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="17"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="17"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="17"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="17"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
+      <c r="A45" s="16"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="17"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
+      <c r="A46" s="16"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="17"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
+      <c r="A47" s="16"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="17"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
+      <c r="A48" s="16"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="16"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="16"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="16"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="16"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="16"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A29:A38"/>
-    <mergeCell ref="B29:F38"/>
-    <mergeCell ref="A39:A48"/>
-    <mergeCell ref="B39:F48"/>
-    <mergeCell ref="A21:F21"/>
+  <mergeCells count="14">
+    <mergeCell ref="A26:F26"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="B1:F1"/>
@@ -3763,12 +3916,19 @@
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F5"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A34:A43"/>
+    <mergeCell ref="B34:F43"/>
+    <mergeCell ref="A44:A53"/>
+    <mergeCell ref="B44:F53"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3794,57 +3954,57 @@
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="9" t="s">
@@ -3987,14 +4147,14 @@
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="9" t="s">
@@ -4099,196 +4259,196 @@
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
     </row>
     <row r="22" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="17"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="17"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="17"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="17"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="17"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="17"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="17"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="17"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="17"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
     </row>
     <row r="32" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="17"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="17"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="17"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="17"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="17"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="17"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="17"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="17"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="17"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A22:A31"/>
-    <mergeCell ref="B22:F31"/>
-    <mergeCell ref="A32:A41"/>
-    <mergeCell ref="B32:F41"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A22:A31"/>
+    <mergeCell ref="B22:F31"/>
+    <mergeCell ref="A32:A41"/>
+    <mergeCell ref="B32:F41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4320,57 +4480,57 @@
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="9" t="s">
@@ -4513,14 +4673,14 @@
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="9" t="s">
@@ -4625,196 +4785,196 @@
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
     </row>
     <row r="22" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="17"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="17"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="17"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="17"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="17"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="17"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="17"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="17"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="17"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
     </row>
     <row r="32" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="17"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="17"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="17"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="17"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="17"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="17"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="17"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="17"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="17"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A22:A31"/>
-    <mergeCell ref="B22:F31"/>
-    <mergeCell ref="A32:A41"/>
-    <mergeCell ref="B32:F41"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A22:A31"/>
+    <mergeCell ref="B22:F31"/>
+    <mergeCell ref="A32:A41"/>
+    <mergeCell ref="B32:F41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4846,57 +5006,57 @@
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="10" t="s">
@@ -4963,14 +5123,14 @@
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="10" t="s">
@@ -5075,196 +5235,196 @@
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
     </row>
     <row r="18" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="17"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="17"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="17"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="17"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="17"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="17"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="17"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="17"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="17"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
     </row>
     <row r="28" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="17"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="17"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="17"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="17"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="17"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="17"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="17"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="17"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="17"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A18:A27"/>
+    <mergeCell ref="B18:F27"/>
+    <mergeCell ref="A28:A37"/>
+    <mergeCell ref="B28:F37"/>
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A18:A27"/>
-    <mergeCell ref="B18:F27"/>
-    <mergeCell ref="A28:A37"/>
-    <mergeCell ref="B28:F37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -5296,57 +5456,57 @@
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="10" t="s">
@@ -5413,14 +5573,14 @@
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="10" t="s">
@@ -5525,196 +5685,196 @@
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
     </row>
     <row r="18" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="17"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="17"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="17"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="17"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="17"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="17"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="17"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="17"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="17"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
     </row>
     <row r="28" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="17"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="17"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="17"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="17"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="17"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="17"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="17"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="17"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="17"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A18:A27"/>
+    <mergeCell ref="B18:F27"/>
+    <mergeCell ref="A28:A37"/>
+    <mergeCell ref="B28:F37"/>
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A18:A27"/>
-    <mergeCell ref="B18:F27"/>
-    <mergeCell ref="A28:A37"/>
-    <mergeCell ref="B28:F37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -5728,7 +5888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
@@ -5746,57 +5906,57 @@
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="13" t="s">
@@ -5834,7 +5994,7 @@
       <c r="E7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="20" t="s">
         <v>60</v>
       </c>
     </row>
@@ -5854,7 +6014,7 @@
       <c r="E8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="20"/>
+      <c r="F8" s="21"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3"/>
@@ -5865,14 +6025,14 @@
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="13" t="s">
@@ -6051,197 +6211,197 @@
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="17"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="17"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="17"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="17"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="17"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="17"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="17"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="17"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="17"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="17"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="17"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="17"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="17"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="17"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="17"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="17"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="17"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="17"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="A22:A31"/>
     <mergeCell ref="B22:F31"/>
     <mergeCell ref="A32:A41"/>
     <mergeCell ref="B32:F41"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/doc/工作流接口说明.xlsx
+++ b/doc/工作流接口说明.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="183">
   <si>
     <t>接口名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -401,102 +401,6 @@
   </si>
   <si>
     <t>I003ToNext</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>activityRouteCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "body" : {
-    "createOrg" : "",
-    "createOrgID" : "",
-    "createTime" : "2018-05-18 10:24:24",
-    "creater" : "公用主管",
-    "createrID" : "8a81b2b54b7b391b014b7d14a00409ff",
-    "currentActivityCode" : "单人选型",
-    "currentActivityID" : "A004",
-    "currentActivityName" : "单人选型",
-    "futureParticipants" : [
-      {
-        "activityID" : "",
-        "activityRouteID" : "",
-        "createOrg" : "",
-        "createOrgID" : "",
-        "createTime" : "2018-05-18 10:24:24",
-        "creater" : "公用主管",
-        "createrID" : "8a81b2b54b7b391b014b7d14a00409ff",
-        "objectID" : "8a81b2b54b7b391b014b7d143a7400fe",
-        "objectName" : "公用选型负责人",
-        "objectNo" : "1",
-        "objectType" : "2",
-        "participantID" : "",
-        "participantType" : "",
-        "processID" : "94CFF3602B824A8AB6D1EC06C37A2188",
-        "pwpID" : "F2B0E11F9D164E13852FA642C3EC6C31",
-        "serviceDataID" : "SID001",
-        "templateID" : "",
-        "workID" : "A1DB6515B82841A182C76C6013DCEC0E"
-      }
-    ],
-    "infoComment" : "",
-    "limitOrgID" : "",
-    "limitTime" : "2000-01-01 00:00:00",
-    "limitUserID" : "",
-    "nextActivityCode" : "",
-    "nextActivityID" : "",
-    "nextActivityName" : "",
-    "nextProcessID" : "",
-    "operateDatas" : "",
-    "operateFiles" : "",
-    "operateOrg" : "",
-    "operateOrgID" : "",
-    "operateTime" : "2018-05-18 10:24:24",
-    "operateTimeLen" : "0",
-    "operateType" : "",
-    "operateTypeID" : "",
-    "operateUser" : "公用主管",
-    "operateUserID" : "8a81b2b54b7b391b014b7d14a00409ff",
-    "previousActivityCode" : "选型评审",
-    "previousActivityID" : "A003",
-    "previousActivityName" : "选型评审",
-    "previousProcessID" : "763DFBCCA4DA43B2BA674F740EA8A042",
-    "processID" : "94CFF3602B824A8AB6D1EC06C37A2188",
-    "processNo" : "-1",
-    "serviceDataID" : "SID001",
-    "splitProcessID" : "",
-    "workID" : "A1DB6515B82841A182C76C6013DCEC0E"
-  },
-  "encry" : "",
-  "format" : "",
-  "rc" : "0",
-  "result" : "true",
-  "ri" : "",
-  "serialNo" : "2018051810241991089320XFlowWeb",
-  "session" : "",
-  "sid" : "I003ToNext",
-  "sidv" : "",
-  "sign" : "",
-  "sysid" : "xx",
-  "tokenSec" : ""
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>participants.objectType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>participants.objectID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>participants.objectName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>participants.objectNo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -745,34 +649,6 @@
   </si>
   <si>
     <t>Integer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "sysid": "xx",
-    "sid": "I003ToNext",
-    "body": {
-        "user": {
-            "userID": "8a81b2b54b7b391b014b7d14a00409ff",
-            "userName": "公用主管",
-            "roles": [
-                {
-                    "roleID": "001",
-                    "roleName": "选型主管"
-                }
-            ]
-        },
-        "serviceDataID": "SID001",
-        "activityRouteCode": "选型评审-单人选型",
-        "participants": [
-            {
-                "objectID": "8a81b2b54b7b391b014b7d143a7400fe",
-                "objectName": "公用选型负责人",
-                "objectType": "1"
-            }
-        ]
-    }
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -984,6 +860,171 @@
   </si>
   <si>
     <t>取值范围为（AND、OR）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "sysid": "xx",
+    "sid": "I002QueryNextRoutes",
+    "body": {
+        "user": {
+            "userID": "Children-01",
+            "userName": "小明",
+            "roles": [
+                {
+                    "roleID": "Children-Role",
+                    "roleName": "孩子的角色"
+                }
+            ]
+        },
+        "serviceDataID": "能玩游戏吗011"
+    }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前活动节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActivityInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlowProcess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前流转信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NextRoutes.currentActivity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NextRoutes.currentProcess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlowInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作流实例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有可走路由时，才有数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NextRoutes.flow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NextRoutes.routes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NextRoutes.summarys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;ActivityRoute&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;FlowProcess&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以走的路由</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历次的汇总信息（按时间倒序排列）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I008QuerySummarys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "sysid": "xx",
+    "sid": "I008QuerySummarys",
+    "body": {
+       "serviceDataID": "能玩游戏吗009"
+    }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>summary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>counter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>operateFiles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>operateDatas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>infoComment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇总值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交汇总的总人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作文件信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作数据信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇总时才有效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NextRoutes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1314,9 +1355,49 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走哪条路的活动路由信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;FlowDataRoute&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路由对象内必填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>routes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>routes.activityRouteCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>routes.participants.objectType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>routes.participants.objectID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>routes.participants.objectName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>routes.participants.objectNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{
     "sysid": "xx",
-    "sid": "I002QueryNextRoutes",
+    "sid": "I003ToNext",
     "body": {
         "user": {
             "userID": "Children-01",
@@ -1328,154 +1409,232 @@
                 }
             ]
         },
-        "serviceDataID": "能玩游戏吗011"
+        "serviceDataID": "能玩游戏吗013",
+        "routes": [
+         {
+          "activityRouteCode": "问爸爸",
+          "participants": [
+              {
+                  "objectID": "Father-01",
+                  "objectName": "小明的爸爸",
+                  "objectType": "1"
+              }
+          ]
+         },
+         {
+          "activityRouteCode": "问妈妈",
+          "participants": [
+              {
+                  "objectID": "Mother-01",
+                  "objectName": "小明的妈妈",
+                  "objectType": "1"
+              }
+          ]
+         }
+        ]
     }
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NextRoutes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前活动节点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActivityInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FlowProcess</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前流转信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NextRoutes.currentActivity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NextRoutes.currentProcess</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FlowInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作流实例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有可走路由时，才有数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NextRoutes.flow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NextRoutes.routes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NextRoutes.summarys</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>List&lt;ActivityRoute&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>List&lt;FlowProcess&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以走的路由</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>历次的汇总信息（按时间倒序排列）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I008QuerySummarys</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{
-    "sysid": "xx",
-    "sid": "I008QuerySummarys",
-    "body": {
-       "serviceDataID": "能玩游戏吗009"
+  "body" : [
+    {
+      "counter" : "0",
+      "counterPass" : "0",
+      "createOrg" : "",
+      "createOrgID" : "",
+      "createTime" : "2019-09-19 17:15:11",
+      "creater" : "小明",
+      "createrID" : "Children-01",
+      "currentActivityCode" : "爸爸是否同意",
+      "currentActivityID" : "A-ManyRoute-002",
+      "currentActivityName" : "爸爸是否同意",
+      "futureParticipants" : [
+        {
+          "activityID" : "",
+          "activityRouteID" : "",
+          "createOrg" : "",
+          "createOrgID" : "",
+          "createTime" : "2019-09-19 17:15:11",
+          "creater" : "小明",
+          "createrID" : "Children-01",
+          "objectID" : "Father-01",
+          "objectName" : "小明的爸爸",
+          "objectNo" : "1",
+          "objectType" : "1",
+          "participantID" : "",
+          "participantType" : "",
+          "processID" : "XFAFF05D7CE32D4F24B90CFBA6363678C2",
+          "pwpID" : "9633A98EC3CA4E4EAB5FB65AEA2C2A86",
+          "serviceDataID" : "能玩游戏吗013",
+          "splitProcessID" : "",
+          "templateID" : "",
+          "workID" : "XFFF771196FCBA4D9EB82F7FD975F37309"
+        }
+      ],
+      "infoComment" : "",
+      "isPass" : "0",
+      "limitOrgID" : "",
+      "limitTime" : "2000-01-01 00:00:00",
+      "limitUserID" : "",
+      "nextActivityCode" : "",
+      "nextActivityID" : "",
+      "nextActivityName" : "",
+      "nextProcessID" : "",
+      "operateDatas" : "",
+      "operateFiles" : "",
+      "operateOrg" : "",
+      "operateOrgID" : "",
+      "operateTime" : "2019-09-19 17:15:11",
+      "operateTimeLen" : "0",
+      "operateType" : "",
+      "operateTypeID" : "",
+      "operateUser" : "小明",
+      "operateUserID" : "Children-01",
+      "participants" : [
+        {
+          "activityID" : "",
+          "activityRouteID" : "",
+          "createOrg" : "",
+          "createOrgID" : "",
+          "createTime" : "2019-09-19 17:15:11",
+          "creater" : "小明",
+          "createrID" : "Children-01",
+          "objectID" : "Father-01",
+          "objectName" : "小明的爸爸",
+          "objectNo" : "1",
+          "objectType" : "1",
+          "participantID" : "",
+          "participantType" : "",
+          "processID" : "XFAFF05D7CE32D4F24B90CFBA6363678C2",
+          "pwpID" : "9633A98EC3CA4E4EAB5FB65AEA2C2A86",
+          "serviceDataID" : "能玩游戏吗013",
+          "splitProcessID" : "",
+          "templateID" : "",
+          "workID" : "XFFF771196FCBA4D9EB82F7FD975F37309"
+        }
+      ],
+      "passType" : "",
+      "previousActivityCode" : "想玩游戏",
+      "previousActivityID" : "A-ManyRoute-001",
+      "previousActivityName" : "想玩游戏",
+      "previousOperateTypeID" : "RT002",
+      "previousProcessID" : "XF20AF874E816046ADA8EC1F7634D56B12",
+      "processID" : "XFAFF05D7CE32D4F24B90CFBA6363678C2",
+      "processNo" : "-1",
+      "serviceDataID" : "能玩游戏吗013",
+      "splitProcessID" : "XF20AF874E816046ADA8EC1F7634D56B12",
+      "summary" : "0.0",
+      "summaryPass" : "0.0",
+      "templateID" : "T-ManyRoute-001",
+      "workID" : "XFFF771196FCBA4D9EB82F7FD975F37309"
+    },
+    {
+      "counter" : "0",
+      "counterPass" : "0",
+      "createOrg" : "",
+      "createOrgID" : "",
+      "createTime" : "2019-09-19 17:15:11",
+      "creater" : "小明",
+      "createrID" : "Children-01",
+      "currentActivityCode" : "妈妈是否同意",
+      "currentActivityID" : "A-ManyRoute-003",
+      "currentActivityName" : "妈妈是否同意",
+      "futureParticipants" : [
+        {
+          "activityID" : "",
+          "activityRouteID" : "",
+          "createOrg" : "",
+          "createOrgID" : "",
+          "createTime" : "2019-09-19 17:15:11",
+          "creater" : "小明",
+          "createrID" : "Children-01",
+          "objectID" : "Mother-01",
+          "objectName" : "小明的妈妈",
+          "objectNo" : "1",
+          "objectType" : "1",
+          "participantID" : "",
+          "participantType" : "",
+          "processID" : "XF14B1AA6FBC7A4AF4B2A50AF98EEC64F3",
+          "pwpID" : "2183297948064EE4909F779664E99C35",
+          "serviceDataID" : "能玩游戏吗013",
+          "splitProcessID" : "",
+          "templateID" : "",
+          "workID" : "XFFF771196FCBA4D9EB82F7FD975F37309"
+        }
+      ],
+      "infoComment" : "",
+      "isPass" : "0",
+      "limitOrgID" : "",
+      "limitTime" : "2000-01-01 00:00:00",
+      "limitUserID" : "",
+      "nextActivityCode" : "",
+      "nextActivityID" : "",
+      "nextActivityName" : "",
+      "nextProcessID" : "",
+      "operateDatas" : "",
+      "operateFiles" : "",
+      "operateOrg" : "",
+      "operateOrgID" : "",
+      "operateTime" : "2019-09-19 17:15:11",
+      "operateTimeLen" : "0",
+      "operateType" : "",
+      "operateTypeID" : "",
+      "operateUser" : "小明",
+      "operateUserID" : "Children-01",
+      "participants" : [
+        {
+          "activityID" : "",
+          "activityRouteID" : "",
+          "createOrg" : "",
+          "createOrgID" : "",
+          "createTime" : "2019-09-19 17:15:11",
+          "creater" : "小明",
+          "createrID" : "Children-01",
+          "objectID" : "Mother-01",
+          "objectName" : "小明的妈妈",
+          "objectNo" : "1",
+          "objectType" : "1",
+          "participantID" : "",
+          "participantType" : "",
+          "processID" : "XF14B1AA6FBC7A4AF4B2A50AF98EEC64F3",
+          "pwpID" : "2183297948064EE4909F779664E99C35",
+          "serviceDataID" : "能玩游戏吗013",
+          "splitProcessID" : "",
+          "templateID" : "",
+          "workID" : "XFFF771196FCBA4D9EB82F7FD975F37309"
+        }
+      ],
+      "passType" : "",
+      "previousActivityCode" : "想玩游戏",
+      "previousActivityID" : "A-ManyRoute-001",
+      "previousActivityName" : "想玩游戏",
+      "previousOperateTypeID" : "RT002",
+      "previousProcessID" : "XF20AF874E816046ADA8EC1F7634D56B12",
+      "processID" : "XF14B1AA6FBC7A4AF4B2A50AF98EEC64F3",
+      "processNo" : "-1",
+      "serviceDataID" : "能玩游戏吗013",
+      "splitProcessID" : "XF20AF874E816046ADA8EC1F7634D56B12",
+      "summary" : "0.0",
+      "summaryPass" : "0.0",
+      "templateID" : "T-ManyRoute-001",
+      "workID" : "XFFF771196FCBA4D9EB82F7FD975F37309"
     }
+  ],
+  "encry" : "",
+  "format" : "",
+  "rc" : "0",
+  "result" : "true",
+  "ri" : "",
+  "serialNo" : "2019091917151077019090XFlowWeb",
+  "session" : "",
+  "sid" : "I003ToNext",
+  "sidv" : "",
+  "sign" : "",
+  "sysid" : "xx",
+  "tokenSec" : ""
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>summary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>counter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>operateFiles</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>operateDatas</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>infoComment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇总值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提交汇总的总人数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作文件信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作数据信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Double</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇总时才有效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1606,7 +1765,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1652,20 +1811,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1974,57 +2136,57 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="6" t="s">
@@ -2166,7 +2328,7 @@
         <v>44</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>11</v>
@@ -2181,13 +2343,13 @@
         <v>48</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>28</v>
@@ -2196,7 +2358,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>45</v>
@@ -2221,14 +2383,14 @@
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="6" t="s">
@@ -2333,196 +2495,196 @@
       <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
     </row>
     <row r="25" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="16"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="16"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="16"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="16"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="16"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="16"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="16"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="16"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="16"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
     </row>
     <row r="35" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="16"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="16"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="16"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="16"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="16"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
+      <c r="A40" s="19"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="16"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
+      <c r="A41" s="19"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="16"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
+      <c r="A42" s="19"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="16"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
+      <c r="A43" s="19"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="16"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
+      <c r="A44" s="19"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A25:A34"/>
+    <mergeCell ref="B25:F34"/>
+    <mergeCell ref="A35:A44"/>
+    <mergeCell ref="B35:F44"/>
     <mergeCell ref="A17:F17"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A25:A34"/>
-    <mergeCell ref="B25:F34"/>
-    <mergeCell ref="A35:A44"/>
-    <mergeCell ref="B35:F44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -2538,7 +2700,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="B21" sqref="B21:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2555,57 +2717,57 @@
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="9" t="s">
@@ -2755,7 +2917,7 @@
       <c r="E13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="21" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2775,7 +2937,7 @@
       <c r="E14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="21"/>
+      <c r="F14" s="22"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="3"/>
@@ -2786,14 +2948,14 @@
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="9" t="s">
@@ -2862,13 +3024,13 @@
         <v>65</v>
       </c>
       <c r="D20" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2876,19 +3038,19 @@
         <v>41</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2896,19 +3058,19 @@
         <v>42</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2916,19 +3078,19 @@
         <v>43</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2936,19 +3098,19 @@
         <v>47</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2956,19 +3118,19 @@
         <v>48</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2980,185 +3142,190 @@
       <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
+      <c r="B28" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="16"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="16"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="16"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="16"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="16"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="16"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="16"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="16"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="16"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
+      <c r="B38" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="16"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="16"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
+      <c r="A40" s="19"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="16"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
+      <c r="A41" s="19"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="16"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
+      <c r="A42" s="19"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="16"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
+      <c r="A43" s="19"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="16"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
+      <c r="A44" s="19"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="16"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
+      <c r="A45" s="19"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="16"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
+      <c r="A46" s="19"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="16"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
+      <c r="A47" s="19"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A28:A37"/>
+    <mergeCell ref="B28:F37"/>
+    <mergeCell ref="A38:A47"/>
+    <mergeCell ref="B38:F47"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="B1:F1"/>
@@ -3166,11 +3333,6 @@
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A28:A37"/>
-    <mergeCell ref="B28:F37"/>
-    <mergeCell ref="A38:A47"/>
-    <mergeCell ref="B38:F47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -3182,77 +3344,77 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20:F21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35:F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="9" t="s">
@@ -3402,7 +3564,7 @@
       <c r="E13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="21" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3422,44 +3584,44 @@
       <c r="E14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="21"/>
+      <c r="F14" s="22"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>84</v>
+        <v>175</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>115</v>
+        <v>172</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>11</v>
+        <v>173</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="12"/>
+      <c r="F15" s="15"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="3" t="s">
         <v>75</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>86</v>
+        <v>176</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>73</v>
+        <v>11</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3467,28 +3629,30 @@
         <v>76</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>87</v>
+        <v>177</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="21"/>
+      <c r="F17" s="21" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>88</v>
+        <v>178</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>11</v>
@@ -3496,20 +3660,20 @@
       <c r="E18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="12"/>
+      <c r="F18" s="22"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>89</v>
+        <v>179</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>28</v>
@@ -3518,69 +3682,69 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="3" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>171</v>
+        <v>71</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>176</v>
+        <v>72</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="20" t="s">
-        <v>177</v>
-      </c>
+      <c r="F20" s="12"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>172</v>
-      </c>
       <c r="D21" s="5" t="s">
-        <v>72</v>
+        <v>167</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="21"/>
+      <c r="F21" s="21" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>173</v>
-      </c>
       <c r="D22" s="5" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="14"/>
+      <c r="F22" s="22"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>174</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>11</v>
@@ -3592,13 +3756,13 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>11</v>
@@ -3609,319 +3773,337 @@
       <c r="F24" s="14"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="4"/>
+      <c r="A25" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="14"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="3"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="9" t="s">
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B28" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C28" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D28" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E28" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F28" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="3" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F30" s="4" t="s">
-        <v>51</v>
-      </c>
+      <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B32" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C32" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D32" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="3"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
+      <c r="E32" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="3"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-    </row>
-    <row r="34" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A34" s="16" t="s">
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+    </row>
+    <row r="35" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A35" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="16"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
+      <c r="B35" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="16"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="16"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="16"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="16"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="16"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
+      <c r="A40" s="19"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="16"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
+      <c r="A41" s="19"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="16"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
+      <c r="A42" s="19"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="16"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-    </row>
-    <row r="44" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A44" s="16" t="s">
+      <c r="A43" s="19"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="19"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+    </row>
+    <row r="45" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A45" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="16"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
+      <c r="B45" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="16"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
+      <c r="A46" s="19"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="16"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
+      <c r="A47" s="19"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="16"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
+      <c r="A48" s="19"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="16"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
+      <c r="A49" s="19"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="16"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
+      <c r="A50" s="19"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="16"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
+      <c r="A51" s="19"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="16"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
+      <c r="A52" s="19"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="16"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
+      <c r="A53" s="19"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="19"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A35:A44"/>
+    <mergeCell ref="B35:F44"/>
+    <mergeCell ref="A45:A54"/>
+    <mergeCell ref="B45:F54"/>
+    <mergeCell ref="A27:F27"/>
     <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F17:F18"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A34:A43"/>
-    <mergeCell ref="B34:F43"/>
-    <mergeCell ref="A44:A53"/>
-    <mergeCell ref="B44:F53"/>
+    <mergeCell ref="F21:F22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -3954,57 +4136,57 @@
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
+      <c r="B4" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="9" t="s">
@@ -4147,14 +4329,14 @@
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="9" t="s">
@@ -4223,7 +4405,7 @@
         <v>52</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>28</v>
@@ -4259,196 +4441,196 @@
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
+      <c r="B22" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="16"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="16"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="16"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="16"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="16"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="16"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="16"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="16"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="16"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
     </row>
     <row r="32" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
+      <c r="B32" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="16"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="16"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="16"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="16"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="16"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="16"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="16"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="16"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
+      <c r="A40" s="19"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="16"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
+      <c r="A41" s="19"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A22:A31"/>
+    <mergeCell ref="B22:F31"/>
+    <mergeCell ref="A32:A41"/>
+    <mergeCell ref="B32:F41"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A22:A31"/>
-    <mergeCell ref="B22:F31"/>
-    <mergeCell ref="A32:A41"/>
-    <mergeCell ref="B32:F41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4480,57 +4662,57 @@
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
+      <c r="B4" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="9" t="s">
@@ -4673,14 +4855,14 @@
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="9" t="s">
@@ -4746,10 +4928,10 @@
         <v>49</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>28</v>
@@ -4766,7 +4948,7 @@
         <v>45</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>54</v>
@@ -4785,196 +4967,196 @@
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
+      <c r="B22" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="16"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="16"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="16"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="16"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="16"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="16"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="16"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="16"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="16"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
     </row>
     <row r="32" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
+      <c r="B32" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="16"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="16"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="16"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="16"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="16"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="16"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="16"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="16"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
+      <c r="A40" s="19"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="16"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
+      <c r="A41" s="19"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A22:A31"/>
+    <mergeCell ref="B22:F31"/>
+    <mergeCell ref="A32:A41"/>
+    <mergeCell ref="B32:F41"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A22:A31"/>
-    <mergeCell ref="B22:F31"/>
-    <mergeCell ref="A32:A41"/>
-    <mergeCell ref="B32:F41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -5006,57 +5188,57 @@
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
+      <c r="B4" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="10" t="s">
@@ -5123,14 +5305,14 @@
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="10" t="s">
@@ -5199,7 +5381,7 @@
         <v>52</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>28</v>
@@ -5235,196 +5417,196 @@
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
     </row>
     <row r="18" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
+      <c r="B18" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="16"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="16"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="16"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="16"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="16"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="16"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="16"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="16"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="16"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
     </row>
     <row r="28" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
+      <c r="B28" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="16"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="16"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="16"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="16"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="16"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="16"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="16"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="16"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="16"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A18:A27"/>
-    <mergeCell ref="B18:F27"/>
-    <mergeCell ref="A28:A37"/>
-    <mergeCell ref="B28:F37"/>
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A18:A27"/>
+    <mergeCell ref="B18:F27"/>
+    <mergeCell ref="A28:A37"/>
+    <mergeCell ref="B28:F37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -5456,57 +5638,57 @@
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
+      <c r="B4" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="10" t="s">
@@ -5573,14 +5755,14 @@
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="10" t="s">
@@ -5649,7 +5831,7 @@
         <v>52</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>28</v>
@@ -5685,196 +5867,196 @@
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
     </row>
     <row r="18" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
+      <c r="B18" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="16"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="16"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="16"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="16"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="16"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="16"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="16"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="16"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="16"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
     </row>
     <row r="28" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
+      <c r="B28" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="16"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="16"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="16"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="16"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="16"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="16"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="16"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="16"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="16"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A18:A27"/>
-    <mergeCell ref="B18:F27"/>
-    <mergeCell ref="A28:A37"/>
-    <mergeCell ref="B28:F37"/>
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A18:A27"/>
+    <mergeCell ref="B18:F27"/>
+    <mergeCell ref="A28:A37"/>
+    <mergeCell ref="B28:F37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -5906,57 +6088,57 @@
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
+      <c r="B4" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="13" t="s">
@@ -5980,7 +6162,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>55</v>
@@ -5994,13 +6176,13 @@
       <c r="E7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="21" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>45</v>
@@ -6014,7 +6196,7 @@
       <c r="E8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="21"/>
+      <c r="F8" s="22"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3"/>
@@ -6025,14 +6207,14 @@
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="13" t="s">
@@ -6098,10 +6280,10 @@
         <v>49</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>28</v>
@@ -6112,16 +6294,16 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="3" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>28</v>
@@ -6130,16 +6312,16 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="3" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>28</v>
@@ -6148,16 +6330,16 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>28</v>
@@ -6166,16 +6348,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>28</v>
@@ -6184,13 +6366,13 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>11</v>
@@ -6199,7 +6381,7 @@
         <v>28</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6211,197 +6393,197 @@
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
+      <c r="B22" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="16"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="16"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="16"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="16"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="16"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="16"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="16"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="16"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="16"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
+      <c r="B32" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="16"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="16"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="16"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="16"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="16"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="16"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="16"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="16"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
+      <c r="A40" s="19"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="16"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
+      <c r="A41" s="19"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A22:A31"/>
+    <mergeCell ref="B22:F31"/>
+    <mergeCell ref="A32:A41"/>
+    <mergeCell ref="B32:F41"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A22:A31"/>
-    <mergeCell ref="B22:F31"/>
-    <mergeCell ref="A32:A41"/>
-    <mergeCell ref="B32:F41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/doc/工作流接口说明.xlsx
+++ b/doc/工作流接口说明.xlsx
@@ -384,15 +384,7 @@
     <t>13</t>
   </si>
   <si>
-    <t>FlowProcess</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>工作流流转过程信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>processID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1637,6 +1629,14 @@
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>List&lt;FlowProcess&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlowProcess.processID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1817,17 +1817,17 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2136,47 +2136,47 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="16" t="s">
@@ -2328,7 +2328,7 @@
         <v>44</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>11</v>
@@ -2343,13 +2343,13 @@
         <v>48</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="D14" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>28</v>
@@ -2358,7 +2358,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>45</v>
@@ -2505,186 +2505,186 @@
       <c r="F24" s="16"/>
     </row>
     <row r="25" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="19"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="19"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="19"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="19"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="19"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="19"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="19"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="19"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="19"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
     </row>
     <row r="35" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="19"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="19"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="19"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="19"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="19"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="19"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="19"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="19"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
+      <c r="A43" s="17"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="19"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
+      <c r="A44" s="17"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A25:A34"/>
-    <mergeCell ref="B25:F34"/>
-    <mergeCell ref="A35:A44"/>
-    <mergeCell ref="B35:F44"/>
     <mergeCell ref="A17:F17"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B2:F2"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A25:A34"/>
+    <mergeCell ref="B25:F34"/>
+    <mergeCell ref="A35:A44"/>
+    <mergeCell ref="B35:F44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -2717,47 +2717,47 @@
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="16" t="s">
@@ -3024,13 +3024,13 @@
         <v>65</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3038,19 +3038,19 @@
         <v>41</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3058,19 +3058,19 @@
         <v>42</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3078,19 +3078,19 @@
         <v>43</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D23" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3098,19 +3098,19 @@
         <v>47</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>146</v>
-      </c>
       <c r="E24" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3118,19 +3118,19 @@
         <v>48</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>147</v>
-      </c>
       <c r="E25" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3152,180 +3152,175 @@
       <c r="F27" s="16"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
+      <c r="B28" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="19"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="19"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="19"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="19"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="19"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="19"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="19"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="19"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="19"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
+      <c r="B38" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="19"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="19"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="19"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="19"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="19"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
+      <c r="A43" s="17"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="19"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
+      <c r="A44" s="17"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="19"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
+      <c r="A45" s="17"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="19"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
+      <c r="A46" s="17"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="19"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
+      <c r="A47" s="17"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A28:A37"/>
-    <mergeCell ref="B28:F37"/>
-    <mergeCell ref="A38:A47"/>
-    <mergeCell ref="B38:F47"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="B1:F1"/>
@@ -3333,6 +3328,11 @@
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A28:A37"/>
+    <mergeCell ref="B28:F37"/>
+    <mergeCell ref="A38:A47"/>
+    <mergeCell ref="B38:F47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -3347,7 +3347,7 @@
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35:F44"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3364,47 +3364,47 @@
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
+      <c r="B4" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="16" t="s">
@@ -3591,13 +3591,13 @@
         <v>74</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>13</v>
@@ -3609,10 +3609,10 @@
         <v>75</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>11</v>
@@ -3621,7 +3621,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3629,7 +3629,7 @@
         <v>76</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>67</v>
@@ -3649,7 +3649,7 @@
         <v>77</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>69</v>
@@ -3667,7 +3667,7 @@
         <v>78</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>70</v>
@@ -3682,10 +3682,10 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>71</v>
@@ -3700,33 +3700,33 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>72</v>
@@ -3738,13 +3738,13 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>11</v>
@@ -3756,13 +3756,13 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>11</v>
@@ -3774,13 +3774,13 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>11</v>
@@ -3872,10 +3872,10 @@
         <v>49</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>79</v>
+        <v>181</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>28</v>
@@ -3889,10 +3889,10 @@
         <v>41</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>81</v>
+        <v>182</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>54</v>
@@ -3921,180 +3921,175 @@
       <c r="F34" s="16"/>
     </row>
     <row r="35" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
+      <c r="B35" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="19"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="19"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="19"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="19"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="19"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="19"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="19"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="19"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
+      <c r="A43" s="17"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="19"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
+      <c r="A44" s="17"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
     </row>
     <row r="45" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B45" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
+      <c r="B45" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="19"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
+      <c r="A46" s="17"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="19"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
+      <c r="A47" s="17"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="19"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
+      <c r="A48" s="17"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="19"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
+      <c r="A49" s="17"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="19"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
+      <c r="A50" s="17"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="19"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
+      <c r="A51" s="17"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="19"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
+      <c r="A52" s="17"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="19"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
+      <c r="A53" s="17"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="19"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
+      <c r="A54" s="17"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A35:A44"/>
-    <mergeCell ref="B35:F44"/>
-    <mergeCell ref="A45:A54"/>
-    <mergeCell ref="B45:F54"/>
     <mergeCell ref="A27:F27"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="F17:F18"/>
@@ -4104,6 +4099,11 @@
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="F21:F22"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A35:A44"/>
+    <mergeCell ref="B35:F44"/>
+    <mergeCell ref="A45:A54"/>
+    <mergeCell ref="B45:F54"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4136,47 +4136,47 @@
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="B1" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
+      <c r="B4" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="16" t="s">
@@ -4405,7 +4405,7 @@
         <v>52</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>28</v>
@@ -4451,186 +4451,186 @@
       <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
+      <c r="B22" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="19"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="19"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="19"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="19"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="19"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="19"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="19"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="19"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="19"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
     </row>
     <row r="32" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
+      <c r="B32" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="19"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="19"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="19"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="19"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="19"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="19"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="19"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="19"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="19"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A22:A31"/>
-    <mergeCell ref="B22:F31"/>
-    <mergeCell ref="A32:A41"/>
-    <mergeCell ref="B32:F41"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A22:A31"/>
+    <mergeCell ref="B22:F31"/>
+    <mergeCell ref="A32:A41"/>
+    <mergeCell ref="B32:F41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4662,47 +4662,47 @@
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="B1" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
+      <c r="B4" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="16" t="s">
@@ -4928,10 +4928,10 @@
         <v>49</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>28</v>
@@ -4948,7 +4948,7 @@
         <v>45</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>54</v>
@@ -4977,186 +4977,186 @@
       <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
+      <c r="B22" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="19"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="19"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="19"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="19"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="19"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="19"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="19"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="19"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="19"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
     </row>
     <row r="32" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
+      <c r="B32" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="19"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="19"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="19"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="19"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="19"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="19"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="19"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="19"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="19"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A22:A31"/>
-    <mergeCell ref="B22:F31"/>
-    <mergeCell ref="A32:A41"/>
-    <mergeCell ref="B32:F41"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A22:A31"/>
+    <mergeCell ref="B22:F31"/>
+    <mergeCell ref="A32:A41"/>
+    <mergeCell ref="B32:F41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -5188,47 +5188,47 @@
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="B1" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
+      <c r="B4" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="16" t="s">
@@ -5381,7 +5381,7 @@
         <v>52</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>28</v>
@@ -5427,186 +5427,186 @@
       <c r="F17" s="16"/>
     </row>
     <row r="18" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
+      <c r="B18" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="19"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="19"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="19"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="19"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="19"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="19"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="19"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="19"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="19"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
     </row>
     <row r="28" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
+      <c r="B28" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="19"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="19"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="19"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="19"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="19"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="19"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="19"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="19"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="19"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A18:A27"/>
+    <mergeCell ref="B18:F27"/>
+    <mergeCell ref="A28:A37"/>
+    <mergeCell ref="B28:F37"/>
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A18:A27"/>
-    <mergeCell ref="B18:F27"/>
-    <mergeCell ref="A28:A37"/>
-    <mergeCell ref="B28:F37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -5638,47 +5638,47 @@
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="B1" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
+      <c r="B4" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="16" t="s">
@@ -5831,7 +5831,7 @@
         <v>52</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>28</v>
@@ -5877,186 +5877,186 @@
       <c r="F17" s="16"/>
     </row>
     <row r="18" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
+      <c r="B18" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="19"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="19"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="19"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="19"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="19"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="19"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="19"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="19"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="19"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
     </row>
     <row r="28" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
+      <c r="B28" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="19"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="19"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="19"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="19"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="19"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="19"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="19"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="19"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="19"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A18:A27"/>
+    <mergeCell ref="B18:F27"/>
+    <mergeCell ref="A28:A37"/>
+    <mergeCell ref="B28:F37"/>
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A18:A27"/>
-    <mergeCell ref="B18:F27"/>
-    <mergeCell ref="A28:A37"/>
-    <mergeCell ref="B28:F37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -6088,47 +6088,47 @@
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="B1" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
+      <c r="B4" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="16" t="s">
@@ -6162,7 +6162,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>55</v>
@@ -6182,7 +6182,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>45</v>
@@ -6280,10 +6280,10 @@
         <v>49</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>28</v>
@@ -6294,16 +6294,16 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>114</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>116</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>28</v>
@@ -6312,16 +6312,16 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>28</v>
@@ -6330,16 +6330,16 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>28</v>
@@ -6348,16 +6348,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>124</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>28</v>
@@ -6366,13 +6366,13 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>11</v>
@@ -6381,7 +6381,7 @@
         <v>28</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6403,187 +6403,187 @@
       <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
+      <c r="B22" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="19"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="19"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="19"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="19"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="19"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="19"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="19"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="19"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="19"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
+      <c r="B32" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="19"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="19"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="19"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="19"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="19"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="19"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="19"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="19"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="19"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="A22:A31"/>
     <mergeCell ref="B22:F31"/>
     <mergeCell ref="A32:A41"/>
     <mergeCell ref="B32:F41"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/doc/工作流接口说明.xlsx
+++ b/doc/工作流接口说明.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace_SearchDesktop\XFlowWeb\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkSpace\XFlowWeb\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC57D62-5568-47C3-A11C-4D97CE291414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="8640" tabRatio="728" activeTab="2"/>
+    <workbookView xWindow="15255" yWindow="32280" windowWidth="29040" windowHeight="15840" tabRatio="757" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="创建工作流实例" sheetId="1" r:id="rId1"/>
     <sheet name="查询可走路由" sheetId="4" r:id="rId2"/>
     <sheet name="工作流流转" sheetId="5" r:id="rId3"/>
-    <sheet name="待办查询（工作流实例ID）" sheetId="6" r:id="rId4"/>
-    <sheet name="待办查询（业务数据ID）" sheetId="7" r:id="rId5"/>
-    <sheet name="已办查询（工作流实例ID）" sheetId="8" r:id="rId6"/>
-    <sheet name="已办查询（业务数据ID）" sheetId="9" r:id="rId7"/>
-    <sheet name="查询汇总情况" sheetId="10" r:id="rId8"/>
+    <sheet name="工作流流转 (自由驳回)" sheetId="11" r:id="rId4"/>
+    <sheet name="待办查询（工作流实例ID）" sheetId="6" r:id="rId5"/>
+    <sheet name="待办查询（业务数据ID）" sheetId="7" r:id="rId6"/>
+    <sheet name="已办查询（工作流实例ID）" sheetId="8" r:id="rId7"/>
+    <sheet name="已办查询（业务数据ID）" sheetId="9" r:id="rId8"/>
+    <sheet name="查询汇总情况" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="239">
   <si>
     <t>接口名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -342,22 +344,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>参与者类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ParticipantTypeEnum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参与者ID</t>
-  </si>
-  <si>
-    <t>参与者名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参与者序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -641,10 +628,6 @@
   </si>
   <si>
     <t>Integer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>走哪条路的活动路由Code</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1347,14 +1330,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>走哪条路的活动路由信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>List&lt;FlowDataRoute&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1637,12 +1612,368 @@
     <t>FlowProcess.processID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NextRoutes.participantType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前接口查询人员的参与类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:执行人
+2:执行部门
+3:执行角色
+11:抄送人
+12:抄送部门
+13:抄送角色
+21:发起人
+22:活动实际操作人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NextRoutes.activitys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;FlowProcess&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾经流转过的节点及流转信息（可用于自由驳回，即无需模板上定义驳回路由）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同一活动节点，只保留最后一次的，不重复。时间倒序：最后操作的排在前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I003ToReject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自由驳回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许未在流程模板预先上定义驳回路由的工作流流转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activitys</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activitys.activityCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activitys.participants.objectType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activitys.participants.objectID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activitys.participants.objectName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activitys.participants.objectNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驳回活动节点的对象内必填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activityRouteCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>participants</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;UserParticipant&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>participants.objectType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>participants.objectID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>participants.objectName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>participants.objectNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单路流转：走哪条路的活动路由Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单路流转：指定下一活动的动态参与人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单路流转：参与者类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单路流转：参与者ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单路流转：参与者名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单路流转：参与者序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多路流转：走哪条路的活动路由信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多路流转：走哪条路的活动路由Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多路流转：参与者类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多路流转：参与者ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多路流转：参与者名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多路流转：参与者序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单路与多路二选一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>activityCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单路流转：驳回到哪个活动节点的编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多路流转：驳回到哪个活动节点的信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多路流转：驳回到哪个活动节点编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多路流转：参与者ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-02-22新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-02-10新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "sysid": "xx",
+    "sid": "I003ToReject",
+    "body": {
+        "serviceDataID": "20230214-003",
+        "activityCode": "检测喷涂工艺",
+        "infoComment": "驳回原因是：xxx-02",
+        "user": {
+            "userID": "LiHao",
+            "userName": "LiHao",
+            "roles": [
+                {
+                    "roleID": "X光探伤的角色",
+                    "roleName": "X光探伤的角色"
+                }
+            ]
+        }
+    }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "body": [
+        {
+            "counter": "0",
+            "counterPass": "0",
+            "createOrg": "",
+            "createOrgID": "",
+            "createTime": "2023-02-22 16:01:22",
+            "creater": "LiHao",
+            "createrID": "LiHao",
+            "currentActivityCode": "检测喷涂工艺",
+            "currentActivityID": "A-S005-001-A002",
+            "currentActivityName": "检测外观的质量问题",
+            "futureParticipants": [
+                {
+                    "activityID": "",
+                    "activityRouteID": "",
+                    "createOrg": "",
+                    "createOrgID": "",
+                    "createTime": "2023-02-22 16:01:22",
+                    "creater": "LiHao",
+                    "createrID": "LiHao",
+                    "objectID": "WangLi",
+                    "objectName": "WangLi",
+                    "objectNo": "0",
+                    "objectType": "1",
+                    "participantID": "",
+                    "participantType": "",
+                    "processID": "XFB8E6FD7710F54B27B35F532BF5523B77",
+                    "pwpID": "551A8695541F455F9CA3111D968F822B",
+                    "serviceDataID": "20230214-003",
+                    "splitProcessID": "",
+                    "templateID": "",
+                    "workID": "XFAD6839958737446393B229D54C590AB5"
+                }
+            ],
+            "infoComment": "",
+            "isPass": "0",
+            "limitOrgID": "",
+            "limitTime": "2000-01-01 00:00:00",
+            "limitUserID": "",
+            "nextActivityCode": "",
+            "nextActivityID": "",
+            "nextActivityName": "",
+            "nextProcessID": "",
+            "operateDatas": "",
+            "operateFiles": "",
+            "operateOrg": "",
+            "operateOrgID": "",
+            "operateTime": "2023-02-22 16:01:22",
+            "operateTimeLen": "0",
+            "operateType": "",
+            "operateTypeID": "",
+            "operateUser": "LiHao",
+            "operateUserID": "LiHao",
+            "participants": "",
+            "passType": "",
+            "previousActivityCode": "X光探伤",
+            "previousActivityID": "A-S005-001-A003",
+            "previousActivityName": "检查暗伤的质量问题",
+            "previousOperateTypeID": "RT020",
+            "previousProcessID": "XF15B9C1BEE8E94D1683E2EE5584C6B8DC",
+            "processID": "XFB8E6FD7710F54B27B35F532BF5523B77",
+            "processNo": "-1",
+            "serviceDataID": "20230214-003",
+            "splitProcessID": "",
+            "summary": "0.0",
+            "summaryPass": "0.0",
+            "templateID": "T-S005-001",
+            "workID": "XFAD6839958737446393B229D54C590AB5"
+        }
+    ],
+    "encry": "",
+    "format": "",
+    "rc": "0",
+    "result": "true",
+    "ri": "",
+    "serialNo": "2023022216012222678018XFlowWeb",
+    "session": "",
+    "sid": "I003ToReject",
+    "sidv": "",
+    "sign": "",
+    "sysid": "xx",
+    "tokenSec": ""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rejectMode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RejectModeEnum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认值为：auto
+auto：自动模式。尽量不干预其它分支路线
+team：协同模式。有条件时，其它分支一同驳回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-02-15新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自由驳回模式，用于多路线分派的情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-02-27新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1693,7 +2024,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1706,8 +2037,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1756,6 +2105,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1765,7 +2123,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1793,26 +2151,26 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1834,6 +2192,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2115,24 +2482,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="27.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="8.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.75" customWidth="1"/>
+    <col min="1" max="1" width="9.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.86328125" customWidth="1"/>
+    <col min="3" max="3" width="27.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.86328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.59765625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2144,7 +2511,7 @@
       <c r="E1" s="19"/>
       <c r="F1" s="19"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
@@ -2154,7 +2521,7 @@
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -2166,7 +2533,7 @@
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -2178,7 +2545,7 @@
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>3</v>
       </c>
@@ -2188,7 +2555,7 @@
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -2208,7 +2575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -2221,12 +2588,12 @@
       <c r="D7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>39</v>
       </c>
@@ -2244,7 +2611,7 @@
       </c>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>40</v>
       </c>
@@ -2262,7 +2629,7 @@
       </c>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>41</v>
       </c>
@@ -2280,7 +2647,7 @@
       </c>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>42</v>
       </c>
@@ -2300,7 +2667,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>43</v>
       </c>
@@ -2320,7 +2687,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>47</v>
       </c>
@@ -2328,37 +2695,37 @@
         <v>44</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>45</v>
@@ -2374,7 +2741,7 @@
       </c>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -2382,7 +2749,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>14</v>
       </c>
@@ -2392,7 +2759,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
@@ -2412,7 +2779,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>8</v>
       </c>
@@ -2430,7 +2797,7 @@
       </c>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>39</v>
       </c>
@@ -2448,7 +2815,7 @@
       </c>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>40</v>
       </c>
@@ -2468,7 +2835,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>41</v>
       </c>
@@ -2486,7 +2853,7 @@
       </c>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -2494,7 +2861,7 @@
       <c r="E23" s="5"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
         <v>18</v>
       </c>
@@ -2504,7 +2871,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
     </row>
-    <row r="25" spans="1:6" ht="13.5" customHeight="1">
+    <row r="25" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="17" t="s">
         <v>19</v>
       </c>
@@ -2516,7 +2883,7 @@
       <c r="E25" s="19"/>
       <c r="F25" s="19"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
@@ -2524,7 +2891,7 @@
       <c r="E26" s="19"/>
       <c r="F26" s="19"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="17"/>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
@@ -2532,7 +2899,7 @@
       <c r="E27" s="19"/>
       <c r="F27" s="19"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="17"/>
       <c r="B28" s="19"/>
       <c r="C28" s="19"/>
@@ -2540,7 +2907,7 @@
       <c r="E28" s="19"/>
       <c r="F28" s="19"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="17"/>
       <c r="B29" s="19"/>
       <c r="C29" s="19"/>
@@ -2548,7 +2915,7 @@
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
@@ -2556,7 +2923,7 @@
       <c r="E30" s="19"/>
       <c r="F30" s="19"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="17"/>
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
@@ -2564,7 +2931,7 @@
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="17"/>
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
@@ -2572,7 +2939,7 @@
       <c r="E32" s="19"/>
       <c r="F32" s="19"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
@@ -2580,7 +2947,7 @@
       <c r="E33" s="19"/>
       <c r="F33" s="19"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="17"/>
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
@@ -2588,7 +2955,7 @@
       <c r="E34" s="19"/>
       <c r="F34" s="19"/>
     </row>
-    <row r="35" spans="1:6" ht="13.5" customHeight="1">
+    <row r="35" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="17" t="s">
         <v>20</v>
       </c>
@@ -2600,7 +2967,7 @@
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="17"/>
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
@@ -2608,7 +2975,7 @@
       <c r="E36" s="19"/>
       <c r="F36" s="19"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="17"/>
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
@@ -2616,7 +2983,7 @@
       <c r="E37" s="19"/>
       <c r="F37" s="19"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="17"/>
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
@@ -2624,7 +2991,7 @@
       <c r="E38" s="19"/>
       <c r="F38" s="19"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="17"/>
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
@@ -2632,7 +2999,7 @@
       <c r="E39" s="19"/>
       <c r="F39" s="19"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="17"/>
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
@@ -2640,7 +3007,7 @@
       <c r="E40" s="19"/>
       <c r="F40" s="19"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="17"/>
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
@@ -2648,7 +3015,7 @@
       <c r="E41" s="19"/>
       <c r="F41" s="19"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="17"/>
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
@@ -2656,7 +3023,7 @@
       <c r="E42" s="19"/>
       <c r="F42" s="19"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="17"/>
       <c r="B43" s="19"/>
       <c r="C43" s="19"/>
@@ -2664,7 +3031,7 @@
       <c r="E43" s="19"/>
       <c r="F43" s="19"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="17"/>
       <c r="B44" s="19"/>
       <c r="C44" s="19"/>
@@ -2688,7 +3055,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
@@ -2696,25 +3063,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:C24"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.9296875" customWidth="1"/>
+    <col min="4" max="4" width="21.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.59765625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="33.9296875" customWidth="1"/>
+    <col min="7" max="7" width="20.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="19" t="s">
@@ -2725,8 +3093,8 @@
       <c r="E1" s="19"/>
       <c r="F1" s="19"/>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="19"/>
@@ -2735,8 +3103,8 @@
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="20" t="s">
@@ -2747,8 +3115,8 @@
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="19" t="s">
@@ -2759,7 +3127,7 @@
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>3</v>
       </c>
@@ -2769,8 +3137,8 @@
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -2789,7 +3157,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -2802,12 +3170,12 @@
       <c r="D7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>39</v>
       </c>
@@ -2825,7 +3193,7 @@
       </c>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>40</v>
       </c>
@@ -2843,7 +3211,7 @@
       </c>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>41</v>
       </c>
@@ -2861,7 +3229,7 @@
       </c>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>42</v>
       </c>
@@ -2881,7 +3249,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>43</v>
       </c>
@@ -2901,7 +3269,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>47</v>
       </c>
@@ -2914,14 +3282,14 @@
       <c r="D13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="21" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>48</v>
       </c>
@@ -2934,12 +3302,12 @@
       <c r="D14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="22"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -2947,7 +3315,7 @@
       <c r="E15" s="5"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>14</v>
       </c>
@@ -2957,8 +3325,8 @@
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -2977,7 +3345,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>8</v>
       </c>
@@ -2995,7 +3363,7 @@
       </c>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>39</v>
       </c>
@@ -3013,7 +3381,7 @@
       </c>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>40</v>
       </c>
@@ -3024,162 +3392,192 @@
         <v>65</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="108" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="17" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="17"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="17"/>
-      <c r="B30" s="19"/>
+      <c r="B30" s="18" t="s">
+        <v>126</v>
+      </c>
       <c r="C30" s="19"/>
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
       <c r="F30" s="19"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="17"/>
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
@@ -3187,7 +3585,7 @@
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="17"/>
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
@@ -3195,7 +3593,7 @@
       <c r="E32" s="19"/>
       <c r="F32" s="19"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
@@ -3203,7 +3601,7 @@
       <c r="E33" s="19"/>
       <c r="F33" s="19"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="17"/>
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
@@ -3211,7 +3609,7 @@
       <c r="E34" s="19"/>
       <c r="F34" s="19"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="17"/>
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
@@ -3219,7 +3617,7 @@
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="17"/>
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
@@ -3227,7 +3625,7 @@
       <c r="E36" s="19"/>
       <c r="F36" s="19"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="17"/>
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
@@ -3235,19 +3633,15 @@
       <c r="E37" s="19"/>
       <c r="F37" s="19"/>
     </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B38" s="18" t="s">
-        <v>168</v>
-      </c>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="17"/>
+      <c r="B38" s="19"/>
       <c r="C38" s="19"/>
       <c r="D38" s="19"/>
       <c r="E38" s="19"/>
       <c r="F38" s="19"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="17"/>
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
@@ -3255,15 +3649,19 @@
       <c r="E39" s="19"/>
       <c r="F39" s="19"/>
     </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="17"/>
-      <c r="B40" s="19"/>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>163</v>
+      </c>
       <c r="C40" s="19"/>
       <c r="D40" s="19"/>
       <c r="E40" s="19"/>
       <c r="F40" s="19"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="17"/>
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
@@ -3271,7 +3669,7 @@
       <c r="E41" s="19"/>
       <c r="F41" s="19"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="17"/>
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
@@ -3279,7 +3677,7 @@
       <c r="E42" s="19"/>
       <c r="F42" s="19"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="17"/>
       <c r="B43" s="19"/>
       <c r="C43" s="19"/>
@@ -3287,7 +3685,7 @@
       <c r="E43" s="19"/>
       <c r="F43" s="19"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="17"/>
       <c r="B44" s="19"/>
       <c r="C44" s="19"/>
@@ -3295,7 +3693,7 @@
       <c r="E44" s="19"/>
       <c r="F44" s="19"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="17"/>
       <c r="B45" s="19"/>
       <c r="C45" s="19"/>
@@ -3303,7 +3701,7 @@
       <c r="E45" s="19"/>
       <c r="F45" s="19"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="17"/>
       <c r="B46" s="19"/>
       <c r="C46" s="19"/>
@@ -3311,13 +3709,29 @@
       <c r="E46" s="19"/>
       <c r="F46" s="19"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="17"/>
       <c r="B47" s="19"/>
       <c r="C47" s="19"/>
       <c r="D47" s="19"/>
       <c r="E47" s="19"/>
       <c r="F47" s="19"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="17"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="17"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -3328,40 +3742,41 @@
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A28:A37"/>
-    <mergeCell ref="B28:F37"/>
-    <mergeCell ref="A38:A47"/>
-    <mergeCell ref="B38:F47"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A30:A39"/>
+    <mergeCell ref="B30:F39"/>
+    <mergeCell ref="A40:A49"/>
+    <mergeCell ref="B40:F49"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="38.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.796875" customWidth="1"/>
+    <col min="4" max="4" width="23.73046875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.59765625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="38.265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="19" t="s">
@@ -3372,8 +3787,8 @@
       <c r="E1" s="19"/>
       <c r="F1" s="19"/>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="19"/>
@@ -3382,8 +3797,8 @@
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="20" t="s">
@@ -3394,19 +3809,19 @@
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>3</v>
       </c>
@@ -3416,8 +3831,8 @@
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -3436,7 +3851,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -3449,12 +3864,12 @@
       <c r="D7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>39</v>
       </c>
@@ -3472,7 +3887,7 @@
       </c>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>40</v>
       </c>
@@ -3490,7 +3905,7 @@
       </c>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>41</v>
       </c>
@@ -3508,7 +3923,7 @@
       </c>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>42</v>
       </c>
@@ -3528,7 +3943,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>43</v>
       </c>
@@ -3548,7 +3963,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>47</v>
       </c>
@@ -3561,14 +3976,14 @@
       <c r="D13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="21" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>48</v>
       </c>
@@ -3581,78 +3996,81 @@
       <c r="D14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="22"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>170</v>
+        <v>196</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>211</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="E15" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="15"/>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="F15" s="10"/>
+      <c r="G15" s="23" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>106</v>
+        <v>198</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>212</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>199</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="23"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C17" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>68</v>
-      </c>
       <c r="E17" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F17" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="23"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="B18" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>69</v>
+        <v>208</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>214</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>11</v>
@@ -3661,16 +4079,17 @@
         <v>28</v>
       </c>
       <c r="F18" s="22"/>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" s="23"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>70</v>
+        <v>209</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>215</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>11</v>
@@ -3678,91 +4097,100 @@
       <c r="E19" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="12"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="F19" s="10"/>
+      <c r="G19" s="23"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>71</v>
+        <v>210</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>216</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="12"/>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="F20" s="10"/>
+      <c r="G20" s="23"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>160</v>
+        <v>166</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>217</v>
       </c>
       <c r="D21" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="24" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" s="22"/>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" s="24"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23" s="24"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" s="14"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="3" t="s">
-        <v>158</v>
-      </c>
       <c r="B24" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>163</v>
+        <v>169</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>220</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>11</v>
@@ -3770,17 +4198,18 @@
       <c r="E24" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="14"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="1" t="s">
-        <v>169</v>
+      <c r="F24" s="22"/>
+      <c r="G24" s="24"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>200</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>164</v>
+        <v>170</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>221</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>11</v>
@@ -3788,199 +4217,263 @@
       <c r="E25" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="14"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="16" t="s">
+      <c r="F25" s="10"/>
+      <c r="G25" s="24"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="10"/>
+      <c r="G26" s="24"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="22"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="3"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="9" t="s">
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B34" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C34" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D34" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E34" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F34" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="3" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D35" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E35" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="3" t="s">
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B36" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C36" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D36" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="3" t="s">
+      <c r="E36" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B37" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F31" s="4" t="s">
+      <c r="C37" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="3" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D32" s="5" t="s">
+      <c r="B38" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="3"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="4"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="16" t="s">
+      <c r="E38" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="3"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-    </row>
-    <row r="35" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A35" s="17" t="s">
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+    </row>
+    <row r="41" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="17"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="17"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="17"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="17"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="17"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="17"/>
-      <c r="B41" s="19"/>
+      <c r="B41" s="18" t="s">
+        <v>172</v>
+      </c>
       <c r="C41" s="19"/>
       <c r="D41" s="19"/>
       <c r="E41" s="19"/>
       <c r="F41" s="19"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="17"/>
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
@@ -3988,7 +4481,7 @@
       <c r="E42" s="19"/>
       <c r="F42" s="19"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="17"/>
       <c r="B43" s="19"/>
       <c r="C43" s="19"/>
@@ -3996,7 +4489,7 @@
       <c r="E43" s="19"/>
       <c r="F43" s="19"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="17"/>
       <c r="B44" s="19"/>
       <c r="C44" s="19"/>
@@ -4004,19 +4497,15 @@
       <c r="E44" s="19"/>
       <c r="F44" s="19"/>
     </row>
-    <row r="45" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A45" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B45" s="18" t="s">
-        <v>180</v>
-      </c>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="17"/>
+      <c r="B45" s="19"/>
       <c r="C45" s="19"/>
       <c r="D45" s="19"/>
       <c r="E45" s="19"/>
       <c r="F45" s="19"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="17"/>
       <c r="B46" s="19"/>
       <c r="C46" s="19"/>
@@ -4024,7 +4513,7 @@
       <c r="E46" s="19"/>
       <c r="F46" s="19"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="17"/>
       <c r="B47" s="19"/>
       <c r="C47" s="19"/>
@@ -4032,7 +4521,7 @@
       <c r="E47" s="19"/>
       <c r="F47" s="19"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="17"/>
       <c r="B48" s="19"/>
       <c r="C48" s="19"/>
@@ -4040,7 +4529,7 @@
       <c r="E48" s="19"/>
       <c r="F48" s="19"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="17"/>
       <c r="B49" s="19"/>
       <c r="C49" s="19"/>
@@ -4048,7 +4537,7 @@
       <c r="E49" s="19"/>
       <c r="F49" s="19"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="17"/>
       <c r="B50" s="19"/>
       <c r="C50" s="19"/>
@@ -4056,15 +4545,19 @@
       <c r="E50" s="19"/>
       <c r="F50" s="19"/>
     </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="17"/>
-      <c r="B51" s="19"/>
+    <row r="51" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>173</v>
+      </c>
       <c r="C51" s="19"/>
       <c r="D51" s="19"/>
       <c r="E51" s="19"/>
       <c r="F51" s="19"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="17"/>
       <c r="B52" s="19"/>
       <c r="C52" s="19"/>
@@ -4072,7 +4565,7 @@
       <c r="E52" s="19"/>
       <c r="F52" s="19"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="17"/>
       <c r="B53" s="19"/>
       <c r="C53" s="19"/>
@@ -4080,7 +4573,7 @@
       <c r="E53" s="19"/>
       <c r="F53" s="19"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="17"/>
       <c r="B54" s="19"/>
       <c r="C54" s="19"/>
@@ -4088,26 +4581,77 @@
       <c r="E54" s="19"/>
       <c r="F54" s="19"/>
     </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="17"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="17"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="17"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="17"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="17"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="17"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+    </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A27:F27"/>
+  <mergeCells count="17">
+    <mergeCell ref="G15:G20"/>
+    <mergeCell ref="G21:G26"/>
+    <mergeCell ref="A33:F33"/>
     <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F27:F28"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A35:A44"/>
-    <mergeCell ref="B35:F44"/>
-    <mergeCell ref="A45:A54"/>
-    <mergeCell ref="B45:F54"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A41:A50"/>
+    <mergeCell ref="B41:F50"/>
+    <mergeCell ref="A51:A60"/>
+    <mergeCell ref="B51:F60"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
@@ -4115,37 +4659,932 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3278FDE-6B63-43E5-A321-F3968BFA17E0}">
+  <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A32" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="27.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.75" customWidth="1"/>
+    <col min="1" max="1" width="9.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.265625" customWidth="1"/>
+    <col min="3" max="3" width="38.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.59765625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="44.53125" customWidth="1"/>
+    <col min="7" max="8" width="20.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>82</v>
+        <v>187</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
       <c r="E1" s="19"/>
       <c r="F1" s="19"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="9" t="s">
+      <c r="G1" s="25" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="25"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="25"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="25"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="22"/>
+    </row>
+    <row r="15" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="23" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="23"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" s="23"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="22"/>
+      <c r="G19" s="23"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="23"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="23"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="24" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="G23" s="24"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="G24" s="24"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="22"/>
+      <c r="G25" s="24"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="10"/>
+      <c r="G26" s="24"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="G27" s="24"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="3"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+    </row>
+    <row r="40" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="17"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="17"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="17"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="17"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="17"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="17"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="17"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="17"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="17"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+    </row>
+    <row r="50" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="17"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="17"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="17"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="17"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="17"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="17"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="17"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="17"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="17"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="A50:A59"/>
+    <mergeCell ref="B50:F59"/>
+    <mergeCell ref="G16:G21"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G22:G27"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A40:A49"/>
+    <mergeCell ref="B40:F49"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{1F937940-889C-4045-A0B7-04329B230707}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:F41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.86328125" customWidth="1"/>
+    <col min="3" max="3" width="27.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.86328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.59765625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.73046875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="19"/>
@@ -4154,8 +5593,8 @@
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="20" t="s">
@@ -4166,19 +5605,19 @@
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>3</v>
       </c>
@@ -4188,8 +5627,8 @@
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -4208,7 +5647,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -4221,12 +5660,12 @@
       <c r="D7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>39</v>
       </c>
@@ -4244,7 +5683,7 @@
       </c>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>40</v>
       </c>
@@ -4262,7 +5701,7 @@
       </c>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>41</v>
       </c>
@@ -4280,7 +5719,7 @@
       </c>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>42</v>
       </c>
@@ -4300,7 +5739,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>43</v>
       </c>
@@ -4320,7 +5759,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -4328,7 +5767,7 @@
       <c r="E13" s="5"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>14</v>
       </c>
@@ -4338,8 +5777,8 @@
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -4358,7 +5797,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
@@ -4376,7 +5815,7 @@
       </c>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>39</v>
       </c>
@@ -4394,7 +5833,7 @@
       </c>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>40</v>
       </c>
@@ -4405,7 +5844,7 @@
         <v>52</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>28</v>
@@ -4414,7 +5853,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>41</v>
       </c>
@@ -4432,7 +5871,7 @@
       </c>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -4440,7 +5879,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
         <v>18</v>
       </c>
@@ -4450,19 +5889,19 @@
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
     </row>
-    <row r="22" spans="1:6" ht="13.5" customHeight="1">
+    <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
       <c r="F22" s="19"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
@@ -4470,7 +5909,7 @@
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="17"/>
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
@@ -4478,7 +5917,7 @@
       <c r="E24" s="19"/>
       <c r="F24" s="19"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="17"/>
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
@@ -4486,7 +5925,7 @@
       <c r="E25" s="19"/>
       <c r="F25" s="19"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
@@ -4494,7 +5933,7 @@
       <c r="E26" s="19"/>
       <c r="F26" s="19"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="17"/>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
@@ -4502,7 +5941,7 @@
       <c r="E27" s="19"/>
       <c r="F27" s="19"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="17"/>
       <c r="B28" s="19"/>
       <c r="C28" s="19"/>
@@ -4510,7 +5949,7 @@
       <c r="E28" s="19"/>
       <c r="F28" s="19"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="17"/>
       <c r="B29" s="19"/>
       <c r="C29" s="19"/>
@@ -4518,7 +5957,7 @@
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
@@ -4526,7 +5965,7 @@
       <c r="E30" s="19"/>
       <c r="F30" s="19"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="17"/>
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
@@ -4534,19 +5973,19 @@
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
     </row>
-    <row r="32" spans="1:6" ht="13.5" customHeight="1">
+    <row r="32" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
         <v>20</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
       <c r="F32" s="19"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
@@ -4554,7 +5993,7 @@
       <c r="E33" s="19"/>
       <c r="F33" s="19"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="17"/>
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
@@ -4562,7 +6001,7 @@
       <c r="E34" s="19"/>
       <c r="F34" s="19"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="17"/>
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
@@ -4570,7 +6009,7 @@
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="17"/>
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
@@ -4578,7 +6017,7 @@
       <c r="E36" s="19"/>
       <c r="F36" s="19"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="17"/>
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
@@ -4586,7 +6025,7 @@
       <c r="E37" s="19"/>
       <c r="F37" s="19"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="17"/>
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
@@ -4594,7 +6033,7 @@
       <c r="E38" s="19"/>
       <c r="F38" s="19"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="17"/>
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
@@ -4602,7 +6041,7 @@
       <c r="E39" s="19"/>
       <c r="F39" s="19"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="17"/>
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
@@ -4610,7 +6049,7 @@
       <c r="E40" s="19"/>
       <c r="F40" s="19"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="17"/>
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
@@ -4634,44 +6073,44 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="27.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.75" customWidth="1"/>
+    <col min="1" max="1" width="9.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.86328125" customWidth="1"/>
+    <col min="3" max="3" width="27.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.86328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.59765625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
       <c r="E1" s="19"/>
       <c r="F1" s="19"/>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="19"/>
@@ -4680,8 +6119,8 @@
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="20" t="s">
@@ -4692,19 +6131,19 @@
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>3</v>
       </c>
@@ -4714,8 +6153,8 @@
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -4734,7 +6173,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -4747,12 +6186,12 @@
       <c r="D7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>39</v>
       </c>
@@ -4770,7 +6209,7 @@
       </c>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>40</v>
       </c>
@@ -4788,7 +6227,7 @@
       </c>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>41</v>
       </c>
@@ -4806,7 +6245,7 @@
       </c>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>42</v>
       </c>
@@ -4826,7 +6265,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>43</v>
       </c>
@@ -4846,7 +6285,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -4854,7 +6293,7 @@
       <c r="E13" s="5"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
         <v>14</v>
       </c>
@@ -4864,8 +6303,8 @@
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -4884,7 +6323,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
@@ -4902,7 +6341,7 @@
       </c>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>39</v>
       </c>
@@ -4920,7 +6359,7 @@
       </c>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>40</v>
       </c>
@@ -4928,10 +6367,10 @@
         <v>49</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>28</v>
@@ -4940,7 +6379,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>41</v>
       </c>
@@ -4948,7 +6387,7 @@
         <v>45</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>54</v>
@@ -4958,7 +6397,7 @@
       </c>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -4966,7 +6405,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
         <v>18</v>
       </c>
@@ -4976,19 +6415,19 @@
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
     </row>
-    <row r="22" spans="1:6" ht="13.5" customHeight="1">
+    <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
       <c r="F22" s="19"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
@@ -4996,7 +6435,7 @@
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="17"/>
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
@@ -5004,7 +6443,7 @@
       <c r="E24" s="19"/>
       <c r="F24" s="19"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="17"/>
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
@@ -5012,7 +6451,7 @@
       <c r="E25" s="19"/>
       <c r="F25" s="19"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
@@ -5020,7 +6459,7 @@
       <c r="E26" s="19"/>
       <c r="F26" s="19"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="17"/>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
@@ -5028,7 +6467,7 @@
       <c r="E27" s="19"/>
       <c r="F27" s="19"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="17"/>
       <c r="B28" s="19"/>
       <c r="C28" s="19"/>
@@ -5036,7 +6475,7 @@
       <c r="E28" s="19"/>
       <c r="F28" s="19"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="17"/>
       <c r="B29" s="19"/>
       <c r="C29" s="19"/>
@@ -5044,7 +6483,7 @@
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
@@ -5052,7 +6491,7 @@
       <c r="E30" s="19"/>
       <c r="F30" s="19"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="17"/>
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
@@ -5060,19 +6499,19 @@
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
     </row>
-    <row r="32" spans="1:6" ht="13.5" customHeight="1">
+    <row r="32" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
         <v>20</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
       <c r="F32" s="19"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
@@ -5080,7 +6519,7 @@
       <c r="E33" s="19"/>
       <c r="F33" s="19"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="17"/>
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
@@ -5088,7 +6527,7 @@
       <c r="E34" s="19"/>
       <c r="F34" s="19"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="17"/>
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
@@ -5096,7 +6535,7 @@
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="17"/>
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
@@ -5104,7 +6543,7 @@
       <c r="E36" s="19"/>
       <c r="F36" s="19"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="17"/>
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
@@ -5112,7 +6551,7 @@
       <c r="E37" s="19"/>
       <c r="F37" s="19"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="17"/>
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
@@ -5120,7 +6559,7 @@
       <c r="E38" s="19"/>
       <c r="F38" s="19"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="17"/>
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
@@ -5128,7 +6567,7 @@
       <c r="E39" s="19"/>
       <c r="F39" s="19"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="17"/>
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
@@ -5136,7 +6575,7 @@
       <c r="E40" s="19"/>
       <c r="F40" s="19"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="17"/>
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
@@ -5160,44 +6599,44 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="27.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.75" customWidth="1"/>
+    <col min="1" max="1" width="9.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.86328125" customWidth="1"/>
+    <col min="3" max="3" width="27.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.86328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.59765625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
       <c r="E1" s="19"/>
       <c r="F1" s="19"/>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="19"/>
@@ -5206,8 +6645,8 @@
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="20" t="s">
@@ -5218,19 +6657,19 @@
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>3</v>
       </c>
@@ -5240,8 +6679,8 @@
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -5260,7 +6699,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -5273,12 +6712,12 @@
       <c r="D7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>39</v>
       </c>
@@ -5296,7 +6735,7 @@
       </c>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -5304,7 +6743,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>14</v>
       </c>
@@ -5314,8 +6753,8 @@
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -5334,7 +6773,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
@@ -5352,7 +6791,7 @@
       </c>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>39</v>
       </c>
@@ -5370,7 +6809,7 @@
       </c>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>40</v>
       </c>
@@ -5381,7 +6820,7 @@
         <v>52</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>28</v>
@@ -5390,7 +6829,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>41</v>
       </c>
@@ -5408,7 +6847,7 @@
       </c>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -5416,7 +6855,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>18</v>
       </c>
@@ -5426,19 +6865,19 @@
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
     </row>
-    <row r="18" spans="1:6" ht="13.5" customHeight="1">
+    <row r="18" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
@@ -5446,7 +6885,7 @@
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
@@ -5454,7 +6893,7 @@
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="17"/>
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
@@ -5462,7 +6901,7 @@
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="17"/>
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
@@ -5470,7 +6909,7 @@
       <c r="E22" s="19"/>
       <c r="F22" s="19"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
@@ -5478,7 +6917,7 @@
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="17"/>
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
@@ -5486,7 +6925,7 @@
       <c r="E24" s="19"/>
       <c r="F24" s="19"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="17"/>
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
@@ -5494,7 +6933,7 @@
       <c r="E25" s="19"/>
       <c r="F25" s="19"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
@@ -5502,7 +6941,7 @@
       <c r="E26" s="19"/>
       <c r="F26" s="19"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="17"/>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
@@ -5510,19 +6949,19 @@
       <c r="E27" s="19"/>
       <c r="F27" s="19"/>
     </row>
-    <row r="28" spans="1:6" ht="13.5" customHeight="1">
+    <row r="28" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="s">
         <v>20</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
       <c r="F28" s="19"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="17"/>
       <c r="B29" s="19"/>
       <c r="C29" s="19"/>
@@ -5530,7 +6969,7 @@
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
@@ -5538,7 +6977,7 @@
       <c r="E30" s="19"/>
       <c r="F30" s="19"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="17"/>
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
@@ -5546,7 +6985,7 @@
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="17"/>
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
@@ -5554,7 +6993,7 @@
       <c r="E32" s="19"/>
       <c r="F32" s="19"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
@@ -5562,7 +7001,7 @@
       <c r="E33" s="19"/>
       <c r="F33" s="19"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="17"/>
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
@@ -5570,7 +7009,7 @@
       <c r="E34" s="19"/>
       <c r="F34" s="19"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="17"/>
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
@@ -5578,7 +7017,7 @@
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="17"/>
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
@@ -5586,7 +7025,7 @@
       <c r="E36" s="19"/>
       <c r="F36" s="19"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="17"/>
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
@@ -5610,44 +7049,44 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.875" customWidth="1"/>
-    <col min="3" max="3" width="27.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.75" customWidth="1"/>
+    <col min="1" max="1" width="9.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.86328125" customWidth="1"/>
+    <col min="3" max="3" width="27.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.86328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.59765625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
       <c r="E1" s="19"/>
       <c r="F1" s="19"/>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="19"/>
@@ -5656,8 +7095,8 @@
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="20" t="s">
@@ -5668,19 +7107,19 @@
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>3</v>
       </c>
@@ -5690,8 +7129,8 @@
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -5710,7 +7149,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -5723,12 +7162,12 @@
       <c r="D7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>39</v>
       </c>
@@ -5746,7 +7185,7 @@
       </c>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -5754,7 +7193,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>14</v>
       </c>
@@ -5764,8 +7203,8 @@
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -5784,7 +7223,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
@@ -5802,7 +7241,7 @@
       </c>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>39</v>
       </c>
@@ -5820,7 +7259,7 @@
       </c>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>40</v>
       </c>
@@ -5831,7 +7270,7 @@
         <v>52</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>28</v>
@@ -5840,7 +7279,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>41</v>
       </c>
@@ -5858,7 +7297,7 @@
       </c>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -5866,7 +7305,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>18</v>
       </c>
@@ -5876,19 +7315,19 @@
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
     </row>
-    <row r="18" spans="1:6" ht="13.5" customHeight="1">
+    <row r="18" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="17"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
@@ -5896,7 +7335,7 @@
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
@@ -5904,7 +7343,7 @@
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="17"/>
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
@@ -5912,7 +7351,7 @@
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="17"/>
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
@@ -5920,7 +7359,7 @@
       <c r="E22" s="19"/>
       <c r="F22" s="19"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
@@ -5928,7 +7367,7 @@
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="17"/>
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
@@ -5936,7 +7375,7 @@
       <c r="E24" s="19"/>
       <c r="F24" s="19"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="17"/>
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
@@ -5944,7 +7383,7 @@
       <c r="E25" s="19"/>
       <c r="F25" s="19"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
@@ -5952,7 +7391,7 @@
       <c r="E26" s="19"/>
       <c r="F26" s="19"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="17"/>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
@@ -5960,19 +7399,19 @@
       <c r="E27" s="19"/>
       <c r="F27" s="19"/>
     </row>
-    <row r="28" spans="1:6" ht="13.5" customHeight="1">
+    <row r="28" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="s">
         <v>20</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
       <c r="F28" s="19"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="17"/>
       <c r="B29" s="19"/>
       <c r="C29" s="19"/>
@@ -5980,7 +7419,7 @@
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
@@ -5988,7 +7427,7 @@
       <c r="E30" s="19"/>
       <c r="F30" s="19"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="17"/>
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
@@ -5996,7 +7435,7 @@
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="17"/>
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
@@ -6004,7 +7443,7 @@
       <c r="E32" s="19"/>
       <c r="F32" s="19"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
@@ -6012,7 +7451,7 @@
       <c r="E33" s="19"/>
       <c r="F33" s="19"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="17"/>
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
@@ -6020,7 +7459,7 @@
       <c r="E34" s="19"/>
       <c r="F34" s="19"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="17"/>
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
@@ -6028,7 +7467,7 @@
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="17"/>
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
@@ -6036,7 +7475,7 @@
       <c r="E36" s="19"/>
       <c r="F36" s="19"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="17"/>
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
@@ -6060,44 +7499,44 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.86328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.59765625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
       <c r="E1" s="19"/>
       <c r="F1" s="19"/>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="19"/>
@@ -6106,8 +7545,8 @@
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="20" t="s">
@@ -6118,19 +7557,19 @@
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>3</v>
       </c>
@@ -6140,8 +7579,8 @@
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -6160,9 +7599,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>55</v>
@@ -6173,16 +7612,16 @@
       <c r="D7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="21" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>45</v>
@@ -6193,12 +7632,12 @@
       <c r="D8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="22"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -6206,7 +7645,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>14</v>
       </c>
@@ -6216,8 +7655,8 @@
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="13" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -6236,7 +7675,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
@@ -6254,7 +7693,7 @@
       </c>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>39</v>
       </c>
@@ -6272,7 +7711,7 @@
       </c>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>40</v>
       </c>
@@ -6280,10 +7719,10 @@
         <v>49</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>28</v>
@@ -6292,87 +7731,87 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="C15" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="3" t="s">
+      <c r="E17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B18" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D18" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B17" s="4" t="s">
+      <c r="B19" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>11</v>
@@ -6381,10 +7820,10 @@
         <v>28</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -6392,7 +7831,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
         <v>18</v>
       </c>
@@ -6402,19 +7841,19 @@
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
       <c r="E22" s="19"/>
       <c r="F22" s="19"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="17"/>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
@@ -6422,7 +7861,7 @@
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="17"/>
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
@@ -6430,7 +7869,7 @@
       <c r="E24" s="19"/>
       <c r="F24" s="19"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="17"/>
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
@@ -6438,7 +7877,7 @@
       <c r="E25" s="19"/>
       <c r="F25" s="19"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
@@ -6446,7 +7885,7 @@
       <c r="E26" s="19"/>
       <c r="F26" s="19"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="17"/>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
@@ -6454,7 +7893,7 @@
       <c r="E27" s="19"/>
       <c r="F27" s="19"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="17"/>
       <c r="B28" s="19"/>
       <c r="C28" s="19"/>
@@ -6462,7 +7901,7 @@
       <c r="E28" s="19"/>
       <c r="F28" s="19"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="17"/>
       <c r="B29" s="19"/>
       <c r="C29" s="19"/>
@@ -6470,7 +7909,7 @@
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
@@ -6478,7 +7917,7 @@
       <c r="E30" s="19"/>
       <c r="F30" s="19"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="17"/>
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
@@ -6486,19 +7925,19 @@
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
         <v>20</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
       <c r="F32" s="19"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
@@ -6506,7 +7945,7 @@
       <c r="E33" s="19"/>
       <c r="F33" s="19"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="17"/>
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
@@ -6514,7 +7953,7 @@
       <c r="E34" s="19"/>
       <c r="F34" s="19"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="17"/>
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
@@ -6522,7 +7961,7 @@
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="17"/>
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
@@ -6530,7 +7969,7 @@
       <c r="E36" s="19"/>
       <c r="F36" s="19"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="17"/>
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
@@ -6538,7 +7977,7 @@
       <c r="E37" s="19"/>
       <c r="F37" s="19"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="17"/>
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
@@ -6546,7 +7985,7 @@
       <c r="E38" s="19"/>
       <c r="F38" s="19"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="17"/>
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
@@ -6554,7 +7993,7 @@
       <c r="E39" s="19"/>
       <c r="F39" s="19"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="17"/>
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
@@ -6562,7 +8001,7 @@
       <c r="E40" s="19"/>
       <c r="F40" s="19"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="17"/>
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
@@ -6587,7 +8026,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/工作流接口说明.xlsx
+++ b/doc/工作流接口说明.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkSpace\XFlowWeb\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\XFlowWeb\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC57D62-5568-47C3-A11C-4D97CE291414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C8AAE9-7C2A-4C83-8AD5-12BB2BA83625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15255" yWindow="32280" windowWidth="29040" windowHeight="15840" tabRatio="757" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="983" yWindow="-98" windowWidth="27915" windowHeight="16395" tabRatio="757" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="创建工作流实例" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="240">
   <si>
     <t>接口名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1000,333 +1000,6 @@
   </si>
   <si>
     <t>NextRoutes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "body": {
-        "currentActivity": {
-            "activityCode": "汇总结果",
-            "activityID": "A-ManyRoute-004",
-            "activityName": "汇总结果",
-            "activityType": {
-                "activityType": "常规",
-                "activityTypeID": "AT001",
-                "infoComment": "",
-                "orderNo": ""
-            },
-            "activityTypeID": "",
-            "backgroudColor": "",
-            "counterPass": "2",
-            "createTime": "",
-            "creater": "",
-            "createrID": "",
-            "flagColor": "",
-            "fontColor": "",
-            "height": "",
-            "iconURL": "",
-            "infoComment": "",
-            "lastTime": "",
-            "lastUser": "",
-            "lastUserID": "",
-            "lineColor": "",
-            "participantByActivitys": "",
-            "participantByCreater": "",
-            "participants": "",
-            "passType": "OR",
-            "routes": "",
-            "summaryPass": "100.0",
-            "templateID": "T-ManyRoute-001",
-            "width": "",
-            "x": "",
-            "y": "",
-            "z": ""
-        },
-        "currentProcess": {
-            "counter": "2",
-            "counterPass": "2",
-            "createOrg": "",
-            "createOrgID": "",
-            "createTime": "2019-09-19 10:57:29",
-            "creater": "小明的妈妈",
-            "createrID": "Mother-01",
-            "currentActivityCode": "汇总结果",
-            "currentActivityID": "A-ManyRoute-004",
-            "currentActivityName": "汇总结果",
-            "futureParticipants": "",
-            "infoComment": "",
-            "isPass": "1",
-            "limitOrgID": "",
-            "limitTime": "2000-01-01 00:00:00",
-            "limitUserID": "",
-            "nextActivityCode": "",
-            "nextActivityID": "",
-            "nextActivityName": "",
-            "nextProcessID": "",
-            "operateDatas": "",
-            "operateFiles": "",
-            "operateOrg": "",
-            "operateOrgID": "",
-            "operateTime": "2019-09-19 10:57:29",
-            "operateTimeLen": "0",
-            "operateType": "",
-            "operateTypeID": "",
-            "operateUser": "小明的妈妈",
-            "operateUserID": "Mother-01",
-            "participants": "",
-            "passType": "",
-            "previousActivityCode": "妈妈是否同意",
-            "previousActivityID": "A-ManyRoute-003",
-            "previousActivityName": "妈妈是否同意",
-            "previousOperateTypeID": "RT003",
-            "previousProcessID": "XFD52585EAB0004138AAF4E4F3CC61089A",
-            "processID": "XFA23D682552DD403B8CD713960BAFDFA7",
-            "processNo": "-1",
-            "serviceDataID": "能玩游戏吗011",
-            "splitProcessID": "XFB0432B54C8D64C2E8BE59CB64F4DC5FF",
-            "summary": "100.0",
-            "summaryPass": "100.0",
-            "templateID": "",
-            "workID": "XF860BE5B05F064B8CBDC22F747BF2F757"
-        },
-        "flow": {
-            "createOrg": "",
-            "createOrgID": "",
-            "createTime": "2019-09-19 10:54:56",
-            "creater": "小明",
-            "createrID": "Children-01",
-            "flowTemplateID": "T-ManyRoute-001",
-            "isDelete": "0",
-            "isValid": "1",
-            "lastOrg": "",
-            "lastOrgID": "",
-            "lastProcessID": "XFA23D682552DD403B8CD713960BAFDFA7",
-            "lastTime": "2019-09-19 10:57:29",
-            "lastUser": "小明的妈妈",
-            "lastUserID": "Mother-01",
-            "processes": "",
-            "serviceDataID": "能玩游戏吗011",
-            "workFatherID": "",
-            "workID": "XF860BE5B05F064B8CBDC22F747BF2F757"
-        },
-        "routes": [
-            {
-                "activity": {
-                    "activityCode": "汇总结果",
-                    "activityID": "A-ManyRoute-004",
-                    "activityName": "汇总结果",
-                    "activityType": {
-                        "activityType": "常规",
-                        "activityTypeID": "AT001",
-                        "infoComment": "",
-                        "orderNo": ""
-                    },
-                    "activityTypeID": "",
-                    "backgroudColor": "",
-                    "counterPass": "2",
-                    "createTime": "",
-                    "creater": "",
-                    "createrID": "",
-                    "flagColor": "",
-                    "fontColor": "",
-                    "height": "",
-                    "iconURL": "",
-                    "infoComment": "",
-                    "lastTime": "",
-                    "lastUser": "",
-                    "lastUserID": "",
-                    "lineColor": "",
-                    "participantByActivitys": "",
-                    "participantByCreater": "",
-                    "participants": "",
-                    "passType": "OR",
-                    "routes": "",
-                    "summaryPass": "100.0",
-                    "templateID": "T-ManyRoute-001",
-                    "width": "",
-                    "x": "",
-                    "y": "",
-                    "z": ""
-                },
-                "activityCode": "汇总结果",
-                "activityID": "A-ManyRoute-004",
-                "activityRouteCode": "执行",
-                "activityRouteID": "AR-ManyRoute-004To005",
-                "activityRouteName": "执行",
-                "conditionMethod": "",
-                "conditionVType": "0",
-                "conditionValue": "",
-                "conditionXJavaID": "",
-                "createTime": "2019-09-11 01:01:01",
-                "creater": "ZhengWei(HY)",
-                "createrID": "UID-00001",
-                "fontColor": "#000000",
-                "infoComment": "",
-                "lastTime": "2019-09-16 15:55:35",
-                "lastUser": "ZhengWei(HY)",
-                "lastUserID": "UID-00001",
-                "lineColor": "#6AB975",
-                "nextActivity": {
-                    "activityCode": "执行结果",
-                    "activityID": "A-ManyRoute-005",
-                    "activityName": "执行结果",
-                    "activityType": {
-                        "activityType": "常规",
-                        "activityTypeID": "AT001",
-                        "infoComment": "",
-                        "orderNo": ""
-                    },
-                    "activityTypeID": "",
-                    "backgroudColor": "",
-                    "counterPass": "0",
-                    "createTime": "",
-                    "creater": "",
-                    "createrID": "",
-                    "flagColor": "",
-                    "fontColor": "",
-                    "height": "",
-                    "iconURL": "",
-                    "infoComment": "",
-                    "lastTime": "",
-                    "lastUser": "",
-                    "lastUserID": "",
-                    "lineColor": "",
-                    "participantByActivitys": "",
-                    "participantByCreater": "",
-                    "participants": "",
-                    "passType": "",
-                    "routes": "",
-                    "summaryPass": "0.0",
-                    "templateID": "T-ManyRoute-001",
-                    "width": "",
-                    "x": "",
-                    "y": "",
-                    "z": ""
-                },
-                "nextActivityCode": "执行结果",
-                "nextActivityID": "A-ManyRoute-005",
-                "participantByCreater": "",
-                "participants": "",
-                "routeType": {
-                    "infoComment": "",
-                    "orderNo": "",
-                    "routeType": "转派",
-                    "routeTypeID": "RT001"
-                },
-                "routeTypeID": "RT001",
-                "templateID": "T-ManyRoute-001"
-            }
-        ],
-        "summarys": [
-            {
-                "counter": "1",
-                "counterPass": "2",
-                "createOrg": "",
-                "createOrgID": "",
-                "createTime": "2019-09-19 10:56:39",
-                "creater": "小明",
-                "createrID": "Children-01",
-                "currentActivityCode": "妈妈是否同意",
-                "currentActivityID": "A-ManyRoute-003",
-                "currentActivityName": "妈妈是否同意",
-                "futureParticipants": "",
-                "infoComment": "要做完作业才能玩",
-                "isPass": "",
-                "limitOrgID": "",
-                "limitTime": "2000-01-01 00:00:00",
-                "limitUserID": "",
-                "nextActivityCode": "汇总结果",
-                "nextActivityID": "A-ManyRoute-004",
-                "nextActivityName": "汇总结果",
-                "nextProcessID": "XFA23D682552DD403B8CD713960BAFDFA7",
-                "operateDatas": "",
-                "operateFiles": "",
-                "operateOrg": "",
-                "operateOrgID": "",
-                "operateTime": "2019-09-19 10:57:29",
-                "operateTimeLen": "0",
-                "operateType": "汇签",
-                "operateTypeID": "RT003",
-                "operateUser": "小明的妈妈",
-                "operateUserID": "Mother-01",
-                "participants": "",
-                "passType": "",
-                "previousActivityCode": "想玩游戏",
-                "previousActivityID": "A-ManyRoute-001",
-                "previousActivityName": "想玩游戏",
-                "previousOperateTypeID": "RT002",
-                "previousProcessID": "XFB0432B54C8D64C2E8BE59CB64F4DC5FF",
-                "processID": "XFD52585EAB0004138AAF4E4F3CC61089A",
-                "processNo": "-1",
-                "serviceDataID": "能玩游戏吗011",
-                "splitProcessID": "XFB0432B54C8D64C2E8BE59CB64F4DC5FF",
-                "summary": "50.0",
-                "summaryPass": "100.0",
-                "templateID": "",
-                "workID": "XF860BE5B05F064B8CBDC22F747BF2F757"
-            },
-            {
-                "counter": "1",
-                "counterPass": "2",
-                "createOrg": "",
-                "createOrgID": "",
-                "createTime": "2019-09-19 10:56:39",
-                "creater": "小明",
-                "createrID": "Children-01",
-                "currentActivityCode": "爸爸是否同意",
-                "currentActivityID": "A-ManyRoute-002",
-                "currentActivityName": "爸爸是否同意",
-                "futureParticipants": "",
-                "infoComment": "要学完英语才能玩",
-                "isPass": "",
-                "limitOrgID": "",
-                "limitTime": "2000-01-01 00:00:00",
-                "limitUserID": "",
-                "nextActivityCode": "汇总结果",
-                "nextActivityID": "A-ManyRoute-004",
-                "nextActivityName": "汇总结果",
-                "nextProcessID": "XF80D2C26601A14393869330E1C74DE991",
-                "operateDatas": "学的快，还有奖励",
-                "operateFiles": "这里是英语资料",
-                "operateOrg": "",
-                "operateOrgID": "",
-                "operateTime": "2019-09-19 10:56:53",
-                "operateTimeLen": "0",
-                "operateType": "汇签",
-                "operateTypeID": "RT003",
-                "operateUser": "小明的爸爸",
-                "operateUserID": "Father-01",
-                "participants": "",
-                "passType": "",
-                "previousActivityCode": "想玩游戏",
-                "previousActivityID": "A-ManyRoute-001",
-                "previousActivityName": "想玩游戏",
-                "previousOperateTypeID": "RT002",
-                "previousProcessID": "XFB0432B54C8D64C2E8BE59CB64F4DC5FF",
-                "processID": "XF2BB9A3E5F7AF456EB5F0E721E79F58EB",
-                "processNo": "-1",
-                "serviceDataID": "能玩游戏吗011",
-                "splitProcessID": "XFB0432B54C8D64C2E8BE59CB64F4DC5FF",
-                "summary": "50.0",
-                "summaryPass": "100.0",
-                "templateID": "",
-                "workID": "XF860BE5B05F064B8CBDC22F747BF2F757"
-            }
-        ]
-    },
-    "encry": "",
-    "format": "",
-    "rc": "0",
-    "result": "true",
-    "ri": "",
-    "serialNo": "2019091911440552137594XFlowWeb",
-    "session": "",
-    "sid": "I002QueryNextRoutes",
-    "sidv": "",
-    "sign": "",
-    "sysid": "xx",
-    "tokenSec": ""
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1966,6 +1639,413 @@
   </si>
   <si>
     <t>2023-02-27新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-04-13新增参与人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "body": {
+        "activitys": [
+            {
+                "counter": "0",
+                "counterPass": "0",
+                "createOrg": "",
+                "createOrgID": "",
+                "createTime": "2023-02-23 09:42:07",
+                "creater": "ZhengWei",
+                "createrID": "ZhengWei",
+                "currentActivityCode": "申请检查",
+                "currentActivityID": "A-S006-001-A001",
+                "currentActivityName": "申请检查",
+                "futureParticipants": "",
+                "infoComment": "",
+                "isPass": "",
+                "limitOrgID": "",
+                "limitTime": "2000-01-01 00:00:00",
+                "limitUserID": "",
+                "nextActivityCode": "检测喷涂工艺,X光探伤",
+                "nextActivityID": "A-S006-001-A002,A-S006-001-A003",
+                "nextActivityName": "检测喷涂工艺,X光探伤",
+                "nextProcessID": "XFE6DEC9736B0B453BBD0BB8640AB951DA,XFFDA08B9EABB7426E919D1379D550EA59",
+                "operateDatas": "",
+                "operateFiles": "",
+                "operateOrg": "",
+                "operateOrgID": "",
+                "operateTime": "2023-02-23 09:43:07",
+                "operateTimeLen": "0",
+                "operateType": "分派",
+                "operateTypeID": "RT002",
+                "operateUser": "ZhengWei",
+                "operateUserID": "ZhengWei",
+                "participants": "",
+                "passType": "",
+                "previousActivityCode": "制造完成",
+                "previousActivityID": "A-S006-001-A000",
+                "previousActivityName": "制造完成",
+                "previousOperateTypeID": "RT001",
+                "previousProcessID": "XF5F8523B1FA6445F9819D5A8621868D0D",
+                "processID": "XFE0317FD6D64447E48BA8994C7A646E3B",
+                "processNo": "-1",
+                "serviceDataID": "202302220003",
+                "splitProcessID": "",
+                "summary": "0.0",
+                "summaryPass": "0.0",
+                "templateID": "",
+                "workID": "XF39AB779496A44C31919CE0DA7E9F8E75"
+            },
+            {
+                "counter": "0",
+                "counterPass": "0",
+                "createOrg": "",
+                "createOrgID": "",
+                "createTime": "2023-02-23 09:41:53",
+                "creater": "ZhengWei",
+                "createrID": "ZhengWei",
+                "currentActivityCode": "制造完成",
+                "currentActivityID": "A-S006-001-A000",
+                "currentActivityName": "制造完成",
+                "futureParticipants": "",
+                "infoComment": "",
+                "isPass": "",
+                "limitOrgID": "",
+                "limitTime": "2000-01-01 00:00:00",
+                "limitUserID": "",
+                "nextActivityCode": "申请检查",
+                "nextActivityID": "A-S006-001-A001",
+                "nextActivityName": "申请检查",
+                "nextProcessID": "XFE0317FD6D64447E48BA8994C7A646E3B",
+                "operateDatas": "",
+                "operateFiles": "",
+                "operateOrg": "",
+                "operateOrgID": "",
+                "operateTime": "2023-02-23 09:42:07",
+                "operateTimeLen": "0",
+                "operateType": "转派",
+                "operateTypeID": "RT001",
+                "operateUser": "ZhengWei",
+                "operateUserID": "ZhengWei",
+                "participants": "",
+                "passType": "",
+                "previousActivityCode": "",
+                "previousActivityID": "",
+                "previousActivityName": "",
+                "previousOperateTypeID": "",
+                "previousProcessID": "",
+                "processID": "XF5F8523B1FA6445F9819D5A8621868D0D",
+                "processNo": "1",
+                "serviceDataID": "202302220003",
+                "splitProcessID": "",
+                "summary": "0.0",
+                "summaryPass": "0.0",
+                "templateID": "",
+                "workID": "XF39AB779496A44C31919CE0DA7E9F8E75"
+            }
+        ],
+        "currentActivity": {
+            "activityCode": "X光探伤",
+            "activityID": "A-S006-001-A003",
+            "activityName": "X光探伤",
+            "activityType": {
+                "activityType": "常规",
+                "activityTypeID": "AT001",
+                "infoComment": "",
+                "orderNo": ""
+            },
+            "activityTypeID": "",
+            "backgroudColor": "",
+            "configPageDatas": "",
+            "configPageURL": "",
+            "counterPass": "0",
+            "createTime": "",
+            "creater": "",
+            "createrID": "",
+            "flagColor": "",
+            "fontColor": "",
+            "height": "",
+            "iconURL": "",
+            "infoComment": "",
+            "lastTime": "",
+            "lastUser": "",
+            "lastUserID": "",
+            "lineColor": "",
+            "participantByActivitys": "",
+            "participantByCreater": "",
+            "participants": "",
+            "passType": "",
+            "routes": "",
+            "summaryPass": "0.0",
+            "templateID": "T-S006-001",
+            "width": "",
+            "x": "",
+            "xrouteConfig": "",
+            "y": "",
+            "z": ""
+        },
+        "currentProcess": {
+            "counter": "0",
+            "counterPass": "0",
+            "createOrg": "",
+            "createOrgID": "",
+            "createTime": "2023-02-23 09:43:07",
+            "creater": "ZhengWei",
+            "createrID": "ZhengWei",
+            "currentActivityCode": "X光探伤",
+            "currentActivityID": "A-S006-001-A003",
+            "currentActivityName": "X光探伤",
+            "futureParticipants": "",
+            "infoComment": "",
+            "isPass": "",
+            "limitOrgID": "",
+            "limitTime": "2000-01-01 00:00:00",
+            "limitUserID": "",
+            "nextActivityCode": "",
+            "nextActivityID": "",
+            "nextActivityName": "",
+            "nextProcessID": "",
+            "operateDatas": "",
+            "operateFiles": "",
+            "operateOrg": "",
+            "operateOrgID": "",
+            "operateTime": "2023-02-23 09:43:07",
+            "operateTimeLen": "0",
+            "operateType": "",
+            "operateTypeID": "",
+            "operateUser": "ZhengWei",
+            "operateUserID": "ZhengWei",
+            "participants": [
+                {
+                    "activityID": "",
+                    "activityRouteID": "",
+                    "createOrg": "",
+                    "createOrgID": "",
+                    "createTime": "",
+                    "creater": "",
+                    "createrID": "",
+                    "objectID": "X光探伤的角色",
+                    "objectName": "X光探伤的角色",
+                    "objectNo": "1",
+                    "objectType": "3",
+                    "participantID": "",
+                    "participantType": "",
+                    "processID": "",
+                    "pwpID": "",
+                    "serviceDataID": "",
+                    "splitProcessID": "",
+                    "templateID": "",
+                    "workID": ""
+                }
+            ],
+            "passType": "",
+            "previousActivityCode": "申请检查",
+            "previousActivityID": "A-S006-001-A001",
+            "previousActivityName": "申请检查",
+            "previousOperateTypeID": "RT002",
+            "previousProcessID": "XFE0317FD6D64447E48BA8994C7A646E3B",
+            "processID": "XFFDA08B9EABB7426E919D1379D550EA59",
+            "processNo": "-1",
+            "serviceDataID": "202302220003",
+            "splitProcessID": "XFE0317FD6D64447E48BA8994C7A646E3B",
+            "summary": "0.0",
+            "summaryPass": "0.0",
+            "templateID": "",
+            "workID": "XF39AB779496A44C31919CE0DA7E9F8E75"
+        },
+        "flow": {
+            "createOrg": "",
+            "createOrgID": "",
+            "createTime": "2023-02-23 09:41:53",
+            "creater": "ZhengWei",
+            "createrID": "ZhengWei",
+            "flowTemplateID": "T-S006-001",
+            "isDelete": "0",
+            "isValid": "1",
+            "lastOrg": "",
+            "lastOrgID": "",
+            "lastProcessID": "XF62149A2FE80145A985AE84AC4E2CB2F7",
+            "lastTime": "2023-02-23 09:44:36",
+            "lastUser": "WangLi",
+            "lastUserID": "WangLi",
+            "processActivityMap": {},
+            "processes": "",
+            "serviceDataID": "202302220003",
+            "workFatherID": "",
+            "workID": "XF39AB779496A44C31919CE0DA7E9F8E75"
+        },
+        "flowParticipants": "",
+        "participantType": "3",
+        "routes": [
+            {
+                "activity": {
+                    "activityCode": "X光探伤",
+                    "activityID": "A-S006-001-A003",
+                    "activityName": "X光探伤",
+                    "activityType": {
+                        "activityType": "常规",
+                        "activityTypeID": "AT001",
+                        "infoComment": "",
+                        "orderNo": ""
+                    },
+                    "activityTypeID": "",
+                    "backgroudColor": "",
+                    "configPageDatas": "",
+                    "configPageURL": "",
+                    "counterPass": "0",
+                    "createTime": "",
+                    "creater": "",
+                    "createrID": "",
+                    "flagColor": "",
+                    "fontColor": "",
+                    "height": "",
+                    "iconURL": "",
+                    "infoComment": "",
+                    "lastTime": "",
+                    "lastUser": "",
+                    "lastUserID": "",
+                    "lineColor": "",
+                    "participantByActivitys": {},
+                    "participantByCreater": "",
+                    "participants": [
+                        {
+                            "activityID": "A-S006-001-A003",
+                            "activityRouteID": "",
+                            "createTime": "2023-02-22 01:01:01",
+                            "creater": "ZhengWei(HY)",
+                            "createrID": "USER-00001",
+                            "objectID": "X光探伤的角色",
+                            "objectName": "X光探伤的角色",
+                            "objectNo": "1",
+                            "objectType": "3",
+                            "participantID": "AP-S006-001-AP003",
+                            "participantType": {
+                                "infoComment": "",
+                                "orderNo": "",
+                                "participantType": "执行角色",
+                                "participantTypeID": "3"
+                            },
+                            "templateID": "T-S006-001"
+                        }
+                    ],
+                    "passType": "",
+                    "routes": "",
+                    "summaryPass": "0.0",
+                    "templateID": "T-S006-001",
+                    "width": "",
+                    "x": "",
+                    "xrouteConfig": "",
+                    "y": "",
+                    "z": ""
+                },
+                "activityCode": "X光探伤",
+                "activityID": "A-S006-001-A003",
+                "activityRouteCode": "R-S006-001-R004",
+                "activityRouteID": "R-S006-001-R004",
+                "activityRouteName": "执行低温的检测",
+                "conditionMethod": "",
+                "conditionVType": "0",
+                "conditionValue": "",
+                "conditionXJavaID": "",
+                "createTime": "2023-02-22 01:01:01",
+                "creater": "ZhengWei(HY)",
+                "createrID": "USER-00001",
+                "fontColor": "#000000",
+                "infoComment": "",
+                "lastTime": "2023-02-22 15:53:21",
+                "lastUser": "ZhengWei(HY)",
+                "lastUserID": "USER-00001",
+                "lineColor": "#6AB975",
+                "nextActivity": {
+                    "activityCode": "低温测试",
+                    "activityID": "A-S006-001-A005",
+                    "activityName": "低温测试",
+                    "activityType": {
+                        "activityType": "常规",
+                        "activityTypeID": "AT001",
+                        "infoComment": "",
+                        "orderNo": ""
+                    },
+                    "activityTypeID": "",
+                    "backgroudColor": "",
+                    "configPageDatas": "",
+                    "configPageURL": "",
+                    "counterPass": "0",
+                    "createTime": "",
+                    "creater": "",
+                    "createrID": "",
+                    "flagColor": "",
+                    "fontColor": "",
+                    "height": "",
+                    "iconURL": "",
+                    "infoComment": "",
+                    "lastTime": "",
+                    "lastUser": "",
+                    "lastUserID": "",
+                    "lineColor": "",
+                    "participantByActivitys": {},
+                    "participantByCreater": "",
+                    "participants": [
+                        {
+                            "activityID": "A-S006-001-A005",
+                            "activityRouteID": "",
+                            "createTime": "2023-02-22 01:01:01",
+                            "creater": "ZhengWei(HY)",
+                            "createrID": "USER-00001",
+                            "objectID": "低温测试的角色",
+                            "objectName": "低温测试的角色",
+                            "objectNo": "1",
+                            "objectType": "3",
+                            "participantID": "AP-S006-001-AP005",
+                            "participantType": {
+                                "infoComment": "",
+                                "orderNo": "",
+                                "participantType": "执行角色",
+                                "participantTypeID": "3"
+                            },
+                            "templateID": "T-S006-001"
+                        }
+                    ],
+                    "passType": "",
+                    "routes": "",
+                    "summaryPass": "0.0",
+                    "templateID": "T-S006-001",
+                    "width": "",
+                    "x": "",
+                    "xrouteConfig": "",
+                    "y": "",
+                    "z": ""
+                },
+                "nextActivityCode": "低温测试",
+                "nextActivityID": "A-S006-001-A005",
+                "participantByActivitys": {},
+                "participantByCreater": "",
+                "participants": "",
+                "routeType": {
+                    "infoComment": "",
+                    "orderNo": "",
+                    "routeType": "转派",
+                    "routeTypeID": "RT001"
+                },
+                "routeTypeID": "RT001",
+                "templateID": "T-S006-001"
+            }
+        ],
+        "summarys": ""
+    },
+    "encry": "",
+    "format": "",
+    "rc": "0",
+    "result": "true",
+    "ri": "",
+    "serialNo": "2023041312161326453668XFlowWeb",
+    "session": "",
+    "sid": "I002QueryNextRoutes",
+    "sidv": "",
+    "sign": "",
+    "sysid": "xx",
+    "tokenSec": ""
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3066,8 +3146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -3480,6 +3560,9 @@
       <c r="F24" s="4" t="s">
         <v>135</v>
       </c>
+      <c r="G24" s="14" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
@@ -3503,13 +3586,13 @@
     </row>
     <row r="26" spans="1:7" ht="108" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>67</v>
@@ -3518,33 +3601,33 @@
         <v>28</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C27" s="11" t="s">
+      <c r="E27" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="F27" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>185</v>
-      </c>
       <c r="G27" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -3654,7 +3737,7 @@
         <v>20</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>163</v>
+        <v>239</v>
       </c>
       <c r="C40" s="19"/>
       <c r="D40" s="19"/>
@@ -3753,6 +3836,7 @@
     <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4006,20 +4090,20 @@
         <v>70</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>196</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>197</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -4027,13 +4111,13 @@
         <v>71</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>198</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>199</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>28</v>
@@ -4046,10 +4130,10 @@
         <v>72</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>67</v>
@@ -4067,10 +4151,10 @@
         <v>73</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>11</v>
@@ -4086,10 +4170,10 @@
         <v>74</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>11</v>
@@ -4105,10 +4189,10 @@
         <v>145</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>68</v>
@@ -4124,20 +4208,20 @@
         <v>146</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="24" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -4145,10 +4229,10 @@
         <v>147</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>11</v>
@@ -4157,7 +4241,7 @@
         <v>13</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G22" s="24"/>
     </row>
@@ -4166,10 +4250,10 @@
         <v>148</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>67</v>
@@ -4187,10 +4271,10 @@
         <v>153</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>11</v>
@@ -4203,13 +4287,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>11</v>
@@ -4222,13 +4306,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>68</v>
@@ -4241,7 +4325,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>149</v>
@@ -4261,7 +4345,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>150</v>
@@ -4279,7 +4363,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>151</v>
@@ -4297,7 +4381,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>152</v>
@@ -4315,7 +4399,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>154</v>
@@ -4416,7 +4500,7 @@
         <v>75</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>28</v>
@@ -4430,7 +4514,7 @@
         <v>41</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>76</v>
@@ -4466,7 +4550,7 @@
         <v>19</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C41" s="19"/>
       <c r="D41" s="19"/>
@@ -4550,7 +4634,7 @@
         <v>20</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C51" s="19"/>
       <c r="D51" s="19"/>
@@ -4662,7 +4746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3278FDE-6B63-43E5-A321-F3968BFA17E0}">
   <dimension ref="A1:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
@@ -4682,14 +4766,14 @@
         <v>0</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
       <c r="E1" s="19"/>
       <c r="F1" s="19"/>
       <c r="G1" s="25" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -4697,7 +4781,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
@@ -4723,7 +4807,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
@@ -4916,22 +5000,22 @@
         <v>70</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="E15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="G15" s="14" t="s">
         <v>237</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -4939,20 +5023,20 @@
         <v>71</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>225</v>
-      </c>
       <c r="D16" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -4960,13 +5044,13 @@
         <v>72</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>198</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>199</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>28</v>
@@ -4979,10 +5063,10 @@
         <v>73</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>67</v>
@@ -5000,10 +5084,10 @@
         <v>74</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>11</v>
@@ -5019,10 +5103,10 @@
         <v>145</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>11</v>
@@ -5038,10 +5122,10 @@
         <v>146</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>68</v>
@@ -5057,20 +5141,20 @@
         <v>147</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="24" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -5078,10 +5162,10 @@
         <v>148</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>11</v>
@@ -5090,7 +5174,7 @@
         <v>13</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G23" s="24"/>
     </row>
@@ -5099,10 +5183,10 @@
         <v>153</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>67</v>
@@ -5117,13 +5201,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>11</v>
@@ -5136,13 +5220,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>11</v>
@@ -5155,13 +5239,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>68</v>
@@ -5174,7 +5258,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>151</v>
@@ -5192,7 +5276,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>152</v>
@@ -5210,7 +5294,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>154</v>
@@ -5325,7 +5409,7 @@
         <v>41</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>76</v>
@@ -5361,7 +5445,7 @@
         <v>19</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C40" s="19"/>
       <c r="D40" s="19"/>
@@ -5445,7 +5529,7 @@
         <v>20</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C50" s="19"/>
       <c r="D50" s="19"/>
@@ -5526,6 +5610,8 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="G1:G4"/>
@@ -5541,8 +5627,6 @@
     <mergeCell ref="B40:F49"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/doc/工作流接口说明.xlsx
+++ b/doc/工作流接口说明.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\XFlowWeb\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79C8AAE9-7C2A-4C83-8AD5-12BB2BA83625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD4A844-A315-42D5-BA36-7B114DD995AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="983" yWindow="-98" windowWidth="27915" windowHeight="16395" tabRatio="757" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="983" yWindow="-98" windowWidth="27915" windowHeight="16395" tabRatio="757" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="创建工作流实例" sheetId="1" r:id="rId1"/>
-    <sheet name="查询可走路由" sheetId="4" r:id="rId2"/>
-    <sheet name="工作流流转" sheetId="5" r:id="rId3"/>
-    <sheet name="工作流流转 (自由驳回)" sheetId="11" r:id="rId4"/>
-    <sheet name="待办查询（工作流实例ID）" sheetId="6" r:id="rId5"/>
-    <sheet name="待办查询（业务数据ID）" sheetId="7" r:id="rId6"/>
-    <sheet name="已办查询（工作流实例ID）" sheetId="8" r:id="rId7"/>
-    <sheet name="已办查询（业务数据ID）" sheetId="9" r:id="rId8"/>
-    <sheet name="查询汇总情况" sheetId="10" r:id="rId9"/>
+    <sheet name="加载&amp;更新模板" sheetId="12" r:id="rId1"/>
+    <sheet name="创建工作流实例" sheetId="1" r:id="rId2"/>
+    <sheet name="查询可走路由" sheetId="4" r:id="rId3"/>
+    <sheet name="工作流流转" sheetId="5" r:id="rId4"/>
+    <sheet name="工作流流转 (自由驳回)" sheetId="11" r:id="rId5"/>
+    <sheet name="待办查询（工作流实例ID）" sheetId="6" r:id="rId6"/>
+    <sheet name="待办查询（业务数据ID）" sheetId="7" r:id="rId7"/>
+    <sheet name="已办查询（工作流实例ID）" sheetId="8" r:id="rId8"/>
+    <sheet name="已办查询（业务数据ID）" sheetId="9" r:id="rId9"/>
+    <sheet name="查询汇总情况" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="247">
   <si>
     <t>接口名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2048,6 +2049,69 @@
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>I000RefreshTemplate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "body": {
+        "activityRouteTree": "",
+        "createTime": "2023-02-22 01:01:01",
+        "creater": "ZhengWei(HY)",
+        "createrID": "USER-00001",
+        "infoComment": "自由驳回（多路）流程模板",
+        "isDelete": "0",
+        "isValid": "1",
+        "lastTime": "2023-02-22 01:01:01",
+        "lastUser": "ZhengWei(HY)",
+        "lastUserID": "USER-00001",
+        "templateID": "T-S006-001",
+        "templateName": "自由驳回（多路）",
+        "version": "1.0.0",
+        "versionNo": "1"
+    },
+    "encry": "",
+    "format": "",
+    "rc": "0",
+    "result": "true",
+    "ri": "",
+    "serialNo": "2023041410324448296828XFlowWeb",
+    "session": "",
+    "sid": "I000RefreshTemplate",
+    "sidv": "",
+    "sign": "",
+    "sysid": "xx",
+    "tokenSec": ""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "sysid": "xx",
+    "sid": "I000RefreshTemplate",
+    "body": {
+        "templateName": "自由驳回（多路）"
+    }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作流模板信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Template</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载&amp;更新工作流模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-04-13新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2255,17 +2319,17 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2562,6 +2626,964 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01DA82B-B424-4079-9506-2924CF07BB51}">
+  <dimension ref="A1:G36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.86328125" customWidth="1"/>
+    <col min="3" max="3" width="27.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.86328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.59765625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.73046875" customWidth="1"/>
+    <col min="7" max="7" width="20.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="25" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="25"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="25"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="25"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+    </row>
+    <row r="17" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="19"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="19"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="19"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="19"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="19"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="19"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="19"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="19"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="19"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+    </row>
+    <row r="27" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="19"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="19"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="19"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="19"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="19"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="19"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="19"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="19"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="19"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A17:A26"/>
+    <mergeCell ref="B17:F26"/>
+    <mergeCell ref="A27:A36"/>
+    <mergeCell ref="B27:F36"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A9:F9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{C5DA24B8-02C0-4A42-96C2-45C625260078}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:F41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.86328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.59765625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22.73046875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="22"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="19"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="19"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="19"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="19"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="19"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="19"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="19"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="19"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="19"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="19"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="19"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="19"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="19"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="19"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="19"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="19"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="19"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="19"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A22:A31"/>
+    <mergeCell ref="B22:F31"/>
+    <mergeCell ref="A32:A41"/>
+    <mergeCell ref="B32:F41"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F44"/>
   <sheetViews>
@@ -2583,47 +3605,47 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
@@ -2952,186 +3974,186 @@
       <c r="F24" s="16"/>
     </row>
     <row r="25" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="17"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="17"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="17"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="17"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="17"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="17"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="17"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="17"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
     </row>
     <row r="35" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="17"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="17"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="17"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="17"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="17"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
+      <c r="A40" s="19"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="17"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
+      <c r="A41" s="19"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="17"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
+      <c r="A42" s="19"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="17"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
+      <c r="A43" s="19"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="17"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
+      <c r="A44" s="19"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A25:A34"/>
+    <mergeCell ref="B25:F34"/>
+    <mergeCell ref="A35:A44"/>
+    <mergeCell ref="B35:F44"/>
     <mergeCell ref="A17:F17"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A25:A34"/>
-    <mergeCell ref="B25:F34"/>
-    <mergeCell ref="A35:A44"/>
-    <mergeCell ref="B35:F44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -3142,12 +4164,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -3165,47 +4187,47 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
@@ -3649,175 +4671,180 @@
       <c r="F29" s="16"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="17"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="17"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="17"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="17"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="17"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="17"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="17"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="17"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="17"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="17"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
+      <c r="A41" s="19"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="17"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
+      <c r="A42" s="19"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="17"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
+      <c r="A43" s="19"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="17"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
+      <c r="A44" s="19"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="17"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
+      <c r="A45" s="19"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="17"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
+      <c r="A46" s="19"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="17"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
+      <c r="A47" s="19"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="17"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
+      <c r="A48" s="19"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="17"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
+      <c r="A49" s="19"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A30:A39"/>
+    <mergeCell ref="B30:F39"/>
+    <mergeCell ref="A40:A49"/>
+    <mergeCell ref="B40:F49"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="B1:F1"/>
@@ -3825,11 +4852,6 @@
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A30:A39"/>
-    <mergeCell ref="B30:F39"/>
-    <mergeCell ref="A40:A49"/>
-    <mergeCell ref="B40:F49"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -3840,7 +4862,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G60"/>
   <sheetViews>
@@ -3863,47 +4885,47 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
@@ -4546,175 +5568,185 @@
       <c r="F40" s="16"/>
     </row>
     <row r="41" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="17" t="s">
+      <c r="A41" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="17"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
+      <c r="A42" s="19"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="17"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
+      <c r="A43" s="19"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="17"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
+      <c r="A44" s="19"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="17"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
+      <c r="A45" s="19"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="17"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
+      <c r="A46" s="19"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="17"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
+      <c r="A47" s="19"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="17"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
+      <c r="A48" s="19"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="17"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
+      <c r="A49" s="19"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="17"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
+      <c r="A50" s="19"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
     </row>
     <row r="51" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="17" t="s">
+      <c r="A51" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="17"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
+      <c r="A52" s="19"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="17"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
+      <c r="A53" s="19"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="17"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
+      <c r="A54" s="19"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="17"/>
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
+      <c r="A55" s="19"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="17"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
+      <c r="A56" s="19"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="17"/>
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
+      <c r="A57" s="19"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="17"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
+      <c r="A58" s="19"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="17"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
+      <c r="A59" s="19"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="17"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
+      <c r="A60" s="19"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A41:A50"/>
+    <mergeCell ref="B41:F50"/>
+    <mergeCell ref="A51:A60"/>
+    <mergeCell ref="B51:F60"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="G15:G20"/>
     <mergeCell ref="G21:G26"/>
     <mergeCell ref="A33:F33"/>
@@ -4722,16 +5754,6 @@
     <mergeCell ref="F23:F24"/>
     <mergeCell ref="F27:F28"/>
     <mergeCell ref="F17:F18"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="A41:A50"/>
-    <mergeCell ref="B41:F50"/>
-    <mergeCell ref="A51:A60"/>
-    <mergeCell ref="B51:F60"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4742,7 +5764,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3278FDE-6B63-43E5-A321-F3968BFA17E0}">
   <dimension ref="A1:G59"/>
   <sheetViews>
@@ -4765,13 +5787,13 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
       <c r="G1" s="25" t="s">
         <v>235</v>
       </c>
@@ -4780,39 +5802,39 @@
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
       <c r="G2" s="25"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
       <c r="G3" s="25"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
       <c r="G4" s="25"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -5441,180 +6463,175 @@
       <c r="F39" s="16"/>
     </row>
     <row r="40" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="17"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
+      <c r="A41" s="19"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="17"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
+      <c r="A42" s="19"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="17"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
+      <c r="A43" s="19"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="17"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
+      <c r="A44" s="19"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="17"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
+      <c r="A45" s="19"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="17"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
+      <c r="A46" s="19"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="17"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
+      <c r="A47" s="19"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="17"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
+      <c r="A48" s="19"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="17"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
+      <c r="A49" s="19"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
     </row>
     <row r="50" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="17" t="s">
+      <c r="A50" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="17"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
+      <c r="A51" s="19"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="17"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
+      <c r="A52" s="19"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="17"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
+      <c r="A53" s="19"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="17"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
+      <c r="A54" s="19"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="17"/>
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
+      <c r="A55" s="19"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="17"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
+      <c r="A56" s="19"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="17"/>
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
+      <c r="A57" s="19"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="17"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
+      <c r="A58" s="19"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="17"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
+      <c r="A59" s="19"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G1:G4"/>
     <mergeCell ref="A50:A59"/>
     <mergeCell ref="B50:F59"/>
     <mergeCell ref="G16:G21"/>
@@ -5625,6 +6642,11 @@
     <mergeCell ref="A39:F39"/>
     <mergeCell ref="A40:A49"/>
     <mergeCell ref="B40:F49"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G1:G4"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
   </mergeCells>
@@ -5637,7 +6659,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F41"/>
   <sheetViews>
@@ -5659,47 +6681,47 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
@@ -5974,186 +6996,186 @@
       <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="17"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="17"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="17"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="17"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="17"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
     </row>
     <row r="32" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="17"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="17"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="17"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="17"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="17"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="17"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="17"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="17"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
+      <c r="A40" s="19"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="17"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
+      <c r="A41" s="19"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A22:A31"/>
+    <mergeCell ref="B22:F31"/>
+    <mergeCell ref="A32:A41"/>
+    <mergeCell ref="B32:F41"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A22:A31"/>
-    <mergeCell ref="B22:F31"/>
-    <mergeCell ref="A32:A41"/>
-    <mergeCell ref="B32:F41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -6163,7 +7185,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F41"/>
   <sheetViews>
@@ -6185,47 +7207,47 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
@@ -6500,186 +7522,186 @@
       <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="17"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="17"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="17"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="17"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="17"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
     </row>
     <row r="32" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="17"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="17"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="17"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="17"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="17"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="17"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="17"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="17"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
+      <c r="A40" s="19"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="17"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
+      <c r="A41" s="19"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A22:A31"/>
+    <mergeCell ref="B22:F31"/>
+    <mergeCell ref="A32:A41"/>
+    <mergeCell ref="B32:F41"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A22:A31"/>
-    <mergeCell ref="B22:F31"/>
-    <mergeCell ref="A32:A41"/>
-    <mergeCell ref="B32:F41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -6689,7 +7711,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F37"/>
   <sheetViews>
@@ -6711,47 +7733,47 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
@@ -6950,186 +7972,186 @@
       <c r="F17" s="16"/>
     </row>
     <row r="18" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="17"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="17"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
     </row>
     <row r="28" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="17"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="17"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="17"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="17"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="17"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="17"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="17"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="17"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="17"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A18:A27"/>
-    <mergeCell ref="B18:F27"/>
-    <mergeCell ref="A28:A37"/>
-    <mergeCell ref="B28:F37"/>
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A18:A27"/>
+    <mergeCell ref="B18:F27"/>
+    <mergeCell ref="A28:A37"/>
+    <mergeCell ref="B28:F37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -7139,7 +8161,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F37"/>
   <sheetViews>
@@ -7161,47 +8183,47 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
@@ -7400,186 +8422,186 @@
       <c r="F17" s="16"/>
     </row>
     <row r="18" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="17"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="17"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
     </row>
     <row r="28" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="17"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="17"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="17"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="17"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="17"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="17"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="17"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="17"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="17"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A18:A27"/>
-    <mergeCell ref="B18:F27"/>
-    <mergeCell ref="A28:A37"/>
-    <mergeCell ref="B28:F37"/>
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A18:A27"/>
+    <mergeCell ref="B18:F27"/>
+    <mergeCell ref="A28:A37"/>
+    <mergeCell ref="B28:F37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -7587,531 +8609,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:F41"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.3984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.86328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.59765625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="22.73046875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="22"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="17"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="17"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="17"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="17"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="17"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="17"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="17"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="17"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="17"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="17"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="17"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="17"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="17"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="17"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-    </row>
-  </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A22:A31"/>
-    <mergeCell ref="B22:F31"/>
-    <mergeCell ref="A32:A41"/>
-    <mergeCell ref="B32:F41"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/doc/工作流接口说明.xlsx
+++ b/doc/工作流接口说明.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\XFlowWeb\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD4A844-A315-42D5-BA36-7B114DD995AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6C3F89-6C3F-46AB-8429-30149F9507A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="983" yWindow="-98" windowWidth="27915" windowHeight="16395" tabRatio="757" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="983" yWindow="-98" windowWidth="27915" windowHeight="16395" tabRatio="855" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="加载&amp;更新模板" sheetId="12" r:id="rId1"/>
@@ -18,11 +18,13 @@
     <sheet name="查询可走路由" sheetId="4" r:id="rId3"/>
     <sheet name="工作流流转" sheetId="5" r:id="rId4"/>
     <sheet name="工作流流转 (自由驳回)" sheetId="11" r:id="rId5"/>
-    <sheet name="待办查询（工作流实例ID）" sheetId="6" r:id="rId6"/>
-    <sheet name="待办查询（业务数据ID）" sheetId="7" r:id="rId7"/>
-    <sheet name="已办查询（工作流实例ID）" sheetId="8" r:id="rId8"/>
-    <sheet name="已办查询（业务数据ID）" sheetId="9" r:id="rId9"/>
-    <sheet name="查询汇总情况" sheetId="10" r:id="rId10"/>
+    <sheet name="待办查询（实例ID）" sheetId="6" r:id="rId6"/>
+    <sheet name="待办查询（业务ID）" sheetId="7" r:id="rId7"/>
+    <sheet name="已办查询（实例ID）" sheetId="8" r:id="rId8"/>
+    <sheet name="已办查询（业务ID）" sheetId="9" r:id="rId9"/>
+    <sheet name="督办查询（实例ID）" sheetId="13" r:id="rId10"/>
+    <sheet name="督办查询（业务ID）" sheetId="14" r:id="rId11"/>
+    <sheet name="查询汇总情况" sheetId="10" r:id="rId12"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="256">
   <si>
     <t>接口名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2112,6 +2114,104 @@
     <t>2023-04-13新增</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>I009QuerySuperviseWorkIDs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取用户督办（抄送的）的工作流实例ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "sysid": "xx",
+    "sid": "I009QuerySuperviseWorkIDs",
+    "body": {
+        "user": {
+            "userID": "8a81b2b54b7b391b014b7d143a7400fe",
+            "userName": "公用选型负责人",
+            "roles": [
+                {
+                    "roleID": "002",
+                    "roleName": "选型负责人"
+                }
+            ]
+        }
+    }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "body" : [
+    "A1DB6515B82841A182C76C6013DCEC0E"
+  ],
+  "encry" : "",
+  "format" : "",
+  "rc" : "0",
+  "result" : "true",
+  "ri" : "",
+  "serialNo" : "2018051811263621127906XFlowWeb",
+  "session" : "",
+  "sid" : "I009QuerySuperviseWorkIDs",
+  "sidv" : "",
+  "sign" : "",
+  "sysid" : "xx",
+  "tokenSec" : ""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I010QuerySuperviseServiceDataIDs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取用户督办（抄送的）的工作流业务ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "sysid": "xx",
+    "sid": "I010QuerySuperviseServiceDataIDs",
+    "body": {
+        "user": {
+            "userID": "8a81b2b54b7b391b014b7d143a7400fe",
+            "userName": "公用选型负责人",
+            "roles": [
+                {
+                    "roleID": "002",
+                    "roleName": "选型负责人"
+                }
+            ]
+        }
+    }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "body" : [
+    "A1DB6515B82841A182C76C6013DCEC0E"
+  ],
+  "encry" : "",
+  "format" : "",
+  "rc" : "0",
+  "result" : "true",
+  "ri" : "",
+  "serialNo" : "I010QuerySuperviseServiceDataIDs",
+  "session" : "",
+  "sid" : "I009QuerySuperviseWorkIDs",
+  "sidv" : "",
+  "sign" : "",
+  "sysid" : "xx",
+  "tokenSec" : ""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-06-01新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2319,17 +2419,20 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2341,9 +2444,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2629,8 +2729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01DA82B-B424-4079-9506-2924CF07BB51}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2648,14 +2748,14 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="25" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="20" t="s">
         <v>246</v>
       </c>
     </row>
@@ -2663,38 +2763,38 @@
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="25"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="20"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="25"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="20"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="25"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
@@ -2865,187 +2965,187 @@
       <c r="F16" s="16"/>
     </row>
     <row r="17" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="19"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="19"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="19"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="19"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="19"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="19"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="19"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="19"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
     </row>
     <row r="27" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="19"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="19"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="19"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="19"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="19"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="19"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="19"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="19"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="19"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="A17:A26"/>
     <mergeCell ref="B17:F26"/>
     <mergeCell ref="A27:A36"/>
     <mergeCell ref="B27:F36"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A9:F9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -3057,6 +3157,1074 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CE03A0E-E3F8-4ED1-846E-BA7AE95ADDB5}">
+  <dimension ref="A1:G41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.86328125" customWidth="1"/>
+    <col min="3" max="3" width="27.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.86328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.59765625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.73046875" customWidth="1"/>
+    <col min="7" max="7" width="20.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="20" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="20"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="20"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+    </row>
+    <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="17"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="17"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="17"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="17"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="17"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="17"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="17"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="17"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="17"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+    </row>
+    <row r="32" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="17"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="17"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="17"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="17"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="17"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="17"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="17"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="17"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="17"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A22:A31"/>
+    <mergeCell ref="B22:F31"/>
+    <mergeCell ref="A32:A41"/>
+    <mergeCell ref="B32:F41"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A14:F14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{ABB6FA11-1219-4B43-AA36-B47DAFA8BF93}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E810B7D2-3830-4977-A4F4-E1F706B35754}">
+  <dimension ref="A1:G41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.86328125" customWidth="1"/>
+    <col min="3" max="3" width="27.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.86328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.59765625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.73046875" customWidth="1"/>
+    <col min="7" max="7" width="20.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="20" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="20"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="20"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+    </row>
+    <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="17"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="17"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="17"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="17"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="17"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="17"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="17"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="17"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="17"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+    </row>
+    <row r="32" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="17"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="17"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="17"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="17"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="17"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="17"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="17"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="17"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="17"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A22:A31"/>
+    <mergeCell ref="B22:F31"/>
+    <mergeCell ref="A32:A41"/>
+    <mergeCell ref="B32:F41"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A14:F14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{ED7C86BF-0D8E-43B7-AA37-B4D30287C8B4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F41"/>
   <sheetViews>
@@ -3078,47 +4246,47 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
@@ -3166,7 +4334,7 @@
       <c r="E7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="22" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3186,7 +4354,7 @@
       <c r="E8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="22"/>
+      <c r="F8" s="23"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
@@ -3393,187 +4561,187 @@
       <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="19"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="19"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="19"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="19"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="19"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="19"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="19"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="19"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="19"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="19"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="19"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="19"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="19"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="19"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="19"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="19"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="19"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="19"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="A22:A31"/>
     <mergeCell ref="B22:F31"/>
     <mergeCell ref="A32:A41"/>
     <mergeCell ref="B32:F41"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -3605,47 +4773,47 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
@@ -3974,186 +5142,186 @@
       <c r="F24" s="16"/>
     </row>
     <row r="25" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="19"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="19"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="19"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="19"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="19"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="19"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="19"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="19"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="19"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
     </row>
     <row r="35" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="19"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="19"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="19"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="19"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="19"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="19"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="19"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="19"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
+      <c r="A43" s="17"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="19"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
+      <c r="A44" s="17"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A25:A34"/>
-    <mergeCell ref="B25:F34"/>
-    <mergeCell ref="A35:A44"/>
-    <mergeCell ref="B35:F44"/>
     <mergeCell ref="A17:F17"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B2:F2"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A25:A34"/>
+    <mergeCell ref="B25:F34"/>
+    <mergeCell ref="A35:A44"/>
+    <mergeCell ref="B35:F44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4187,47 +5355,47 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
@@ -4387,7 +5555,7 @@
       <c r="E13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="22" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4407,7 +5575,7 @@
       <c r="E14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="22"/>
+      <c r="F14" s="23"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
@@ -4671,180 +5839,175 @@
       <c r="F29" s="16"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="19"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="19"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="19"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="19"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="19"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="19"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="19"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="19"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="19"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="19" t="s">
+      <c r="A40" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="19"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="19"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="19"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
+      <c r="A43" s="17"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="19"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
+      <c r="A44" s="17"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="19"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
+      <c r="A45" s="17"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="19"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
+      <c r="A46" s="17"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="19"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
+      <c r="A47" s="17"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="19"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
+      <c r="A48" s="17"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="19"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
+      <c r="A49" s="17"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A30:A39"/>
-    <mergeCell ref="B30:F39"/>
-    <mergeCell ref="A40:A49"/>
-    <mergeCell ref="B40:F49"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="B1:F1"/>
@@ -4852,6 +6015,11 @@
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A30:A39"/>
+    <mergeCell ref="B30:F39"/>
+    <mergeCell ref="A40:A49"/>
+    <mergeCell ref="B40:F49"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4885,47 +6053,47 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
@@ -5085,7 +6253,7 @@
       <c r="E13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="22" t="s">
         <v>60</v>
       </c>
     </row>
@@ -5105,7 +6273,7 @@
       <c r="E14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="22"/>
+      <c r="F14" s="23"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -5124,7 +6292,7 @@
         <v>13</v>
       </c>
       <c r="F15" s="10"/>
-      <c r="G15" s="23" t="s">
+      <c r="G15" s="24" t="s">
         <v>222</v>
       </c>
     </row>
@@ -5145,7 +6313,7 @@
         <v>28</v>
       </c>
       <c r="F16" s="10"/>
-      <c r="G16" s="23"/>
+      <c r="G16" s="24"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
@@ -5163,10 +6331,10 @@
       <c r="E17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="F17" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="G17" s="23"/>
+      <c r="G17" s="24"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
@@ -5184,8 +6352,8 @@
       <c r="E18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="22"/>
-      <c r="G18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="24"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
@@ -5204,7 +6372,7 @@
         <v>28</v>
       </c>
       <c r="F19" s="10"/>
-      <c r="G19" s="23"/>
+      <c r="G19" s="24"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
@@ -5223,7 +6391,7 @@
         <v>28</v>
       </c>
       <c r="F20" s="10"/>
-      <c r="G20" s="23"/>
+      <c r="G20" s="24"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
@@ -5242,7 +6410,7 @@
         <v>13</v>
       </c>
       <c r="F21" s="10"/>
-      <c r="G21" s="24" t="s">
+      <c r="G21" s="25" t="s">
         <v>222</v>
       </c>
     </row>
@@ -5265,7 +6433,7 @@
       <c r="F22" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="G22" s="24"/>
+      <c r="G22" s="25"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
@@ -5283,10 +6451,10 @@
       <c r="E23" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="F23" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="G23" s="24"/>
+      <c r="G23" s="25"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
@@ -5304,8 +6472,8 @@
       <c r="E24" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="22"/>
-      <c r="G24" s="24"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="25"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
@@ -5324,7 +6492,7 @@
         <v>28</v>
       </c>
       <c r="F25" s="10"/>
-      <c r="G25" s="24"/>
+      <c r="G25" s="25"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
@@ -5343,7 +6511,7 @@
         <v>28</v>
       </c>
       <c r="F26" s="10"/>
-      <c r="G26" s="24"/>
+      <c r="G26" s="25"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
@@ -5361,7 +6529,7 @@
       <c r="E27" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="21" t="s">
+      <c r="F27" s="22" t="s">
         <v>161</v>
       </c>
     </row>
@@ -5381,7 +6549,7 @@
       <c r="E28" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="22"/>
+      <c r="F28" s="23"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
@@ -5568,185 +6736,175 @@
       <c r="F40" s="16"/>
     </row>
     <row r="41" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="19"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="19"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
+      <c r="A43" s="17"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="19"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
+      <c r="A44" s="17"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="19"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
+      <c r="A45" s="17"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="19"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
+      <c r="A46" s="17"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="19"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
+      <c r="A47" s="17"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="19"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
+      <c r="A48" s="17"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="19"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
+      <c r="A49" s="17"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="19"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
+      <c r="A50" s="17"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
     </row>
     <row r="51" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="19" t="s">
+      <c r="A51" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B51" s="20" t="s">
+      <c r="B51" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="19"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
+      <c r="A52" s="17"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="19"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
+      <c r="A53" s="17"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="19"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
+      <c r="A54" s="17"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="19"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
+      <c r="A55" s="17"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="19"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
+      <c r="A56" s="17"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="19"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
+      <c r="A57" s="17"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="19"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
+      <c r="A58" s="17"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="19"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
+      <c r="A59" s="17"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="19"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
+      <c r="A60" s="17"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="A41:A50"/>
-    <mergeCell ref="B41:F50"/>
-    <mergeCell ref="A51:A60"/>
-    <mergeCell ref="B51:F60"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
     <mergeCell ref="G15:G20"/>
     <mergeCell ref="G21:G26"/>
     <mergeCell ref="A33:F33"/>
@@ -5754,6 +6912,16 @@
     <mergeCell ref="F23:F24"/>
     <mergeCell ref="F27:F28"/>
     <mergeCell ref="F17:F18"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A41:A50"/>
+    <mergeCell ref="B41:F50"/>
+    <mergeCell ref="A51:A60"/>
+    <mergeCell ref="B51:F60"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -5769,7 +6937,7 @@
   <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -5787,14 +6955,14 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="25" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="20" t="s">
         <v>235</v>
       </c>
     </row>
@@ -5802,40 +6970,40 @@
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="25"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="20"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="25"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="20"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="25"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
@@ -5995,7 +7163,7 @@
       <c r="E13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="22" t="s">
         <v>60</v>
       </c>
     </row>
@@ -6015,7 +7183,7 @@
       <c r="E14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="22"/>
+      <c r="F14" s="23"/>
     </row>
     <row r="15" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -6057,7 +7225,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="10"/>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="24" t="s">
         <v>222</v>
       </c>
     </row>
@@ -6078,7 +7246,7 @@
         <v>28</v>
       </c>
       <c r="F17" s="10"/>
-      <c r="G17" s="23"/>
+      <c r="G17" s="24"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
@@ -6096,10 +7264,10 @@
       <c r="E18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="F18" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="G18" s="23"/>
+      <c r="G18" s="24"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
@@ -6117,8 +7285,8 @@
       <c r="E19" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="22"/>
-      <c r="G19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="24"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
@@ -6137,7 +7305,7 @@
         <v>28</v>
       </c>
       <c r="F20" s="10"/>
-      <c r="G20" s="23"/>
+      <c r="G20" s="24"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
@@ -6156,7 +7324,7 @@
         <v>28</v>
       </c>
       <c r="F21" s="10"/>
-      <c r="G21" s="23"/>
+      <c r="G21" s="24"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
@@ -6175,7 +7343,7 @@
         <v>13</v>
       </c>
       <c r="F22" s="10"/>
-      <c r="G22" s="24" t="s">
+      <c r="G22" s="25" t="s">
         <v>222</v>
       </c>
     </row>
@@ -6198,7 +7366,7 @@
       <c r="F23" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="G23" s="24"/>
+      <c r="G23" s="25"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
@@ -6216,10 +7384,10 @@
       <c r="E24" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="F24" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="G24" s="24"/>
+      <c r="G24" s="25"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
@@ -6237,8 +7405,8 @@
       <c r="E25" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="22"/>
-      <c r="G25" s="24"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="25"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
@@ -6257,7 +7425,7 @@
         <v>28</v>
       </c>
       <c r="F26" s="10"/>
-      <c r="G26" s="24"/>
+      <c r="G26" s="25"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
@@ -6276,7 +7444,7 @@
         <v>28</v>
       </c>
       <c r="F27" s="10"/>
-      <c r="G27" s="24"/>
+      <c r="G27" s="25"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
@@ -6463,175 +7631,182 @@
       <c r="F39" s="16"/>
     </row>
     <row r="40" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="19" t="s">
+      <c r="A40" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="19"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="19"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="19"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
+      <c r="A43" s="17"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="19"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
+      <c r="A44" s="17"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="19"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
+      <c r="A45" s="17"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="19"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
+      <c r="A46" s="17"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="19"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
+      <c r="A47" s="17"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="19"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
+      <c r="A48" s="17"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="19"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
+      <c r="A49" s="17"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
     </row>
     <row r="50" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="19" t="s">
+      <c r="A50" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B50" s="20" t="s">
+      <c r="B50" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="19"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
+      <c r="A51" s="17"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="19"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
+      <c r="A52" s="17"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="19"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
+      <c r="A53" s="17"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="19"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
+      <c r="A54" s="17"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="19"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
+      <c r="A55" s="17"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="19"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
+      <c r="A56" s="17"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="19"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
+      <c r="A57" s="17"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="19"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
+      <c r="A58" s="17"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="19"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
+      <c r="A59" s="17"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
     <mergeCell ref="A50:A59"/>
     <mergeCell ref="B50:F59"/>
     <mergeCell ref="G16:G21"/>
@@ -6642,13 +7817,6 @@
     <mergeCell ref="A39:F39"/>
     <mergeCell ref="A40:A49"/>
     <mergeCell ref="B40:F49"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -6664,7 +7832,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -6681,47 +7849,47 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
@@ -6996,186 +8164,186 @@
       <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="19"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="19"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="19"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="19"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="19"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="19"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="19"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="19"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="19"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
     </row>
     <row r="32" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="19"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="19"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="19"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="19"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="19"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="19"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="19"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="19"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="19"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A22:A31"/>
-    <mergeCell ref="B22:F31"/>
-    <mergeCell ref="A32:A41"/>
-    <mergeCell ref="B32:F41"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A22:A31"/>
+    <mergeCell ref="B22:F31"/>
+    <mergeCell ref="A32:A41"/>
+    <mergeCell ref="B32:F41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -7190,7 +8358,7 @@
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -7207,47 +8375,47 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
@@ -7522,186 +8690,186 @@
       <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="19"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="19"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="19"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="19"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="19"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="19"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="19"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="19"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="19"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
     </row>
     <row r="32" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="19"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="19"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="19"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="19"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="19"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="19"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="19"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="19"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="19"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A22:A31"/>
-    <mergeCell ref="B22:F31"/>
-    <mergeCell ref="A32:A41"/>
-    <mergeCell ref="B32:F41"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A22:A31"/>
+    <mergeCell ref="B22:F31"/>
+    <mergeCell ref="A32:A41"/>
+    <mergeCell ref="B32:F41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -7733,47 +8901,47 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
@@ -7972,186 +9140,186 @@
       <c r="F17" s="16"/>
     </row>
     <row r="18" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="19"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="19"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="19"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="19"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="19"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="19"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="19"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="19"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
     </row>
     <row r="28" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="19"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="19"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="19"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="19"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="19"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="19"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="19"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="19"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="19"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A18:A27"/>
+    <mergeCell ref="B18:F27"/>
+    <mergeCell ref="A28:A37"/>
+    <mergeCell ref="B28:F37"/>
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A18:A27"/>
-    <mergeCell ref="B18:F27"/>
-    <mergeCell ref="A28:A37"/>
-    <mergeCell ref="B28:F37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -8183,47 +9351,47 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
@@ -8422,186 +9590,186 @@
       <c r="F17" s="16"/>
     </row>
     <row r="18" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="19"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="19"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="19"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="19"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="19"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="19"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="19"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="19"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
     </row>
     <row r="28" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="19"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="19"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="19"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="19"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="19"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="19"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="19"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="19"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="19"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A18:A27"/>
+    <mergeCell ref="B18:F27"/>
+    <mergeCell ref="A28:A37"/>
+    <mergeCell ref="B28:F37"/>
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A18:A27"/>
-    <mergeCell ref="B18:F27"/>
-    <mergeCell ref="A28:A37"/>
-    <mergeCell ref="B28:F37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/doc/工作流接口说明.xlsx
+++ b/doc/工作流接口说明.xlsx
@@ -8,23 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\XFlowWeb\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6C3F89-6C3F-46AB-8429-30149F9507A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20EE94F-DAE8-4E81-927A-828EEB3D5D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="983" yWindow="-98" windowWidth="27915" windowHeight="16395" tabRatio="855" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="983" yWindow="-98" windowWidth="27915" windowHeight="16395" tabRatio="855" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="加载&amp;更新模板" sheetId="12" r:id="rId1"/>
     <sheet name="创建工作流实例" sheetId="1" r:id="rId2"/>
     <sheet name="查询可走路由" sheetId="4" r:id="rId3"/>
     <sheet name="工作流流转" sheetId="5" r:id="rId4"/>
-    <sheet name="工作流流转 (自由驳回)" sheetId="11" r:id="rId5"/>
-    <sheet name="待办查询（实例ID）" sheetId="6" r:id="rId6"/>
-    <sheet name="待办查询（业务ID）" sheetId="7" r:id="rId7"/>
-    <sheet name="已办查询（实例ID）" sheetId="8" r:id="rId8"/>
-    <sheet name="已办查询（业务ID）" sheetId="9" r:id="rId9"/>
-    <sheet name="督办查询（实例ID）" sheetId="13" r:id="rId10"/>
-    <sheet name="督办查询（业务ID）" sheetId="14" r:id="rId11"/>
-    <sheet name="查询汇总情况" sheetId="10" r:id="rId12"/>
+    <sheet name="流转 (自由驳回)" sheetId="11" r:id="rId5"/>
+    <sheet name="待办.实例ID" sheetId="6" r:id="rId6"/>
+    <sheet name="待办.业务ID" sheetId="7" r:id="rId7"/>
+    <sheet name="已办.实例ID" sheetId="8" r:id="rId8"/>
+    <sheet name="已办.业务ID" sheetId="9" r:id="rId9"/>
+    <sheet name="督办.实例ID" sheetId="13" r:id="rId10"/>
+    <sheet name="督办.业务ID" sheetId="14" r:id="rId11"/>
+    <sheet name="督查.实例ID" sheetId="15" r:id="rId12"/>
+    <sheet name="督查.业务ID" sheetId="16" r:id="rId13"/>
+    <sheet name="查询汇总情况" sheetId="10" r:id="rId14"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="269">
   <si>
     <t>接口名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2212,6 +2214,120 @@
     <t>2023-06-01新增</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>I011QuerySupervisionWorkIDs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取用户历史督办（抄送的）的已完结的工作流实例ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-06-02新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "sysid": "xx",
+    "sid": "I011QuerySupervisionWorkIDs",
+    "body": {
+        "user": {
+            "userID": "8a81b2b54b7b391b014b7d143a7400fe",
+            "userName": "公用选型负责人",
+            "roles": [
+                {
+                    "roleID": "002",
+                    "roleName": "选型负责人"
+                }
+            ]
+        }
+    }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "body" : [
+    "A1DB6515B82841A182C76C6013DCEC0E"
+  ],
+  "encry" : "",
+  "format" : "",
+  "rc" : "0",
+  "result" : "true",
+  "ri" : "",
+  "serialNo" : "2018051811263621127906XFlowWeb",
+  "session" : "",
+  "sid" : "I011QuerySupervisionWorkIDs",
+  "sidv" : "",
+  "sign" : "",
+  "sysid" : "xx",
+  "tokenSec" : ""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I012QuerySupervisionServiceDataIDs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "sysid": "xx",
+    "sid": "I012QuerySupervisionServiceDataIDs",
+    "body": {
+        "user": {
+            "userID": "8a81b2b54b7b391b014b7d143a7400fe",
+            "userName": "公用选型负责人",
+            "roles": [
+                {
+                    "roleID": "002",
+                    "roleName": "选型负责人"
+                }
+            ]
+        }
+    }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "body" : [
+    "A1DB6515B82841A182C76C6013DCEC0E"
+  ],
+  "encry" : "",
+  "format" : "",
+  "rc" : "0",
+  "result" : "true",
+  "ri" : "",
+  "serialNo" : "2018051811263621127906XFlowWeb",
+  "session" : "",
+  "sid" : "I012QuerySupervisionServiceDataIDs",
+  "sidv" : "",
+  "sign" : "",
+  "sysid" : "xx",
+  "tokenSec" : ""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取用户历史督办（抄送的）的已完结的工作流实例ID对应的第三方使用系统的业务数据ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已办：做过什么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待办：要做什么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>督办：监督、协同他人正在做的。抄送一次，流程完结前全流程随时可查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>督查：复查督办全流程已完结的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2462,6 +2578,104 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>72682</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>547687</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>112153</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCAE11CD-00F3-EBE0-86DB-66A5B2E3576E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8488020" y="104776"/>
+          <a:ext cx="8247405" cy="6179577"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>104777</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>546442</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>112154</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F55A947A-F09F-469A-B93A-3B460C8A9E70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8486775" y="104777"/>
+          <a:ext cx="8247405" cy="6179577"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3158,10 +3372,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CE03A0E-E3F8-4ED1-846E-BA7AE95ADDB5}">
+  <sheetPr>
+    <tabColor theme="5"/>
+  </sheetPr>
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -3194,7 +3411,9 @@
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="19" t="s">
+        <v>267</v>
+      </c>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
       <c r="E2" s="19"/>
@@ -3674,13 +3893,13 @@
     <mergeCell ref="B22:F31"/>
     <mergeCell ref="A32:A41"/>
     <mergeCell ref="B32:F41"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A14:F14"/>
     <mergeCell ref="G1:G4"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A14:F14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -3692,10 +3911,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E810B7D2-3830-4977-A4F4-E1F706B35754}">
+  <sheetPr>
+    <tabColor theme="5"/>
+  </sheetPr>
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -3728,7 +3950,9 @@
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="19" t="s">
+        <v>267</v>
+      </c>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
       <c r="E2" s="19"/>
@@ -4208,13 +4432,13 @@
     <mergeCell ref="B22:F31"/>
     <mergeCell ref="A32:A41"/>
     <mergeCell ref="B32:F41"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A14:F14"/>
     <mergeCell ref="G1:G4"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A14:F14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4225,6 +4449,1086 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35AC9908-6A96-4F10-887B-FDD7875A86AE}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:G41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.86328125" customWidth="1"/>
+    <col min="3" max="3" width="27.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.86328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.59765625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.73046875" customWidth="1"/>
+    <col min="7" max="7" width="20.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="20" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="20"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="20"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+    </row>
+    <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="17"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="17"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="17"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="17"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="17"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="17"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="17"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="17"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="17"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+    </row>
+    <row r="32" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="17"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="17"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="17"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="17"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="17"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="17"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="17"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="17"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="17"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A22:A31"/>
+    <mergeCell ref="B22:F31"/>
+    <mergeCell ref="A32:A41"/>
+    <mergeCell ref="B32:F41"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{2B2260F9-12AC-4FA0-B55D-F23BB55AE951}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F686DBF4-CAF6-4C91-9EAB-98191646647A}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:G41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.86328125" customWidth="1"/>
+    <col min="3" max="3" width="27.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.86328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.59765625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.73046875" customWidth="1"/>
+    <col min="7" max="7" width="20.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="20" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="20"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="20"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+    </row>
+    <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="17"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="17"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="17"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="17"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="17"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="17"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="17"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="17"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="17"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+    </row>
+    <row r="32" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="17"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="17"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="17"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="17"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="17"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="17"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="17"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="17"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="17"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A22:A31"/>
+    <mergeCell ref="B22:F31"/>
+    <mergeCell ref="A32:A41"/>
+    <mergeCell ref="B32:F41"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{8417E7A2-1C1B-4C7D-A825-625372E31754}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F41"/>
   <sheetViews>
@@ -6035,7 +7339,7 @@
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -6937,7 +8241,7 @@
   <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -7829,10 +9133,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <tabColor theme="4"/>
+  </sheetPr>
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -7861,7 +9168,9 @@
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="19" t="s">
+        <v>266</v>
+      </c>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
       <c r="E2" s="19"/>
@@ -8355,10 +9664,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
+    <tabColor theme="4"/>
+  </sheetPr>
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -8387,7 +9699,9 @@
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="19" t="s">
+        <v>266</v>
+      </c>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
       <c r="E2" s="19"/>
@@ -8881,10 +10195,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:F4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -8913,7 +10230,9 @@
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="19" t="s">
+        <v>265</v>
+      </c>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
       <c r="E2" s="19"/>
@@ -9331,10 +10650,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -9363,7 +10685,9 @@
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="19" t="s">
+        <v>265</v>
+      </c>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
       <c r="E2" s="19"/>

--- a/doc/工作流接口说明.xlsx
+++ b/doc/工作流接口说明.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\XFlowWeb\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20EE94F-DAE8-4E81-927A-828EEB3D5D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A254B9-517A-46FC-A440-2368CC0F724F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="983" yWindow="-98" windowWidth="27915" windowHeight="16395" tabRatio="855" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" tabRatio="855" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="加载&amp;更新模板" sheetId="12" r:id="rId1"/>
@@ -27,6 +27,8 @@
     <sheet name="督查.实例ID" sheetId="15" r:id="rId12"/>
     <sheet name="督查.业务ID" sheetId="16" r:id="rId13"/>
     <sheet name="查询汇总情况" sheetId="10" r:id="rId14"/>
+    <sheet name="备注.添加" sheetId="18" r:id="rId15"/>
+    <sheet name="备注.查询" sheetId="20" r:id="rId16"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="308">
   <si>
     <t>接口名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2328,6 +2330,290 @@
     <t>督查：复查督办全流程已完结的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>I013AddFlowComment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加工作流备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加工作实例级的备注信息。面向所有实际参与人员均可添加备注信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createUser.orgID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createUser.orgName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createUser.roles.roleID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">createUser.roles.roleName </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createUser.userID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commentType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commentTitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commentImages</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commentFiles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作流备注分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作流备注标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作流备注内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作流备注图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作流备注文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四选一必填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "sysid": "xx",
+    "sid": "I013AddFlowComment",
+    "body": {
+        "serviceDataID": "HY20230601-001",
+        "createUser": {
+            "userID": "99099",
+            "userName": "张博超",
+            "roles": [
+                {
+                    "roleID": "ZhengWei",
+                    "roleName": "测试员的角色"
+                }
+            ]
+        },
+        "comment": "测试备注信息"
+    }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "body": {
+        "comment": "测试备注信息",
+        "commentFiles": "",
+        "commentImages": "",
+        "commentTitle": "",
+        "commentType": "",
+        "createOrg": "",
+        "createOrgID": "",
+        "createTime": "2023-07-28 14:04:28",
+        "createUser": {
+            "orgID": "",
+            "orgName": "",
+            "roleIDs": "'ZhengWei'",
+            "roles": [
+                {
+                    "roleID": "ZhengWei",
+                    "roleName": "测试员的角色"
+                }
+            ],
+            "userID": "99099",
+            "userName": "张博超"
+        },
+        "creater": "张博超",
+        "createrID": "99099",
+        "fcID": "1CC533A6931D4A6895CEB03B3993CCD4",
+        "objectType": "1",
+        "serviceDataID": "HY20230601-001",
+        "workID": "XFBC8926C89E6B421C8AE941B53BCFBF0C"
+    },
+    "encry": "",
+    "format": "",
+    "rc": "0",
+    "result": "true",
+    "ri": "",
+    "serialNo": "2023072814042870993823XFlowWeb",
+    "session": "",
+    "sid": "I013AddFlowComment",
+    "sidv": "",
+    "sign": "",
+    "sysid": "xx",
+    "tokenSec": ""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作流实例的备注信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;FlowComment&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fcID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作流备注主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>objectType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与者类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大权限的参与人类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-07-28新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询工作流备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询工作流备注。支持历史库的查询。查询结果按时间线倒排</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I014QueryFlowComment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "body": [
+        {
+            "comment": "测试备注信息",
+            "commentFiles": "",
+            "commentImages": "",
+            "commentTitle": "",
+            "commentType": "",
+            "createOrg": "",
+            "createOrgID": "",
+            "createTime": "2023-07-29 03:04:29",
+            "createUser": {
+                "orgID": "",
+                "orgName": "",
+                "roleIDs": "",
+                "roles": "",
+                "userID": "99099",
+                "userName": "张博超"
+            },
+            "creater": "张博超",
+            "createrID": "99099",
+            "fcID": "1CC533A6931D4A6895CEB03B3993CCD4",
+            "objectType": "1",
+            "serviceDataID": "HY20230601-001",
+            "workID": "XFBC8926C89E6B421C8AE941B53BCFBF0C"
+        },
+        {
+            "comment": "测试",
+            "commentFiles": "",
+            "commentImages": "",
+            "commentTitle": "",
+            "commentType": "",
+            "createOrg": "",
+            "createOrgID": "",
+            "createTime": "2023-07-29 00:08:03",
+            "createUser": {
+                "orgID": "",
+                "orgName": "",
+                "roleIDs": "",
+                "roles": "",
+                "userID": "99099",
+                "userName": "张博超"
+            },
+            "creater": "张博超",
+            "createrID": "99099",
+            "fcID": "7A376CF987304B838215BC0829994461",
+            "objectType": "1",
+            "serviceDataID": "HY20230601-001",
+            "workID": "XFBC8926C89E6B421C8AE941B53BCFBF0C"
+        }
+    ],
+    "encry": "",
+    "format": "",
+    "rc": "0",
+    "result": "true",
+    "ri": "",
+    "serialNo": "2023072814244935095759XFlowWeb",
+    "session": "",
+    "sid": "I014QueryFlowComment",
+    "sidv": "",
+    "sign": "",
+    "sysid": "xx",
+    "tokenSec": ""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "sysid": "xx",
+    "sid": "I014QueryFlowComment",
+    "body": {
+        "serviceDataID": "HY20230601-001"
+    }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2416,7 +2702,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -2474,6 +2760,125 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2483,7 +2888,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2560,6 +2965,54 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4455,8 +4908,8 @@
   </sheetPr>
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G41" sqref="A1:G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -5532,7 +5985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
@@ -6055,11 +6508,1639 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93FDA20E-20C0-48B3-95B9-1AEB49ED0804}">
+  <sheetPr>
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:G61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.796875" customWidth="1"/>
+    <col min="3" max="3" width="27.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.86328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.59765625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="7" max="7" width="20.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="20" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="20"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="20"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="39"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>276</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="40"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="40"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="39"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="37"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="D24" s="41" t="s">
+        <v>293</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" t="s">
+        <v>276</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="3"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="37"/>
+    </row>
+    <row r="42" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="28"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="17"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="31"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="17"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="31"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="17"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="31"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="17"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="31"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="17"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="31"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="17"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="31"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="17"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="31"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="17"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="31"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="17"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="34"/>
+    </row>
+    <row r="52" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="28"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="17"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="31"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="17"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="31"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="17"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="31"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="17"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="31"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="17"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="31"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="17"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="31"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="17"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="31"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="17"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="31"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="17"/>
+      <c r="B61" s="32"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A42:A51"/>
+    <mergeCell ref="B42:F51"/>
+    <mergeCell ref="A52:A61"/>
+    <mergeCell ref="B52:F61"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{4A55CA62-FF53-4003-B3D7-9AB4082973B1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8870FF6F-3E29-46CF-9265-C3F1E14766EE}">
+  <sheetPr>
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.796875" customWidth="1"/>
+    <col min="3" max="3" width="27.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.86328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.59765625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="7" max="7" width="20.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="20" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="20"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="20"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="39"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="37"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>293</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
+        <v>276</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="37"/>
+    </row>
+    <row r="32" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="28"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="17"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="31"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="17"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="31"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="17"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="31"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="17"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="31"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="17"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="31"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="17"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="31"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="17"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="31"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="17"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="31"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="17"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="34"/>
+    </row>
+    <row r="42" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="28"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="17"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="31"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="17"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="31"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="17"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="31"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="17"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="31"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="17"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="31"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="17"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="31"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="17"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="31"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="17"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="31"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="17"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A42:A51"/>
+    <mergeCell ref="B42:F51"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A32:A41"/>
+    <mergeCell ref="B32:F41"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{CCABDBD6-B73E-4EC4-BFF2-10011F5C38C7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -7339,7 +9420,7 @@
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C7" sqref="C7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -7910,8 +9991,7 @@
       <c r="F31" s="10"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="3"/>
-      <c r="B32" s="4"/>
+      <c r="B32" s="3"/>
       <c r="C32" s="4"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>

--- a/doc/工作流接口说明.xlsx
+++ b/doc/工作流接口说明.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\XFlowWeb\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A254B9-517A-46FC-A440-2368CC0F724F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6B7B99-D8A2-44FB-A264-8A10CF43E897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" tabRatio="855" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" tabRatio="855" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="加载&amp;更新模板" sheetId="12" r:id="rId1"/>
@@ -18,17 +18,18 @@
     <sheet name="查询可走路由" sheetId="4" r:id="rId3"/>
     <sheet name="工作流流转" sheetId="5" r:id="rId4"/>
     <sheet name="流转 (自由驳回)" sheetId="11" r:id="rId5"/>
-    <sheet name="待办.实例ID" sheetId="6" r:id="rId6"/>
-    <sheet name="待办.业务ID" sheetId="7" r:id="rId7"/>
-    <sheet name="已办.实例ID" sheetId="8" r:id="rId8"/>
-    <sheet name="已办.业务ID" sheetId="9" r:id="rId9"/>
-    <sheet name="督办.实例ID" sheetId="13" r:id="rId10"/>
-    <sheet name="督办.业务ID" sheetId="14" r:id="rId11"/>
-    <sheet name="督查.实例ID" sheetId="15" r:id="rId12"/>
-    <sheet name="督查.业务ID" sheetId="16" r:id="rId13"/>
-    <sheet name="查询汇总情况" sheetId="10" r:id="rId14"/>
-    <sheet name="备注.添加" sheetId="18" r:id="rId15"/>
-    <sheet name="备注.查询" sheetId="20" r:id="rId16"/>
+    <sheet name="结束工作流" sheetId="21" r:id="rId6"/>
+    <sheet name="待办.实例ID" sheetId="6" r:id="rId7"/>
+    <sheet name="待办.业务ID" sheetId="7" r:id="rId8"/>
+    <sheet name="已办.实例ID" sheetId="8" r:id="rId9"/>
+    <sheet name="已办.业务ID" sheetId="9" r:id="rId10"/>
+    <sheet name="督办.实例ID" sheetId="13" r:id="rId11"/>
+    <sheet name="督办.业务ID" sheetId="14" r:id="rId12"/>
+    <sheet name="督查.实例ID" sheetId="15" r:id="rId13"/>
+    <sheet name="督查.业务ID" sheetId="16" r:id="rId14"/>
+    <sheet name="查询汇总情况" sheetId="10" r:id="rId15"/>
+    <sheet name="备注.添加" sheetId="18" r:id="rId16"/>
+    <sheet name="备注.查询" sheetId="20" r:id="rId17"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1728" uniqueCount="314">
   <si>
     <t>接口名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2614,6 +2615,106 @@
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>I015ToFinishCreater</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-08-03新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程的发起人有权随时结束整个流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程的发起人有权随时结束整个流程。可在任意活动节点结束，结束后流程转历史。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "sysid": "xx",
+    "sid": "I015ToFinishCreater",
+    "body": {
+        "serviceDataID": "HY20230601-002",
+        "user": {
+            "userID": "23646",
+            "userName": "变更系统超级管理员",
+            "roles": [
+                {
+                    "roleID": "ZhengWei",
+                    "roleName": "测试员的角色"
+                }
+            ]
+        }
+    }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "body": {
+        "counter": "0",
+        "counterPass": "0",
+        "createOrg": "",
+        "createOrgID": "",
+        "createTime": "2023-08-04 09:17:35",
+        "creater": "变更系统超级管理员",
+        "createrID": "23646",
+        "currentActivityCode": "316BCS95ce759a-1bc5-4bff-a9b9-e8b57bcfd7f8",
+        "currentActivityID": "BCS_bd003dc428f-bc17",
+        "currentActivityName": "结束",
+        "futureParticipants": "",
+        "infoComment": "",
+        "isPass": "0",
+        "limitOrgID": "",
+        "limitTime": "2000-01-01 00:00:00",
+        "limitUserID": "",
+        "nextActivityCode": "",
+        "nextActivityID": "",
+        "nextActivityName": "",
+        "nextProcessID": "",
+        "operateDatas": "",
+        "operateFiles": "",
+        "operateOrg": "",
+        "operateOrgID": "",
+        "operateTime": "2023-08-04 09:17:35",
+        "operateTimeLen": "0",
+        "operateType": "",
+        "operateTypeID": "",
+        "operateUser": "变更系统超级管理员",
+        "operateUserID": "23646",
+        "participants": "",
+        "passType": "",
+        "previousActivityCode": "550BCS95ce759a-1bc5-4bff-a9b9-e8b57bcfd7f8",
+        "previousActivityID": "BCS_9f739174496-a9933",
+        "previousActivityName": "测试人员审批3",
+        "previousOperateTypeID": "RT999",
+        "previousProcessID": "XF33FE1E79A7884965B783641F903301E9",
+        "processID": "XF7D8784349C724F7985D229CD0E2C8632",
+        "processNo": "-1",
+        "serviceDataID": "HY20230601-002",
+        "splitProcessID": "",
+        "summary": "0.0",
+        "summaryPass": "0.0",
+        "templateID": "BCS95ce759a-1bc5-4bff-a9b9-e8b57bcfd7f8",
+        "workID": "XFBE815D28C925426C99BD804375F24C61"
+    },
+    "encry": "",
+    "format": "",
+    "rc": "0",
+    "result": "true",
+    "ri": "",
+    "serialNo": "2023080409173422588873XFlowWeb",
+    "session": "",
+    "sid": "I015ToFinishCreater",
+    "sidv": "",
+    "sign": "",
+    "sysid": "xx",
+    "tokenSec": ""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2888,7 +2989,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2967,6 +3068,21 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2979,7 +3095,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2994,25 +3110,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3824,6 +3922,461 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:F37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.86328125" customWidth="1"/>
+    <col min="3" max="3" width="27.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.86328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.59765625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.73046875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+    </row>
+    <row r="18" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="17"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="17"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="17"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="17"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="17"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="17"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="17"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="17"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="17"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+    </row>
+    <row r="28" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="17"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="17"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="17"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="17"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="17"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="17"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="17"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="17"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="17"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A18:A27"/>
+    <mergeCell ref="B18:F27"/>
+    <mergeCell ref="A28:A37"/>
+    <mergeCell ref="B28:F37"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CE03A0E-E3F8-4ED1-846E-BA7AE95ADDB5}">
   <sheetPr>
     <tabColor theme="5"/>
@@ -4362,7 +4915,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E810B7D2-3830-4977-A4F4-E1F706B35754}">
   <sheetPr>
     <tabColor theme="5"/>
@@ -4901,7 +5454,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35AC9908-6A96-4F10-887B-FDD7875A86AE}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -5441,7 +5994,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F686DBF4-CAF6-4C91-9EAB-98191646647A}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -5981,7 +6534,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F41"/>
   <sheetViews>
@@ -6508,15 +7061,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93FDA20E-20C0-48B3-95B9-1AEB49ED0804}">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -6630,7 +7183,7 @@
       <c r="E7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="38" t="s">
+      <c r="F7" s="26" t="s">
         <v>60</v>
       </c>
     </row>
@@ -6650,7 +7203,7 @@
       <c r="E8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="39"/>
+      <c r="F8" s="27"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
@@ -6779,7 +7332,7 @@
       <c r="E15" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="38" t="s">
+      <c r="F15" s="26" t="s">
         <v>289</v>
       </c>
     </row>
@@ -6835,7 +7388,7 @@
       <c r="E18" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="39"/>
+      <c r="F18" s="27"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
@@ -6846,14 +7399,14 @@
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="37"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="30"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
@@ -6921,7 +7474,7 @@
       <c r="C24" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="D24" s="41" t="s">
+      <c r="D24" s="5" t="s">
         <v>293</v>
       </c>
       <c r="E24" s="5" t="s">
@@ -7212,191 +7765,185 @@
       <c r="F40" s="4"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="35" t="s">
+      <c r="A41" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="36"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="37"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="30"/>
     </row>
     <row r="42" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B42" s="26" t="s">
+      <c r="B42" s="31" t="s">
         <v>290</v>
       </c>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="28"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="33"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="17"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="31"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="36"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="17"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="31"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="36"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="17"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="31"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="36"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="17"/>
-      <c r="B46" s="29"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="31"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="36"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="17"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="31"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="36"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="17"/>
-      <c r="B48" s="29"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="31"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="36"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="17"/>
-      <c r="B49" s="29"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="31"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="36"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="17"/>
-      <c r="B50" s="29"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="31"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="36"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="17"/>
-      <c r="B51" s="32"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="34"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="39"/>
     </row>
     <row r="52" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B52" s="26" t="s">
+      <c r="B52" s="31" t="s">
         <v>291</v>
       </c>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="28"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="33"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="17"/>
-      <c r="B53" s="29"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="31"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="36"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="17"/>
-      <c r="B54" s="29"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="31"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="36"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="17"/>
-      <c r="B55" s="29"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="31"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="35"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="36"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="17"/>
-      <c r="B56" s="29"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="30"/>
-      <c r="F56" s="31"/>
+      <c r="B56" s="34"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="36"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="17"/>
-      <c r="B57" s="29"/>
-      <c r="C57" s="30"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="31"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="36"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="17"/>
-      <c r="B58" s="29"/>
-      <c r="C58" s="30"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="30"/>
-      <c r="F58" s="31"/>
+      <c r="B58" s="34"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="35"/>
+      <c r="E58" s="35"/>
+      <c r="F58" s="36"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="17"/>
-      <c r="B59" s="29"/>
-      <c r="C59" s="30"/>
-      <c r="D59" s="30"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="31"/>
+      <c r="B59" s="34"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="36"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="17"/>
-      <c r="B60" s="29"/>
-      <c r="C60" s="30"/>
-      <c r="D60" s="30"/>
-      <c r="E60" s="30"/>
-      <c r="F60" s="31"/>
+      <c r="B60" s="34"/>
+      <c r="C60" s="35"/>
+      <c r="D60" s="35"/>
+      <c r="E60" s="35"/>
+      <c r="F60" s="36"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="17"/>
-      <c r="B61" s="32"/>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="34"/>
+      <c r="B61" s="37"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="38"/>
+      <c r="F61" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A42:A51"/>
-    <mergeCell ref="B42:F51"/>
     <mergeCell ref="A52:A61"/>
     <mergeCell ref="B52:F61"/>
     <mergeCell ref="B1:F1"/>
@@ -7405,6 +7952,12 @@
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F5"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A42:A51"/>
+    <mergeCell ref="B42:F51"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -7415,7 +7968,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8870FF6F-3E29-46CF-9265-C3F1E14766EE}">
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
@@ -7537,7 +8090,7 @@
       <c r="E7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="38" t="s">
+      <c r="F7" s="26" t="s">
         <v>60</v>
       </c>
     </row>
@@ -7557,7 +8110,7 @@
       <c r="E8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="39"/>
+      <c r="F8" s="27"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
@@ -7568,14 +8121,14 @@
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="37"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="30"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
@@ -7643,7 +8196,7 @@
       <c r="C14" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="5" t="s">
         <v>293</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -7934,182 +8487,182 @@
       <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="37"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="30"/>
     </row>
     <row r="32" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="31" t="s">
         <v>307</v>
       </c>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="28"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="33"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="31"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="36"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="17"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="31"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="36"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="17"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="31"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="36"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="17"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="31"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="36"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="17"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="31"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="36"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="17"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="31"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="36"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="17"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="31"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="36"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="17"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="31"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="36"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="17"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="34"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="39"/>
     </row>
     <row r="42" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="26" t="s">
+      <c r="B42" s="31" t="s">
         <v>306</v>
       </c>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="28"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="33"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="17"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="31"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="36"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="17"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="31"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="36"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="17"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="31"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="36"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="17"/>
-      <c r="B46" s="29"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="31"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="36"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="17"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="31"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="36"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="17"/>
-      <c r="B48" s="29"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="31"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="36"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="17"/>
-      <c r="B49" s="29"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="31"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="36"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="17"/>
-      <c r="B50" s="29"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="31"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="36"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="17"/>
-      <c r="B51" s="32"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="34"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -8120,12 +8673,12 @@
     <mergeCell ref="A31:F31"/>
     <mergeCell ref="A32:A41"/>
     <mergeCell ref="B32:F41"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="G1:G4"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -9419,8 +9972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:E7"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A38" sqref="A35:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -11212,6 +11765,617 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B13FA2E6-9680-4632-8997-705A6B1D2D72}">
+  <dimension ref="A1:G45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.796875" customWidth="1"/>
+    <col min="3" max="3" width="27.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.86328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.59765625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="7" max="7" width="20.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="20" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="20"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="20"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="27"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="30"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="30"/>
+    </row>
+    <row r="26" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>312</v>
+      </c>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="33"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="17"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="36"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="17"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="36"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="17"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="36"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="17"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="36"/>
+    </row>
+    <row r="31" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="17"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="36"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="17"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="36"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="17"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="36"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="17"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="36"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="17"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="39"/>
+    </row>
+    <row r="36" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="31" t="s">
+        <v>313</v>
+      </c>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="33"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="17"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="36"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="17"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="36"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="17"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="36"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="17"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="36"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="17"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="36"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="17"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="36"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="17"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="36"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="17"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="36"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="17"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="39"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A36:A45"/>
+    <mergeCell ref="B36:F45"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A26:A35"/>
+    <mergeCell ref="B26:F35"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{F81C3299-C050-4ABA-8014-D8D28D7700B7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="4"/>
@@ -11742,7 +12906,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="4"/>
@@ -12273,7 +13437,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
@@ -12726,459 +13890,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <sheetPr>
-    <tabColor theme="9"/>
-  </sheetPr>
-  <dimension ref="A1:F37"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.3984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.86328125" customWidth="1"/>
-    <col min="3" max="3" width="27.73046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.86328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.59765625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.73046875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-    </row>
-    <row r="18" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="17"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="17"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-    </row>
-    <row r="28" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="17"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="17"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="17"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="17"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="17"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="17"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="17"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="17"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="17"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-    </row>
-  </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A18:A27"/>
-    <mergeCell ref="B18:F27"/>
-    <mergeCell ref="A28:A37"/>
-    <mergeCell ref="B28:F37"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/doc/工作流接口说明.xlsx
+++ b/doc/工作流接口说明.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\XFlowWeb\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6B7B99-D8A2-44FB-A264-8A10CF43E897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C1E5BE-968E-4BA4-9FE2-D9B1D873FC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" tabRatio="855" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" tabRatio="855" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="加载&amp;更新模板" sheetId="12" r:id="rId1"/>
@@ -2340,10 +2340,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>添加工作实例级的备注信息。面向所有实际参与人员均可添加备注信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>createUser.orgID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2713,6 +2709,10 @@
     "sysid": "xx",
     "tokenSec": ""
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加工作实例级的备注信息。面向所有实际参与人员均可添加备注信息。流程转历史后，也能添加备注。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3041,20 +3041,20 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3066,21 +3066,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3109,6 +3094,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3513,14 +3513,14 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="20" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="17" t="s">
         <v>246</v>
       </c>
     </row>
@@ -3528,38 +3528,38 @@
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="20"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="20"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
@@ -3730,175 +3730,180 @@
       <c r="F16" s="16"/>
     </row>
     <row r="17" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="17"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
     </row>
     <row r="27" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="17"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="17"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="17"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="17"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="17"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="17"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="17"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="17"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="17"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A17:A26"/>
+    <mergeCell ref="B17:F26"/>
+    <mergeCell ref="A27:A36"/>
+    <mergeCell ref="B27:F36"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="G1:G4"/>
@@ -3906,11 +3911,6 @@
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A17:A26"/>
-    <mergeCell ref="B17:F26"/>
-    <mergeCell ref="A27:A36"/>
-    <mergeCell ref="B27:F36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -3946,49 +3946,49 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
@@ -4187,186 +4187,186 @@
       <c r="F17" s="16"/>
     </row>
     <row r="18" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="17"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="17"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
     </row>
     <row r="28" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="17"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="17"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="17"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="17"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="17"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="17"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="17"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="17"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="17"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A18:A27"/>
-    <mergeCell ref="B18:F27"/>
-    <mergeCell ref="A28:A37"/>
-    <mergeCell ref="B28:F37"/>
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A18:A27"/>
+    <mergeCell ref="B18:F27"/>
+    <mergeCell ref="A28:A37"/>
+    <mergeCell ref="B28:F37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4402,14 +4402,14 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="20" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="17" t="s">
         <v>255</v>
       </c>
     </row>
@@ -4417,40 +4417,40 @@
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="20"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="20"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
@@ -4725,180 +4725,175 @@
       <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="17"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="17"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="17"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="17"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="17"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
     </row>
     <row r="32" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="17"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="17"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="17"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="17"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="17"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="17"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="17"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="17"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
+      <c r="A40" s="20"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="17"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
+      <c r="A41" s="20"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A22:A31"/>
-    <mergeCell ref="B22:F31"/>
-    <mergeCell ref="A32:A41"/>
-    <mergeCell ref="B32:F41"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="G1:G4"/>
@@ -4906,6 +4901,11 @@
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A22:A31"/>
+    <mergeCell ref="B22:F31"/>
+    <mergeCell ref="A32:A41"/>
+    <mergeCell ref="B32:F41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4941,14 +4941,14 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="20" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="17" t="s">
         <v>255</v>
       </c>
     </row>
@@ -4956,40 +4956,40 @@
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="20"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="20"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
@@ -5264,180 +5264,175 @@
       <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="17"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="17"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="17"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="17"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="17"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
     </row>
     <row r="32" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="17"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="17"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="17"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="17"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="17"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="17"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="17"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="17"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
+      <c r="A40" s="20"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="17"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
+      <c r="A41" s="20"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A22:A31"/>
-    <mergeCell ref="B22:F31"/>
-    <mergeCell ref="A32:A41"/>
-    <mergeCell ref="B32:F41"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="G1:G4"/>
@@ -5445,6 +5440,11 @@
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A22:A31"/>
+    <mergeCell ref="B22:F31"/>
+    <mergeCell ref="A32:A41"/>
+    <mergeCell ref="B32:F41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -5480,14 +5480,14 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="20" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="17" t="s">
         <v>258</v>
       </c>
     </row>
@@ -5495,40 +5495,40 @@
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>268</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="20"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="20"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
@@ -5803,187 +5803,187 @@
       <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="17"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="17"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="17"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="17"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="17"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
     </row>
     <row r="32" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="17"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="17"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="17"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="17"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="17"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="17"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="17"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="17"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
+      <c r="A40" s="20"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="17"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
+      <c r="A41" s="20"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A22:A31"/>
+    <mergeCell ref="B22:F31"/>
+    <mergeCell ref="A32:A41"/>
+    <mergeCell ref="B32:F41"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="G1:G4"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A22:A31"/>
-    <mergeCell ref="B22:F31"/>
-    <mergeCell ref="A32:A41"/>
-    <mergeCell ref="B32:F41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -6020,14 +6020,14 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="20" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="17" t="s">
         <v>258</v>
       </c>
     </row>
@@ -6035,40 +6035,40 @@
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>268</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="20"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="20"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
@@ -6343,187 +6343,187 @@
       <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="17"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="17"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="17"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="17"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="17"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
     </row>
     <row r="32" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="17"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="17"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="17"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="17"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="17"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="17"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="17"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="17"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
+      <c r="A40" s="20"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="17"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
+      <c r="A41" s="20"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A22:A31"/>
+    <mergeCell ref="B22:F31"/>
+    <mergeCell ref="A32:A41"/>
+    <mergeCell ref="B32:F41"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="G1:G4"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A22:A31"/>
-    <mergeCell ref="B22:F31"/>
-    <mergeCell ref="A32:A41"/>
-    <mergeCell ref="B32:F41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -6556,47 +6556,47 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
@@ -6871,187 +6871,187 @@
       <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="17"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="17"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="17"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="17"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="17"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="17"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="17"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="17"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="17"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="17"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="17"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="17"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="17"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
+      <c r="A40" s="20"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="17"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
+      <c r="A41" s="20"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A22:A31"/>
+    <mergeCell ref="B22:F31"/>
+    <mergeCell ref="A32:A41"/>
+    <mergeCell ref="B32:F41"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A22:A31"/>
-    <mergeCell ref="B22:F31"/>
-    <mergeCell ref="A32:A41"/>
-    <mergeCell ref="B32:F41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -7068,8 +7068,8 @@
   </sheetPr>
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:F13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -7087,55 +7087,55 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="20" t="s">
-        <v>302</v>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="17" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>271</v>
-      </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="20"/>
+      <c r="B2" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="20"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
@@ -7183,7 +7183,7 @@
       <c r="E7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="35" t="s">
         <v>60</v>
       </c>
     </row>
@@ -7203,14 +7203,14 @@
       <c r="E8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="27"/>
+      <c r="F8" s="36"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>25</v>
@@ -7227,7 +7227,7 @@
         <v>41</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>30</v>
@@ -7245,7 +7245,7 @@
         <v>42</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>33</v>
@@ -7263,7 +7263,7 @@
         <v>43</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>35</v>
@@ -7283,7 +7283,7 @@
         <v>115</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>37</v>
@@ -7303,10 +7303,10 @@
         <v>116</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>11</v>
@@ -7321,10 +7321,10 @@
         <v>97</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>11</v>
@@ -7332,8 +7332,8 @@
       <c r="E15" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="26" t="s">
-        <v>289</v>
+      <c r="F15" s="35" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -7341,10 +7341,10 @@
         <v>180</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>11</v>
@@ -7356,13 +7356,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>11</v>
@@ -7374,13 +7374,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>11</v>
@@ -7388,7 +7388,7 @@
       <c r="E18" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="27"/>
+      <c r="F18" s="36"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
@@ -7399,14 +7399,14 @@
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="30"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="39"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
@@ -7472,10 +7472,10 @@
         <v>49</v>
       </c>
       <c r="C24" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>292</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>293</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>28</v>
@@ -7525,7 +7525,7 @@
         <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>25</v>
@@ -7543,7 +7543,7 @@
         <v>47</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>30</v>
@@ -7561,7 +7561,7 @@
         <v>48</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>33</v>
@@ -7579,7 +7579,7 @@
         <v>70</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>35</v>
@@ -7597,7 +7597,7 @@
         <v>71</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>37</v>
@@ -7615,10 +7615,10 @@
         <v>72</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>11</v>
@@ -7633,10 +7633,10 @@
         <v>73</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>11</v>
@@ -7651,10 +7651,10 @@
         <v>74</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>11</v>
@@ -7669,10 +7669,10 @@
         <v>145</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>11</v>
@@ -7687,10 +7687,10 @@
         <v>146</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>11</v>
@@ -7705,10 +7705,10 @@
         <v>147</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>294</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>295</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>11</v>
@@ -7723,10 +7723,10 @@
         <v>148</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>296</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>297</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>68</v>
@@ -7735,7 +7735,7 @@
         <v>28</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -7743,13 +7743,13 @@
         <v>153</v>
       </c>
       <c r="B39" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="D39" s="5" t="s">
         <v>299</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>300</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>28</v>
@@ -7765,182 +7765,182 @@
       <c r="F40" s="4"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="28" t="s">
+      <c r="A41" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="30"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="39"/>
     </row>
     <row r="42" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B42" s="31" t="s">
+      <c r="B42" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="28"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="20"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="31"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="20"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="31"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="20"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="31"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="20"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="31"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="20"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="31"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="20"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="31"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="20"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="31"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="20"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="31"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="20"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="34"/>
+    </row>
+    <row r="52" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" s="26" t="s">
         <v>290</v>
       </c>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="33"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="17"/>
-      <c r="B43" s="34"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="36"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="17"/>
-      <c r="B44" s="34"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="36"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="17"/>
-      <c r="B45" s="34"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="36"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="17"/>
-      <c r="B46" s="34"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="36"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="17"/>
-      <c r="B47" s="34"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="36"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="17"/>
-      <c r="B48" s="34"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="36"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="17"/>
-      <c r="B49" s="34"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="36"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="17"/>
-      <c r="B50" s="34"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="36"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="17"/>
-      <c r="B51" s="37"/>
-      <c r="C51" s="38"/>
-      <c r="D51" s="38"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="39"/>
-    </row>
-    <row r="52" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B52" s="31" t="s">
-        <v>291</v>
-      </c>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="33"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="28"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="17"/>
-      <c r="B53" s="34"/>
-      <c r="C53" s="35"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="36"/>
+      <c r="A53" s="20"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="31"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="17"/>
-      <c r="B54" s="34"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="36"/>
+      <c r="A54" s="20"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="31"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="17"/>
-      <c r="B55" s="34"/>
-      <c r="C55" s="35"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="36"/>
+      <c r="A55" s="20"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="31"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="17"/>
-      <c r="B56" s="34"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="36"/>
+      <c r="A56" s="20"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="31"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="17"/>
-      <c r="B57" s="34"/>
-      <c r="C57" s="35"/>
-      <c r="D57" s="35"/>
-      <c r="E57" s="35"/>
-      <c r="F57" s="36"/>
+      <c r="A57" s="20"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="31"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="17"/>
-      <c r="B58" s="34"/>
-      <c r="C58" s="35"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="35"/>
-      <c r="F58" s="36"/>
+      <c r="A58" s="20"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="31"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="17"/>
-      <c r="B59" s="34"/>
-      <c r="C59" s="35"/>
-      <c r="D59" s="35"/>
-      <c r="E59" s="35"/>
-      <c r="F59" s="36"/>
+      <c r="A59" s="20"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="31"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="17"/>
-      <c r="B60" s="34"/>
-      <c r="C60" s="35"/>
-      <c r="D60" s="35"/>
-      <c r="E60" s="35"/>
-      <c r="F60" s="36"/>
+      <c r="A60" s="20"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="31"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="17"/>
-      <c r="B61" s="37"/>
-      <c r="C61" s="38"/>
-      <c r="D61" s="38"/>
-      <c r="E61" s="38"/>
-      <c r="F61" s="39"/>
+      <c r="A61" s="20"/>
+      <c r="B61" s="32"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -7994,55 +7994,55 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>303</v>
-      </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="20" t="s">
+      <c r="B1" s="18" t="s">
         <v>302</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="17" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>304</v>
-      </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="20"/>
+      <c r="B2" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="20"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>305</v>
-      </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
+      <c r="B4" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
@@ -8090,7 +8090,7 @@
       <c r="E7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="35" t="s">
         <v>60</v>
       </c>
     </row>
@@ -8110,7 +8110,7 @@
       <c r="E8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="27"/>
+      <c r="F8" s="36"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
@@ -8121,14 +8121,14 @@
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="30"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="39"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
@@ -8194,10 +8194,10 @@
         <v>49</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>292</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>293</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>28</v>
@@ -8247,7 +8247,7 @@
         <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>25</v>
@@ -8265,7 +8265,7 @@
         <v>47</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>30</v>
@@ -8283,7 +8283,7 @@
         <v>48</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>33</v>
@@ -8301,7 +8301,7 @@
         <v>70</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>35</v>
@@ -8319,7 +8319,7 @@
         <v>71</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>37</v>
@@ -8337,10 +8337,10 @@
         <v>72</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>11</v>
@@ -8355,10 +8355,10 @@
         <v>73</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>11</v>
@@ -8373,10 +8373,10 @@
         <v>74</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>11</v>
@@ -8391,10 +8391,10 @@
         <v>145</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>11</v>
@@ -8409,10 +8409,10 @@
         <v>146</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>11</v>
@@ -8427,10 +8427,10 @@
         <v>147</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>294</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>295</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>11</v>
@@ -8445,10 +8445,10 @@
         <v>148</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>296</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>297</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>68</v>
@@ -8457,7 +8457,7 @@
         <v>28</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -8465,13 +8465,13 @@
         <v>153</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="D29" s="5" t="s">
         <v>299</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>300</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>28</v>
@@ -8487,185 +8487,191 @@
       <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="30"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="39"/>
     </row>
     <row r="32" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="31" t="s">
-        <v>307</v>
-      </c>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="33"/>
+      <c r="B32" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="28"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="17"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="36"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="31"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="17"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="36"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="31"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="17"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="36"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="31"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="17"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="36"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="31"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="17"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="36"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="31"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="17"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="36"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="31"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="17"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="36"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="31"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="17"/>
-      <c r="B40" s="34"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="36"/>
+      <c r="A40" s="20"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="31"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="17"/>
-      <c r="B41" s="37"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="39"/>
+      <c r="A41" s="20"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="34"/>
     </row>
     <row r="42" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="31" t="s">
-        <v>306</v>
-      </c>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="33"/>
+      <c r="B42" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="28"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="17"/>
-      <c r="B43" s="34"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="36"/>
+      <c r="A43" s="20"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="31"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="17"/>
-      <c r="B44" s="34"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="36"/>
+      <c r="A44" s="20"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="31"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="17"/>
-      <c r="B45" s="34"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="36"/>
+      <c r="A45" s="20"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="31"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="17"/>
-      <c r="B46" s="34"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="36"/>
+      <c r="A46" s="20"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="31"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="17"/>
-      <c r="B47" s="34"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="36"/>
+      <c r="A47" s="20"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="31"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="17"/>
-      <c r="B48" s="34"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="36"/>
+      <c r="A48" s="20"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="31"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="17"/>
-      <c r="B49" s="34"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="36"/>
+      <c r="A49" s="20"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="31"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="17"/>
-      <c r="B50" s="34"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="36"/>
+      <c r="A50" s="20"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="31"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="17"/>
-      <c r="B51" s="37"/>
-      <c r="C51" s="38"/>
-      <c r="D51" s="38"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="39"/>
+      <c r="A51" s="20"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
     <mergeCell ref="A42:A51"/>
     <mergeCell ref="B42:F51"/>
     <mergeCell ref="F7:F8"/>
@@ -8673,12 +8679,6 @@
     <mergeCell ref="A31:F31"/>
     <mergeCell ref="A32:A41"/>
     <mergeCell ref="B32:F41"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -8711,47 +8711,47 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
@@ -9080,186 +9080,186 @@
       <c r="F24" s="16"/>
     </row>
     <row r="25" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="17"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="17"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="17"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="17"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="17"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="17"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="17"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="17"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
     </row>
     <row r="35" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="17"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="17"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="17"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="17"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="17"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
+      <c r="A40" s="20"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="17"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
+      <c r="A41" s="20"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="17"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
+      <c r="A42" s="20"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="17"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
+      <c r="A43" s="20"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="17"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
+      <c r="A44" s="20"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A25:A34"/>
+    <mergeCell ref="B25:F34"/>
+    <mergeCell ref="A35:A44"/>
+    <mergeCell ref="B35:F44"/>
     <mergeCell ref="A17:F17"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A25:A34"/>
-    <mergeCell ref="B25:F34"/>
-    <mergeCell ref="A35:A44"/>
-    <mergeCell ref="B35:F44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -9293,47 +9293,47 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
@@ -9777,175 +9777,180 @@
       <c r="F29" s="16"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="17"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="17"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="17"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="17"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="17"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="17"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="17"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="17"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="17"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="17"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
+      <c r="A41" s="20"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="17"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
+      <c r="A42" s="20"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="17"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
+      <c r="A43" s="20"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="17"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
+      <c r="A44" s="20"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="17"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
+      <c r="A45" s="20"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="17"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
+      <c r="A46" s="20"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="17"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
+      <c r="A47" s="20"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="17"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
+      <c r="A48" s="20"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="17"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
+      <c r="A49" s="20"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A30:A39"/>
+    <mergeCell ref="B30:F39"/>
+    <mergeCell ref="A40:A49"/>
+    <mergeCell ref="B40:F49"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="B1:F1"/>
@@ -9953,11 +9958,6 @@
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A30:A39"/>
-    <mergeCell ref="B30:F39"/>
-    <mergeCell ref="A40:A49"/>
-    <mergeCell ref="B40:F49"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -9991,47 +9991,47 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
@@ -10673,175 +10673,185 @@
       <c r="F40" s="16"/>
     </row>
     <row r="41" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="17" t="s">
+      <c r="A41" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="17"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
+      <c r="A42" s="20"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="17"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
+      <c r="A43" s="20"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="17"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
+      <c r="A44" s="20"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="17"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
+      <c r="A45" s="20"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="17"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
+      <c r="A46" s="20"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="17"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
+      <c r="A47" s="20"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="17"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
+      <c r="A48" s="20"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="17"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
+      <c r="A49" s="20"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="17"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
+      <c r="A50" s="20"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
     </row>
     <row r="51" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="17" t="s">
+      <c r="A51" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="17"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
+      <c r="A52" s="20"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="17"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
+      <c r="A53" s="20"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="17"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
+      <c r="A54" s="20"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="17"/>
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
+      <c r="A55" s="20"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="17"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
+      <c r="A56" s="20"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="17"/>
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
+      <c r="A57" s="20"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="17"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
+      <c r="A58" s="20"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="17"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
+      <c r="A59" s="20"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="17"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
+      <c r="A60" s="20"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A41:A50"/>
+    <mergeCell ref="B41:F50"/>
+    <mergeCell ref="A51:A60"/>
+    <mergeCell ref="B51:F60"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="G15:G20"/>
     <mergeCell ref="G21:G26"/>
     <mergeCell ref="A33:F33"/>
@@ -10849,16 +10859,6 @@
     <mergeCell ref="F23:F24"/>
     <mergeCell ref="F27:F28"/>
     <mergeCell ref="F17:F18"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="A41:A50"/>
-    <mergeCell ref="B41:F50"/>
-    <mergeCell ref="A51:A60"/>
-    <mergeCell ref="B51:F60"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -10892,14 +10892,14 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="20" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="17" t="s">
         <v>235</v>
       </c>
     </row>
@@ -10907,40 +10907,40 @@
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="20"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="20"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
@@ -11568,182 +11568,175 @@
       <c r="F39" s="16"/>
     </row>
     <row r="40" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="17"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
+      <c r="A41" s="20"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="17"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
+      <c r="A42" s="20"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="17"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
+      <c r="A43" s="20"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="17"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
+      <c r="A44" s="20"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="17"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
+      <c r="A45" s="20"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="17"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
+      <c r="A46" s="20"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="17"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
+      <c r="A47" s="20"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="17"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
+      <c r="A48" s="20"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="17"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
+      <c r="A49" s="20"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
     </row>
     <row r="50" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="17" t="s">
+      <c r="A50" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="17"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
+      <c r="A51" s="20"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="17"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
+      <c r="A52" s="20"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="17"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
+      <c r="A53" s="20"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="17"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
+      <c r="A54" s="20"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="17"/>
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
+      <c r="A55" s="20"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="17"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
+      <c r="A56" s="20"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="17"/>
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
+      <c r="A57" s="20"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="17"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
+      <c r="A58" s="20"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="17"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
+      <c r="A59" s="20"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
     <mergeCell ref="A50:A59"/>
     <mergeCell ref="B50:F59"/>
     <mergeCell ref="G16:G21"/>
@@ -11754,6 +11747,13 @@
     <mergeCell ref="A39:F39"/>
     <mergeCell ref="A40:A49"/>
     <mergeCell ref="B40:F49"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -11768,7 +11768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B13FA2E6-9680-4632-8997-705A6B1D2D72}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G1" sqref="G1:G4"/>
     </sheetView>
   </sheetViews>
@@ -11787,55 +11787,55 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>310</v>
-      </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="20" t="s">
+      <c r="B1" s="18" t="s">
         <v>309</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="17" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="20"/>
+      <c r="B2" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="20"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>308</v>
-      </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
+      <c r="B4" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
@@ -11883,7 +11883,7 @@
       <c r="E7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="35" t="s">
         <v>60</v>
       </c>
     </row>
@@ -11903,7 +11903,7 @@
       <c r="E8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="27"/>
+      <c r="F8" s="36"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
@@ -12061,14 +12061,14 @@
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="30"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="39"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
@@ -12173,182 +12173,182 @@
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="30"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="39"/>
     </row>
     <row r="26" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="28"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="20"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="31"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="20"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="31"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="20"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="31"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="20"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="31"/>
+    </row>
+    <row r="31" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="20"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="31"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="20"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="31"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="20"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="31"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="20"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="31"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="20"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="34"/>
+    </row>
+    <row r="36" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="26" t="s">
         <v>312</v>
       </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="33"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="17"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="36"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="17"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="36"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="17"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="36"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="17"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="36"/>
-    </row>
-    <row r="31" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="17"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="36"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="17"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="36"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="17"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="36"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="17"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="36"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="17"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="39"/>
-    </row>
-    <row r="36" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B36" s="31" t="s">
-        <v>313</v>
-      </c>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="33"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="28"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="17"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="36"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="31"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="17"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="36"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="31"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="17"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="36"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="31"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="17"/>
-      <c r="B40" s="34"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="36"/>
+      <c r="A40" s="20"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="31"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="17"/>
-      <c r="B41" s="34"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="36"/>
+      <c r="A41" s="20"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="31"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="17"/>
-      <c r="B42" s="34"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="36"/>
+      <c r="A42" s="20"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="31"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="17"/>
-      <c r="B43" s="34"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="36"/>
+      <c r="A43" s="20"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="31"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="17"/>
-      <c r="B44" s="34"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="36"/>
+      <c r="A44" s="20"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="31"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="17"/>
-      <c r="B45" s="37"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="39"/>
+      <c r="A45" s="20"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -12400,49 +12400,49 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
@@ -12717,186 +12717,186 @@
       <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="17"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="17"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="17"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="17"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="17"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
     </row>
     <row r="32" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="17"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="17"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="17"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="17"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="17"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="17"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="17"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="17"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
+      <c r="A40" s="20"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="17"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
+      <c r="A41" s="20"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A22:A31"/>
+    <mergeCell ref="B22:F31"/>
+    <mergeCell ref="A32:A41"/>
+    <mergeCell ref="B32:F41"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A22:A31"/>
-    <mergeCell ref="B22:F31"/>
-    <mergeCell ref="A32:A41"/>
-    <mergeCell ref="B32:F41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -12931,49 +12931,49 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
@@ -13248,186 +13248,186 @@
       <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="17"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="17"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="17"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="17"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="17"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
     </row>
     <row r="32" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="17"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="17"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="17"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="17"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="17"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="17"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="17"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="17"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
+      <c r="A40" s="20"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="17"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
+      <c r="A41" s="20"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A22:A31"/>
+    <mergeCell ref="B22:F31"/>
+    <mergeCell ref="A32:A41"/>
+    <mergeCell ref="B32:F41"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A22:A31"/>
-    <mergeCell ref="B22:F31"/>
-    <mergeCell ref="A32:A41"/>
-    <mergeCell ref="B32:F41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -13462,49 +13462,49 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
@@ -13703,186 +13703,186 @@
       <c r="F17" s="16"/>
     </row>
     <row r="18" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="17"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="17"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
     </row>
     <row r="28" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="17"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="17"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="17"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="17"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
+      <c r="A32" s="20"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="17"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="17"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="17"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="17"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
+      <c r="A36" s="20"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="17"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A18:A27"/>
-    <mergeCell ref="B18:F27"/>
-    <mergeCell ref="A28:A37"/>
-    <mergeCell ref="B28:F37"/>
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A18:A27"/>
+    <mergeCell ref="B18:F27"/>
+    <mergeCell ref="A28:A37"/>
+    <mergeCell ref="B28:F37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/doc/工作流接口说明.xlsx
+++ b/doc/工作流接口说明.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\XFlowWeb\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD92B64-62DB-4D2A-A927-E5F5353B7CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CE7681-A468-4FF5-84FD-F34567FE2973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" tabRatio="855" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" tabRatio="855" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="加载&amp;更新模板" sheetId="12" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <sheet name="备注.添加" sheetId="18" r:id="rId16"/>
     <sheet name="备注.查询" sheetId="20" r:id="rId17"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1782" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1863" uniqueCount="373">
   <si>
     <t>接口名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2743,12 +2743,233 @@
     <t>03</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>2024-04-03新增自动流转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AUTO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：按权重优先级自动流转</t>
+    </r>
+  </si>
+  <si>
+    <t>counterSignature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇签信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProcessCounterSignature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>counterSignature.csMaxUserCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>counterSignature.csMinUserCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>counterSignature.csExpireTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过期后自动向下转流。不填写无此功能
+格式为：YYYY-MM-DD HH24:MI:SS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇签人数等于此值后，将触发自动向下流转。
+0表示不向下流转，须人工流转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-04-07新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由第三方使用者定义其内容（拓展性数据）</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>counterSignature.csTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>counterSignature.csTypeID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>counterSignature.csType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>counterSignature.csFiles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>counterSignature.csDatas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>counterSignature.csComment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇签下发：应当汇签人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇签下发：最小汇签人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇签下发：汇签过期时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇签记录：汇签时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇签记录：汇签类型名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇签记录：汇签文件信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇签记录：汇签数据信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇签记录：汇签说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>counterSignature.csfinish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>counterSignature.csFinishTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>汇签完成：汇签完成标记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇签完成：汇签完成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1表示主动结束汇签，向下继续流转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不填写，默认为当前系统时间
+格式为：YYYY-MM-DD HH24:MI:SS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇签场景01：汇签下发（路由类型为汇签），必填
+汇签场景02：汇签记录，可选
+汇签场景03：汇签完成（主动结束），必填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-04-09新增排除执行人、排除抄送人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇签记录：汇签类型ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>汇签记录：是否保留待办权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>counterSignature.csRetain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不填写，默认为0
+1表示保留待办权限，为主动结束汇签保留权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2798,8 +3019,25 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2827,6 +3065,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3017,7 +3273,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3066,6 +3322,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3090,11 +3358,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3541,14 +3821,14 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="17" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="21" t="s">
         <v>245</v>
       </c>
     </row>
@@ -3556,48 +3836,48 @@
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="17"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="21"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="17"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="21"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="17"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="21"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -3646,14 +3926,14 @@
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
@@ -3748,182 +4028,182 @@
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
     </row>
     <row r="17" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="25" t="s">
         <v>241</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="20"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="20"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="20"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="20"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="20"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="20"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
     </row>
     <row r="27" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="20"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="20"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="20"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="20"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="20"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="20"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="20"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="20"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="20"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -3956,7 +4236,7 @@
   </sheetPr>
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -3975,59 +4255,59 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="22" t="s">
         <v>264</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -4115,14 +4395,14 @@
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
@@ -4227,182 +4507,182 @@
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
     </row>
     <row r="19" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="20"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="20"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="20"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="20"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="20"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="20"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="20"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
     </row>
     <row r="29" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="20"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="20"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="20"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="20"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="20"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="20"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="20"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="20"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="20"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4452,14 +4732,14 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="17" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="21" t="s">
         <v>254</v>
       </c>
     </row>
@@ -4467,50 +4747,50 @@
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="17"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="21"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="17"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="21"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="17"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="21"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -4674,14 +4954,14 @@
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
@@ -4786,182 +5066,182 @@
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
     </row>
     <row r="23" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="20"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="20"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="20"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="20"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="20"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="20"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="20"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
     </row>
     <row r="33" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="25" t="s">
         <v>249</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="20"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="20"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="20"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="20"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="20"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="20"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="20"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="20"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="20"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
+      <c r="A42" s="24"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -5012,14 +5292,14 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="17" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="21" t="s">
         <v>254</v>
       </c>
     </row>
@@ -5027,50 +5307,50 @@
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="17"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="21"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="17"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="21"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="17"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="21"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -5234,14 +5514,14 @@
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
@@ -5346,182 +5626,182 @@
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
     </row>
     <row r="23" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="20"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="20"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="20"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="20"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="20"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="20"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="20"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
     </row>
     <row r="33" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="25" t="s">
         <v>253</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="20"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="20"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="20"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="20"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="20"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="20"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="20"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="20"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="20"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
+      <c r="A42" s="24"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -5572,14 +5852,14 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="22" t="s">
         <v>256</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="17" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="21" t="s">
         <v>257</v>
       </c>
     </row>
@@ -5587,50 +5867,50 @@
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="22" t="s">
         <v>267</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="17"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="21"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="17"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="21"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="22" t="s">
         <v>255</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="17"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="21"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -5794,14 +6074,14 @@
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
@@ -5906,182 +6186,182 @@
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
     </row>
     <row r="23" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="20"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="20"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="20"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="20"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="20"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="20"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="20"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
     </row>
     <row r="33" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="25" t="s">
         <v>259</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="20"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="20"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="20"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="20"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="20"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="20"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="20"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="20"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="20"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
+      <c r="A42" s="24"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -6133,14 +6413,14 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="17" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="21" t="s">
         <v>257</v>
       </c>
     </row>
@@ -6148,50 +6428,50 @@
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="22" t="s">
         <v>267</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="17"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="21"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="17"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="21"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="17"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="21"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -6355,14 +6635,14 @@
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
@@ -6467,182 +6747,182 @@
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
     </row>
     <row r="23" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="25" t="s">
         <v>261</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="20"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="20"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="20"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="20"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="20"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="20"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="20"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
     </row>
     <row r="33" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="25" t="s">
         <v>262</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="20"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="20"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="20"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="20"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="20"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="20"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="20"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="20"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="20"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
+      <c r="A42" s="24"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -6690,57 +6970,57 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -6778,7 +7058,7 @@
       <c r="E7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="26" t="s">
         <v>60</v>
       </c>
     </row>
@@ -6798,7 +7078,7 @@
       <c r="E8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="23"/>
+      <c r="F8" s="27"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
@@ -6809,14 +7089,14 @@
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
@@ -6995,182 +7275,182 @@
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="20"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="20"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="20"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="20"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="20"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="20"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="20"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="20"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="20"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="20"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="20"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="20"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="20"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="20"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="20"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="20"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -7221,14 +7501,14 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="17" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="21" t="s">
         <v>300</v>
       </c>
     </row>
@@ -7236,50 +7516,50 @@
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="22" t="s">
         <v>312</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="17"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="21"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="17"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="21"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="22" t="s">
         <v>268</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="17"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="21"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -7317,7 +7597,7 @@
       <c r="E7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="43" t="s">
         <v>60</v>
       </c>
     </row>
@@ -7337,7 +7617,7 @@
       <c r="E8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="36"/>
+      <c r="F8" s="44"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
@@ -7466,7 +7746,7 @@
       <c r="E15" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="35" t="s">
+      <c r="F15" s="43" t="s">
         <v>287</v>
       </c>
     </row>
@@ -7486,7 +7766,7 @@
       <c r="E16" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="40"/>
+      <c r="F16" s="48"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
@@ -7504,7 +7784,7 @@
       <c r="E17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="40"/>
+      <c r="F17" s="48"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
@@ -7522,7 +7802,7 @@
       <c r="E18" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="36"/>
+      <c r="F18" s="44"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
@@ -7533,14 +7813,14 @@
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="39"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="47"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
@@ -7899,182 +8179,182 @@
       <c r="F40" s="4"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="37" t="s">
+      <c r="A41" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="39"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="47"/>
     </row>
     <row r="42" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="20" t="s">
+      <c r="A42" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B42" s="26" t="s">
+      <c r="B42" s="34" t="s">
         <v>288</v>
       </c>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="28"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="36"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="20"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="31"/>
+      <c r="A43" s="24"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="39"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="20"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="31"/>
+      <c r="A44" s="24"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="39"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="20"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="31"/>
+      <c r="A45" s="24"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="39"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="20"/>
-      <c r="B46" s="29"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="31"/>
+      <c r="A46" s="24"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="39"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="20"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="31"/>
+      <c r="A47" s="24"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="39"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="20"/>
-      <c r="B48" s="29"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="31"/>
+      <c r="A48" s="24"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="39"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="20"/>
-      <c r="B49" s="29"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="31"/>
+      <c r="A49" s="24"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="39"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="20"/>
-      <c r="B50" s="29"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="31"/>
+      <c r="A50" s="24"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="39"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="20"/>
-      <c r="B51" s="32"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="34"/>
+      <c r="A51" s="24"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="42"/>
     </row>
     <row r="52" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="20" t="s">
+      <c r="A52" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B52" s="26" t="s">
+      <c r="B52" s="34" t="s">
         <v>289</v>
       </c>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="28"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="36"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="20"/>
-      <c r="B53" s="29"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="31"/>
+      <c r="A53" s="24"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="39"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="20"/>
-      <c r="B54" s="29"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="31"/>
+      <c r="A54" s="24"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="39"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="20"/>
-      <c r="B55" s="29"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="31"/>
+      <c r="A55" s="24"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="39"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="20"/>
-      <c r="B56" s="29"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="30"/>
-      <c r="F56" s="31"/>
+      <c r="A56" s="24"/>
+      <c r="B56" s="37"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="39"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="20"/>
-      <c r="B57" s="29"/>
-      <c r="C57" s="30"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="31"/>
+      <c r="A57" s="24"/>
+      <c r="B57" s="37"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="38"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="39"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="20"/>
-      <c r="B58" s="29"/>
-      <c r="C58" s="30"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="30"/>
-      <c r="F58" s="31"/>
+      <c r="A58" s="24"/>
+      <c r="B58" s="37"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="38"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="39"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="20"/>
-      <c r="B59" s="29"/>
-      <c r="C59" s="30"/>
-      <c r="D59" s="30"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="31"/>
+      <c r="A59" s="24"/>
+      <c r="B59" s="37"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="38"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="39"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="20"/>
-      <c r="B60" s="29"/>
-      <c r="C60" s="30"/>
-      <c r="D60" s="30"/>
-      <c r="E60" s="30"/>
-      <c r="F60" s="31"/>
+      <c r="A60" s="24"/>
+      <c r="B60" s="37"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="38"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="39"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="20"/>
-      <c r="B61" s="32"/>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="34"/>
+      <c r="A61" s="24"/>
+      <c r="B61" s="40"/>
+      <c r="C61" s="41"/>
+      <c r="D61" s="41"/>
+      <c r="E61" s="41"/>
+      <c r="F61" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -8128,14 +8408,14 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="22" t="s">
         <v>301</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="17" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="21" t="s">
         <v>300</v>
       </c>
     </row>
@@ -8143,50 +8423,50 @@
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="22" t="s">
         <v>302</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="17"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="21"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="17"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="21"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="22" t="s">
         <v>303</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="17"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="21"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -8224,7 +8504,7 @@
       <c r="E7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="43" t="s">
         <v>60</v>
       </c>
     </row>
@@ -8244,7 +8524,7 @@
       <c r="E8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="36"/>
+      <c r="F8" s="44"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
@@ -8255,14 +8535,14 @@
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="39"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="47"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
@@ -8621,182 +8901,182 @@
       <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="37" t="s">
+      <c r="A31" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="39"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="47"/>
     </row>
     <row r="32" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="34" t="s">
         <v>305</v>
       </c>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="28"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="36"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="20"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="31"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="39"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="20"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="31"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="39"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="20"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="31"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="39"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="20"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="31"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="39"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="20"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="31"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="39"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="20"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="31"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="39"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="20"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="31"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="39"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="20"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="31"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="39"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="20"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="34"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="42"/>
     </row>
     <row r="42" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="20" t="s">
+      <c r="A42" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="26" t="s">
+      <c r="B42" s="34" t="s">
         <v>304</v>
       </c>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="28"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="36"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="20"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="31"/>
+      <c r="A43" s="24"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="39"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="20"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="31"/>
+      <c r="A44" s="24"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="39"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="20"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="31"/>
+      <c r="A45" s="24"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="39"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="20"/>
-      <c r="B46" s="29"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="31"/>
+      <c r="A46" s="24"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="39"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="20"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="31"/>
+      <c r="A47" s="24"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="39"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="20"/>
-      <c r="B48" s="29"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="31"/>
+      <c r="A48" s="24"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="39"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="20"/>
-      <c r="B49" s="29"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="31"/>
+      <c r="A49" s="24"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="39"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="20"/>
-      <c r="B50" s="29"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="31"/>
+      <c r="A50" s="24"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="39"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="20"/>
-      <c r="B51" s="32"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="34"/>
+      <c r="A51" s="24"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -8846,57 +9126,57 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -9093,14 +9373,14 @@
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
@@ -9226,182 +9506,182 @@
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
     </row>
     <row r="26" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="20"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="20"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="20"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="20"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="20"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="20"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="20"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="20"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="20"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
     </row>
     <row r="36" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="20" t="s">
+      <c r="A36" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="20"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="20"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="20"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="20"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="20"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="20"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
+      <c r="A42" s="24"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="20"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
+      <c r="A43" s="24"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="20"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
+      <c r="A44" s="24"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="20"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
+      <c r="A45" s="24"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -9449,57 +9729,57 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -9649,7 +9929,7 @@
       <c r="E13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="26" t="s">
         <v>60</v>
       </c>
     </row>
@@ -9669,7 +9949,7 @@
       <c r="E14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="23"/>
+      <c r="F14" s="27"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
@@ -9680,14 +9960,14 @@
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
@@ -9923,182 +10203,182 @@
       <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="20"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="20"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="20"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="20"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="20"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="20"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="20"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="20"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="20"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="20" t="s">
+      <c r="A40" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="25" t="s">
         <v>238</v>
       </c>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="20"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="20"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
+      <c r="A42" s="24"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="20"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
+      <c r="A43" s="24"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="20"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
+      <c r="A44" s="24"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="20"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
+      <c r="A45" s="24"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="20"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
+      <c r="A46" s="24"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="20"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
+      <c r="A47" s="24"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="20"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
+      <c r="A48" s="24"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="20"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
+      <c r="A49" s="24"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -10126,80 +10406,81 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A38" sqref="A35:XFD38"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.46484375" style="1" customWidth="1"/>
     <col min="2" max="2" width="33.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.796875" customWidth="1"/>
+    <col min="3" max="3" width="36.59765625" customWidth="1"/>
     <col min="4" max="4" width="23.796875" style="2" customWidth="1"/>
     <col min="5" max="5" width="8.53125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="38.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="50.59765625" customWidth="1"/>
     <col min="7" max="7" width="20.53125" customWidth="1"/>
+    <col min="8" max="8" width="37.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -10219,7 +10500,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -10237,7 +10518,7 @@
       </c>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>39</v>
       </c>
@@ -10255,7 +10536,7 @@
       </c>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>40</v>
       </c>
@@ -10273,7 +10554,7 @@
       </c>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>41</v>
       </c>
@@ -10291,7 +10572,7 @@
       </c>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>42</v>
       </c>
@@ -10311,7 +10592,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>43</v>
       </c>
@@ -10331,7 +10612,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>47</v>
       </c>
@@ -10347,11 +10628,11 @@
       <c r="E13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="26" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>48</v>
       </c>
@@ -10367,9 +10648,9 @@
       <c r="E14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="23"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F14" s="27"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>70</v>
       </c>
@@ -10385,12 +10666,17 @@
       <c r="E15" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="24" t="s">
+      <c r="F15" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="G15" s="29" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15" s="14" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>71</v>
       </c>
@@ -10407,9 +10693,9 @@
         <v>28</v>
       </c>
       <c r="F16" s="10"/>
-      <c r="G16" s="24"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G16" s="29"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>72</v>
       </c>
@@ -10425,12 +10711,15 @@
       <c r="E17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="G17" s="24"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G17" s="29"/>
+      <c r="H17" s="14" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>73</v>
       </c>
@@ -10446,10 +10735,10 @@
       <c r="E18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="24"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F18" s="27"/>
+      <c r="G18" s="29"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>74</v>
       </c>
@@ -10466,9 +10755,9 @@
         <v>28</v>
       </c>
       <c r="F19" s="10"/>
-      <c r="G19" s="24"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G19" s="29"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>145</v>
       </c>
@@ -10485,9 +10774,9 @@
         <v>28</v>
       </c>
       <c r="F20" s="10"/>
-      <c r="G20" s="24"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G20" s="29"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>146</v>
       </c>
@@ -10504,11 +10793,11 @@
         <v>13</v>
       </c>
       <c r="F21" s="10"/>
-      <c r="G21" s="25" t="s">
+      <c r="G21" s="30" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>147</v>
       </c>
@@ -10527,9 +10816,9 @@
       <c r="F22" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="G22" s="25"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G22" s="30"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>148</v>
       </c>
@@ -10545,12 +10834,15 @@
       <c r="E23" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F23" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="G23" s="25"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G23" s="30"/>
+      <c r="H23" s="14" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>153</v>
       </c>
@@ -10566,10 +10858,10 @@
       <c r="E24" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="23"/>
-      <c r="G24" s="25"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F24" s="27"/>
+      <c r="G24" s="30"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>199</v>
       </c>
@@ -10586,9 +10878,9 @@
         <v>28</v>
       </c>
       <c r="F25" s="10"/>
-      <c r="G25" s="25"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G25" s="30"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>200</v>
       </c>
@@ -10605,9 +10897,9 @@
         <v>28</v>
       </c>
       <c r="F26" s="10"/>
-      <c r="G26" s="25"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G26" s="30"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>201</v>
       </c>
@@ -10623,11 +10915,11 @@
       <c r="E27" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="22" t="s">
+      <c r="F27" s="26" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>202</v>
       </c>
@@ -10643,9 +10935,9 @@
       <c r="E28" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="23"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F28" s="27"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>203</v>
       </c>
@@ -10663,7 +10955,7 @@
       </c>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>204</v>
       </c>
@@ -10681,7 +10973,7 @@
       </c>
       <c r="F30" s="10"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>205</v>
       </c>
@@ -10699,310 +10991,577 @@
       </c>
       <c r="F31" s="10"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B32" s="3"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="16" t="s">
+    <row r="32" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="H32" s="28" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="H33" s="28"/>
+    </row>
+    <row r="34" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="H34" s="28"/>
+    </row>
+    <row r="35" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="H35" s="28"/>
+    </row>
+    <row r="36" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="H36" s="28"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" s="31" t="s">
+        <v>337</v>
+      </c>
+      <c r="H37" s="28"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" s="32"/>
+      <c r="H38" s="28"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>355</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39" s="32"/>
+      <c r="H39" s="28"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>356</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" s="33"/>
+      <c r="H40" s="28"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F41" s="15"/>
+      <c r="H41" s="28"/>
+    </row>
+    <row r="42" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>370</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="H42" s="28"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="H43" s="28"/>
+    </row>
+    <row r="44" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="H44" s="28"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B45" s="3"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B47" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C47" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D47" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E47" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F47" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B48" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C48" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D48" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E48" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F35" s="4"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B49" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C49" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D49" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F36" s="4"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
+      <c r="E49" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B50" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C50" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D50" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="E37" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F37" s="4" t="s">
+      <c r="E50" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F50" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B51" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C51" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D51" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E38" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F38" s="4"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="3"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="4"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="16" t="s">
+      <c r="E51" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="3"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-    </row>
-    <row r="41" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="20" t="s">
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+    </row>
+    <row r="54" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="B54" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="20"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="20"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="20"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="20"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="20"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="20"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="20"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="20"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="20"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-    </row>
-    <row r="51" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="20" t="s">
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="24"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="24"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="24"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="24"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="24"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="24"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="24"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="24"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="24"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="22"/>
+    </row>
+    <row r="64" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B51" s="21" t="s">
+      <c r="B64" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="20"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="20"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="20"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="20"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="20"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="20"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="20"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="20"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="20"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="24"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="24"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="24"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="24"/>
+      <c r="B68" s="22"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="22"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="24"/>
+      <c r="B69" s="22"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="24"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="22"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="24"/>
+      <c r="B71" s="22"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="22"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="24"/>
+      <c r="B72" s="22"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="22"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="24"/>
+      <c r="B73" s="22"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="A41:A50"/>
-    <mergeCell ref="B41:F50"/>
-    <mergeCell ref="A51:A60"/>
-    <mergeCell ref="B51:F60"/>
+  <mergeCells count="19">
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="A54:A63"/>
+    <mergeCell ref="B54:F63"/>
+    <mergeCell ref="A64:A73"/>
+    <mergeCell ref="B64:F73"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
@@ -11010,27 +11569,29 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="G15:G20"/>
     <mergeCell ref="G21:G26"/>
-    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A46:F46"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="F23:F24"/>
     <mergeCell ref="F27:F28"/>
     <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F37:F40"/>
+    <mergeCell ref="H32:H44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -11041,74 +11602,75 @@
     <col min="4" max="4" width="23.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="8.53125" style="2" customWidth="1"/>
     <col min="6" max="6" width="44.53125" customWidth="1"/>
-    <col min="7" max="8" width="20.53125" customWidth="1"/>
+    <col min="7" max="7" width="20.53125" customWidth="1"/>
+    <col min="8" max="8" width="37.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="17" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="H1" s="21" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="17"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="H2" s="21"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="17"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="H3" s="21"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="17"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="H4" s="21"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
@@ -11128,7 +11690,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -11146,7 +11708,7 @@
       </c>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>39</v>
       </c>
@@ -11164,7 +11726,7 @@
       </c>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>40</v>
       </c>
@@ -11182,7 +11744,7 @@
       </c>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>41</v>
       </c>
@@ -11200,7 +11762,7 @@
       </c>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>42</v>
       </c>
@@ -11220,7 +11782,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>43</v>
       </c>
@@ -11240,7 +11802,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>47</v>
       </c>
@@ -11256,11 +11818,11 @@
       <c r="E13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="26" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>48</v>
       </c>
@@ -11276,9 +11838,9 @@
       <c r="E14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="23"/>
-    </row>
-    <row r="15" spans="1:7" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="F14" s="27"/>
+    </row>
+    <row r="15" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>70</v>
       </c>
@@ -11297,11 +11859,11 @@
       <c r="F15" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="H15" s="14" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>71</v>
       </c>
@@ -11318,11 +11880,11 @@
         <v>13</v>
       </c>
       <c r="F16" s="10"/>
-      <c r="G16" s="24" t="s">
+      <c r="G16" s="29" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>72</v>
       </c>
@@ -11339,9 +11901,9 @@
         <v>28</v>
       </c>
       <c r="F17" s="10"/>
-      <c r="G17" s="24"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G17" s="29"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>73</v>
       </c>
@@ -11357,12 +11919,15 @@
       <c r="E18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="G18" s="24"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G18" s="29"/>
+      <c r="H18" s="14" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>74</v>
       </c>
@@ -11378,10 +11943,10 @@
       <c r="E19" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="23"/>
-      <c r="G19" s="24"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F19" s="27"/>
+      <c r="G19" s="29"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>145</v>
       </c>
@@ -11398,9 +11963,9 @@
         <v>28</v>
       </c>
       <c r="F20" s="10"/>
-      <c r="G20" s="24"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G20" s="29"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>146</v>
       </c>
@@ -11417,9 +11982,9 @@
         <v>28</v>
       </c>
       <c r="F21" s="10"/>
-      <c r="G21" s="24"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G21" s="29"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>147</v>
       </c>
@@ -11436,11 +12001,11 @@
         <v>13</v>
       </c>
       <c r="F22" s="10"/>
-      <c r="G22" s="25" t="s">
+      <c r="G22" s="30" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>148</v>
       </c>
@@ -11459,9 +12024,9 @@
       <c r="F23" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="G23" s="25"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G23" s="30"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>153</v>
       </c>
@@ -11477,12 +12042,15 @@
       <c r="E24" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="22" t="s">
+      <c r="F24" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="G24" s="25"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G24" s="30"/>
+      <c r="H24" s="14" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>199</v>
       </c>
@@ -11498,10 +12066,10 @@
       <c r="E25" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="23"/>
-      <c r="G25" s="25"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F25" s="27"/>
+      <c r="G25" s="30"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>200</v>
       </c>
@@ -11518,9 +12086,9 @@
         <v>28</v>
       </c>
       <c r="F26" s="10"/>
-      <c r="G26" s="25"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G26" s="30"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>201</v>
       </c>
@@ -11537,9 +12105,9 @@
         <v>28</v>
       </c>
       <c r="F27" s="10"/>
-      <c r="G27" s="25"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G27" s="30"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>202</v>
       </c>
@@ -11557,7 +12125,7 @@
       </c>
       <c r="F28" s="10"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>203</v>
       </c>
@@ -11575,7 +12143,7 @@
       </c>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>204</v>
       </c>
@@ -11593,7 +12161,7 @@
       </c>
       <c r="F30" s="10"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -11601,15 +12169,15 @@
       <c r="E31" s="5"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="16" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
@@ -11714,182 +12282,182 @@
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
     </row>
     <row r="40" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="20" t="s">
+      <c r="A40" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="25" t="s">
         <v>229</v>
       </c>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="20"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="20"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
+      <c r="A42" s="24"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="20"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
+      <c r="A43" s="24"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="20"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
+      <c r="A44" s="24"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="20"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
+      <c r="A45" s="24"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="20"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
+      <c r="A46" s="24"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="20"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
+      <c r="A47" s="24"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="20"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
+      <c r="A48" s="24"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="20"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
+      <c r="A49" s="24"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
     </row>
     <row r="50" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="20" t="s">
+      <c r="A50" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B50" s="21" t="s">
+      <c r="B50" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="20"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
+      <c r="A51" s="24"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="20"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
+      <c r="A52" s="24"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="20"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
+      <c r="A53" s="24"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="20"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
+      <c r="A54" s="24"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="20"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
+      <c r="A55" s="24"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="20"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
+      <c r="A56" s="24"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="20"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
+      <c r="A57" s="24"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="20"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
+      <c r="A58" s="24"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="20"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
+      <c r="A59" s="24"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -11907,7 +12475,7 @@
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="H1:H4"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
   </mergeCells>
@@ -11943,14 +12511,14 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="22" t="s">
         <v>308</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="17" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="21" t="s">
         <v>307</v>
       </c>
     </row>
@@ -11958,50 +12526,50 @@
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="22" t="s">
         <v>309</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="17"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="21"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="17"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="21"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="22" t="s">
         <v>306</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="17"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="21"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -12039,7 +12607,7 @@
       <c r="E7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="43" t="s">
         <v>60</v>
       </c>
     </row>
@@ -12059,7 +12627,7 @@
       <c r="E8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="36"/>
+      <c r="F8" s="44"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
@@ -12217,14 +12785,14 @@
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="39"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="47"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
@@ -12329,182 +12897,182 @@
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="39"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="47"/>
     </row>
     <row r="26" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="34" t="s">
         <v>310</v>
       </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="28"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="36"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="20"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="31"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="39"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="20"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="31"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="39"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="20"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="31"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="39"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="20"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="31"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="39"/>
     </row>
     <row r="31" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="20"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="31"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="39"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="20"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="31"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="39"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="20"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="31"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="39"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="20"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="31"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="39"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="20"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="34"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="42"/>
     </row>
     <row r="36" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="20" t="s">
+      <c r="A36" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="34" t="s">
         <v>311</v>
       </c>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="28"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="36"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="20"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="31"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="39"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="20"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="31"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="39"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="20"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="31"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="39"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="20"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="31"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="39"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="20"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="31"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="39"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="20"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="31"/>
+      <c r="A42" s="24"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="39"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="20"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="31"/>
+      <c r="A43" s="24"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="39"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="20"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="31"/>
+      <c r="A44" s="24"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="39"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="20"/>
-      <c r="B45" s="32"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="34"/>
+      <c r="A45" s="24"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -12557,59 +13125,59 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -12773,14 +13341,14 @@
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
@@ -12885,182 +13453,182 @@
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
     </row>
     <row r="23" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="20"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="20"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="20"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="20"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="20"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="20"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="20"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
     </row>
     <row r="33" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="20"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="20"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="20"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="20"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="20"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="20"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="20"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="20"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="20"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
+      <c r="A42" s="24"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -13111,59 +13679,59 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -13327,14 +13895,14 @@
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
@@ -13439,182 +14007,182 @@
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
     </row>
     <row r="23" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="20"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="20"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="20"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="20"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="20"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="20"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="20"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
     </row>
     <row r="33" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="20"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="20"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="20"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="20"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="20"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="20"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="20"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="20"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="20"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
+      <c r="A42" s="24"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -13664,59 +14232,59 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="22" t="s">
         <v>264</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -13804,14 +14372,14 @@
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
@@ -13916,182 +14484,182 @@
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
     </row>
     <row r="19" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="20"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="20"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="20"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="20"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="20"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="20"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="20"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
     </row>
     <row r="29" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="20"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
+      <c r="A30" s="24"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="20"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="20"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="20"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="20"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="20"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="20"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="20"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="20"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/doc/工作流接口说明.xlsx
+++ b/doc/工作流接口说明.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\XFlowWeb\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CE7681-A468-4FF5-84FD-F34567FE2973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A7831F-2A34-4985-B5A9-8AE41C2D21AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" tabRatio="855" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" tabRatio="885" firstSheet="1" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="加载&amp;更新模板" sheetId="12" r:id="rId1"/>
@@ -27,9 +27,10 @@
     <sheet name="督办.业务ID" sheetId="14" r:id="rId12"/>
     <sheet name="督查.实例ID" sheetId="15" r:id="rId13"/>
     <sheet name="督查.业务ID" sheetId="16" r:id="rId14"/>
-    <sheet name="查询汇总情况" sheetId="10" r:id="rId15"/>
+    <sheet name="汇总查询" sheetId="10" r:id="rId15"/>
     <sheet name="备注.添加" sheetId="18" r:id="rId16"/>
     <sheet name="备注.查询" sheetId="20" r:id="rId17"/>
+    <sheet name="汇签查询" sheetId="23" r:id="rId18"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1863" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2083" uniqueCount="438">
   <si>
     <t>接口名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -791,10 +792,6 @@
   </si>
   <si>
     <t>FlowProcess.summary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询汇总情况</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2813,11 +2810,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>过期后自动向下转流。不填写无此功能
-格式为：YYYY-MM-DD HH24:MI:SS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>汇签人数等于此值后，将触发自动向下流转。
 0表示不向下流转，须人工流转</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2869,14 +2861,6 @@
   </si>
   <si>
     <t>counterSignature.csComment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇签下发：应当汇签人数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇签下发：最小汇签人数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2962,6 +2946,375 @@
   <si>
     <t>不填写，默认为0
 1表示保留待办权限，为主动结束汇签保留权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇签下发：应当汇签人数（应签）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇签下发：最小汇签人数（需签）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过期后自动向下转流。不填写无此功能
+应签与需签同时为0时，必须有过期时间
+格式为：YYYY-MM-DD HH24:MI:SS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇总查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I016QueryCounterSignatures</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>counterSignature.processID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>counterSignature.csUserID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作流流转过程ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">汇签记录：汇签人编号 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-04-10新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "body": [
+        {
+            "createOrg": "",
+            "createOrgID": "",
+            "createTime": "2024-04-11 00:16:49",
+            "creater": "目老师",
+            "createrID": "目老师",
+            "csComment": "",
+            "csDatas": "",
+            "csExpireTime": "10000-01-01 13:59:59",
+            "csFiles": "",
+            "csFinish": "",
+            "csFinishTime": "2024-04-11 13:18:23",
+            "csLastTime": "",
+            "csMaxUserCount": 2,
+            "csMinUserCount": 0,
+            "csOrg": "",
+            "csOrgID": "",
+            "csRetain": "",
+            "csTime": "",
+            "csType": "",
+            "csTypeCount": "",
+            "csTypeID": "",
+            "csUser": "",
+            "csUserCount": 2,
+            "csUserID": "",
+            "logs": [
+                {
+                    "createOrg": "",
+                    "createOrgID": "",
+                    "createTime": "",
+                    "creater": "",
+                    "createrID": "",
+                    "csComment": "",
+                    "csDatas": "",
+                    "csExpireTime": "",
+                    "csFiles": "",
+                    "csFinish": "",
+                    "csFinishTime": "",
+                    "csLastTime": "",
+                    "csMaxUserCount": "",
+                    "csMinUserCount": "",
+                    "csOrg": "",
+                    "csOrgID": "",
+                    "csRetain": "",
+                    "csTime": "2024-04-11 00:18:23",
+                    "csType": "",
+                    "csTypeCount": "",
+                    "csTypeID": "",
+                    "csUser": "阿伟",
+                    "csUserCount": 0,
+                    "csUserID": "阿伟",
+                    "logs": "",
+                    "pcsID": "PCS224B1DF4BFD048AF9C7098373052AEDF",
+                    "pcslID": "PCSLAA288B0974EF47BEBBF92D74AE609375",
+                    "processID": "XF986F98AD01364E6ABA9463805DDED051",
+                    "serviceDataID": "202404-005",
+                    "workID": "XF92A01677FBEE42C7B85035A648DFEEAD"
+                },
+                {
+                    "createOrg": "",
+                    "createOrgID": "",
+                    "createTime": "",
+                    "creater": "",
+                    "createrID": "",
+                    "csComment": "老师，我们有一道题不会",
+                    "csDatas": "",
+                    "csExpireTime": "",
+                    "csFiles": "",
+                    "csFinish": "",
+                    "csFinishTime": "",
+                    "csLastTime": "",
+                    "csMaxUserCount": "",
+                    "csMinUserCount": "",
+                    "csOrg": "",
+                    "csOrgID": "",
+                    "csRetain": "",
+                    "csTime": "2024-04-11 00:19:41",
+                    "csType": "",
+                    "csTypeCount": "",
+                    "csTypeID": "",
+                    "csUser": "开心",
+                    "csUserCount": 0,
+                    "csUserID": "开心",
+                    "logs": "",
+                    "pcsID": "PCS224B1DF4BFD048AF9C7098373052AEDF",
+                    "pcslID": "PCSL9818640F55F441B09590CD9E7AAB84F1",
+                    "processID": "XF986F98AD01364E6ABA9463805DDED051",
+                    "serviceDataID": "202404-005",
+                    "workID": "XF92A01677FBEE42C7B85035A648DFEEAD"
+                }
+            ],
+            "pcsID": "PCS224B1DF4BFD048AF9C7098373052AEDF",
+            "pcslID": "",
+            "processID": "XF986F98AD01364E6ABA9463805DDED051",
+            "serviceDataID": "202404-005",
+            "workID": "XF92A01677FBEE42C7B85035A648DFEEAD"
+        }
+    ],
+    "encry": "",
+    "format": "",
+    "rc": "0",
+    "result": true,
+    "ri": "",
+    "serialNo": "2024041011571803938074XFlowWeb",
+    "session": "",
+    "sid": "I016QueryCounterSignatures",
+    "sidv": "",
+    "sign": "",
+    "sysid": "xx",
+    "tokenSec": ""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "sysid": "xx",
+    "sid": "I016QueryCounterSignatures",
+    "body": {
+       "serviceDataID": "202404-005"
+    }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇签相关所有流转信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;ProcessCounterSignature&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇签查询（包括：活动库、历史库）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ProcessCounterSignature.pcsID         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProcessCounterSignature.processID     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProcessCounterSignature.workID        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProcessCounterSignature.serviceDataID </t>
+  </si>
+  <si>
+    <t>ProcessCounterSignature.csMaxUserCount</t>
+  </si>
+  <si>
+    <t>ProcessCounterSignature.csMinUserCount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProcessCounterSignature.csExpireTime  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProcessCounterSignature.csFinishTime  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProcessCounterSignature.createrID     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProcessCounterSignature.creater       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProcessCounterSignature.createOrgID   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProcessCounterSignature.createOrg     </t>
+  </si>
+  <si>
+    <t>17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ProcessCounterSignature.createTime    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ProcessCounterSignature.logs    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇签记录的集合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;ProcessCounterSignatureLog&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ProcessCounterSignatureLog.pcslID       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProcessCounterSignatureLog.pcsID        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProcessCounterSignatureLog.processID    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProcessCounterSignatureLog.workID       </t>
+  </si>
+  <si>
+    <t>ProcessCounterSignatureLog.serviceDataID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProcessCounterSignatureLog.csTime       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProcessCounterSignatureLog.csTypeID     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProcessCounterSignatureLog.csType       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProcessCounterSignatureLog.csUserID     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProcessCounterSignatureLog.csUser       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProcessCounterSignatureLog.csOrgID      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProcessCounterSignatureLog.csOrg        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProcessCounterSignatureLog.csFiles      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProcessCounterSignatureLog.csDatas      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProcessCounterSignatureLog.csComment    </t>
+  </si>
+  <si>
+    <t>汇签记录：汇签人名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">汇签记录：汇签人部门编号 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇签记录：汇签人部门名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇签信息按时间线倒排、汇签记录按时间线正排</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇签记录：第三方使用系统的业务数据ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇签记录：工作流实例ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇签记录：工作流的过程ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇签记录：汇签信息的ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇签记录：汇签记录的ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇签信息：创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇签信息：创建部门名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇签信息：创建部门ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇签信息：创建人员名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇签信息：创建人员ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇签信息：汇签完成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇签信息：汇签过期时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇签信息：最小汇签人数（需签）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇签信息：应当汇签人数（应签）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇签信息：第三方使用系统的业务数据ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇签信息：工作流实例ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇签信息：工作流的过程ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇签信息：汇签信息的ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3037,7 +3390,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3083,6 +3436,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3273,7 +3632,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3361,6 +3720,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3420,6 +3782,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3822,14 +4196,14 @@
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
       <c r="E1" s="22"/>
       <c r="F1" s="22"/>
       <c r="G1" s="21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -3861,7 +4235,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
@@ -3999,10 +4373,10 @@
         <v>49</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>242</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>243</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>28</v>
@@ -4042,7 +4416,7 @@
         <v>19</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
@@ -4126,7 +4500,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
@@ -4268,7 +4642,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
@@ -4367,13 +4741,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>317</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>318</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>11</v>
@@ -4383,7 +4757,7 @@
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -4733,14 +5107,14 @@
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
       <c r="E1" s="22"/>
       <c r="F1" s="22"/>
       <c r="G1" s="21" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -4748,7 +5122,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
@@ -4774,7 +5148,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
@@ -4926,13 +5300,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>317</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>318</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>11</v>
@@ -4942,7 +5316,7 @@
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -5080,7 +5454,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
@@ -5164,7 +5538,7 @@
         <v>20</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C33" s="22"/>
       <c r="D33" s="22"/>
@@ -5293,14 +5667,14 @@
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
       <c r="E1" s="22"/>
       <c r="F1" s="22"/>
       <c r="G1" s="21" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -5308,7 +5682,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
@@ -5334,7 +5708,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
@@ -5486,13 +5860,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>317</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>318</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>11</v>
@@ -5502,7 +5876,7 @@
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -5640,7 +6014,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
@@ -5724,7 +6098,7 @@
         <v>20</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C33" s="22"/>
       <c r="D33" s="22"/>
@@ -5853,14 +6227,14 @@
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
       <c r="E1" s="22"/>
       <c r="F1" s="22"/>
       <c r="G1" s="21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -5868,7 +6242,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
@@ -5894,7 +6268,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
@@ -6046,13 +6420,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>317</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>318</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>11</v>
@@ -6062,7 +6436,7 @@
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -6200,7 +6574,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
@@ -6284,7 +6658,7 @@
         <v>20</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C33" s="22"/>
       <c r="D33" s="22"/>
@@ -6414,14 +6788,14 @@
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
       <c r="E1" s="22"/>
       <c r="F1" s="22"/>
       <c r="G1" s="21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -6429,7 +6803,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
@@ -6455,7 +6829,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
@@ -6607,13 +6981,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>317</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>318</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>11</v>
@@ -6623,7 +6997,7 @@
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -6761,7 +7135,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
@@ -6845,7 +7219,7 @@
         <v>20</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C33" s="22"/>
       <c r="D33" s="22"/>
@@ -6952,8 +7326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -6971,7 +7345,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>113</v>
+        <v>372</v>
       </c>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
@@ -7005,7 +7379,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
@@ -7197,7 +7571,7 @@
         <v>110</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>111</v>
@@ -7212,16 +7586,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>28</v>
@@ -7230,16 +7604,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>28</v>
@@ -7248,22 +7622,22 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -7289,7 +7663,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
@@ -7502,14 +7876,14 @@
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
       <c r="E1" s="22"/>
       <c r="F1" s="22"/>
       <c r="G1" s="21" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -7517,7 +7891,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
@@ -7543,7 +7917,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
@@ -7597,7 +7971,7 @@
       <c r="E7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="43" t="s">
+      <c r="F7" s="44" t="s">
         <v>60</v>
       </c>
     </row>
@@ -7617,14 +7991,14 @@
       <c r="E8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="44"/>
+      <c r="F8" s="45"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>25</v>
@@ -7641,7 +8015,7 @@
         <v>41</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>30</v>
@@ -7659,7 +8033,7 @@
         <v>42</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>33</v>
@@ -7677,7 +8051,7 @@
         <v>43</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>35</v>
@@ -7694,10 +8068,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>37</v>
@@ -7714,13 +8088,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>11</v>
@@ -7735,10 +8109,10 @@
         <v>97</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>11</v>
@@ -7746,19 +8120,19 @@
       <c r="E15" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="43" t="s">
-        <v>287</v>
+      <c r="F15" s="44" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>11</v>
@@ -7766,17 +8140,17 @@
       <c r="E16" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="48"/>
+      <c r="F16" s="49"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>11</v>
@@ -7784,17 +8158,17 @@
       <c r="E17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="48"/>
+      <c r="F17" s="49"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>11</v>
@@ -7802,7 +8176,7 @@
       <c r="E18" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="44"/>
+      <c r="F18" s="45"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
@@ -7813,14 +8187,14 @@
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="47"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="48"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
@@ -7886,10 +8260,10 @@
         <v>49</v>
       </c>
       <c r="C24" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>290</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>291</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>28</v>
@@ -7939,7 +8313,7 @@
         <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>25</v>
@@ -7957,7 +8331,7 @@
         <v>47</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>30</v>
@@ -7975,7 +8349,7 @@
         <v>48</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>33</v>
@@ -7993,7 +8367,7 @@
         <v>70</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>35</v>
@@ -8011,7 +8385,7 @@
         <v>71</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>37</v>
@@ -8029,10 +8403,10 @@
         <v>72</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>11</v>
@@ -8047,10 +8421,10 @@
         <v>73</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>11</v>
@@ -8065,10 +8439,10 @@
         <v>74</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>11</v>
@@ -8080,13 +8454,13 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>11</v>
@@ -8098,13 +8472,13 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>11</v>
@@ -8116,13 +8490,13 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>292</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>293</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>11</v>
@@ -8134,13 +8508,13 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>294</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>295</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>68</v>
@@ -8149,21 +8523,21 @@
         <v>28</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B39" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="D39" s="5" t="s">
         <v>297</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>298</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>28</v>
@@ -8179,182 +8553,182 @@
       <c r="F40" s="4"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="45" t="s">
+      <c r="A41" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="46"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="47"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="48"/>
     </row>
     <row r="42" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B42" s="34" t="s">
-        <v>288</v>
-      </c>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="36"/>
+      <c r="B42" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="37"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="24"/>
-      <c r="B43" s="37"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="39"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="40"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="24"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="39"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="40"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="24"/>
-      <c r="B45" s="37"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="39"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="40"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="24"/>
-      <c r="B46" s="37"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="38"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="39"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="40"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="24"/>
-      <c r="B47" s="37"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="39"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="40"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="24"/>
-      <c r="B48" s="37"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="39"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="40"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="24"/>
-      <c r="B49" s="37"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="39"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="40"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="24"/>
-      <c r="B50" s="37"/>
-      <c r="C50" s="38"/>
-      <c r="D50" s="38"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="39"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="40"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="24"/>
-      <c r="B51" s="40"/>
-      <c r="C51" s="41"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="41"/>
-      <c r="F51" s="42"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="43"/>
     </row>
     <row r="52" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B52" s="34" t="s">
-        <v>289</v>
-      </c>
-      <c r="C52" s="35"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="36"/>
+      <c r="B52" s="35" t="s">
+        <v>288</v>
+      </c>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="37"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="24"/>
-      <c r="B53" s="37"/>
-      <c r="C53" s="38"/>
-      <c r="D53" s="38"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="39"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="40"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="24"/>
-      <c r="B54" s="37"/>
-      <c r="C54" s="38"/>
-      <c r="D54" s="38"/>
-      <c r="E54" s="38"/>
-      <c r="F54" s="39"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="40"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="24"/>
-      <c r="B55" s="37"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="38"/>
-      <c r="E55" s="38"/>
-      <c r="F55" s="39"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="40"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="24"/>
-      <c r="B56" s="37"/>
-      <c r="C56" s="38"/>
-      <c r="D56" s="38"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="39"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="40"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="24"/>
-      <c r="B57" s="37"/>
-      <c r="C57" s="38"/>
-      <c r="D57" s="38"/>
-      <c r="E57" s="38"/>
-      <c r="F57" s="39"/>
+      <c r="B57" s="38"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="40"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="24"/>
-      <c r="B58" s="37"/>
-      <c r="C58" s="38"/>
-      <c r="D58" s="38"/>
-      <c r="E58" s="38"/>
-      <c r="F58" s="39"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="39"/>
+      <c r="D58" s="39"/>
+      <c r="E58" s="39"/>
+      <c r="F58" s="40"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="24"/>
-      <c r="B59" s="37"/>
-      <c r="C59" s="38"/>
-      <c r="D59" s="38"/>
-      <c r="E59" s="38"/>
-      <c r="F59" s="39"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="39"/>
+      <c r="F59" s="40"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="24"/>
-      <c r="B60" s="37"/>
-      <c r="C60" s="38"/>
-      <c r="D60" s="38"/>
-      <c r="E60" s="38"/>
-      <c r="F60" s="39"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="39"/>
+      <c r="F60" s="40"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="24"/>
-      <c r="B61" s="40"/>
-      <c r="C61" s="41"/>
-      <c r="D61" s="41"/>
-      <c r="E61" s="41"/>
-      <c r="F61" s="42"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -8390,7 +8764,7 @@
   <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G1" sqref="G1:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -8409,14 +8783,14 @@
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
       <c r="E1" s="22"/>
       <c r="F1" s="22"/>
       <c r="G1" s="21" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -8424,7 +8798,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
@@ -8450,7 +8824,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
@@ -8504,7 +8878,7 @@
       <c r="E7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="43" t="s">
+      <c r="F7" s="44" t="s">
         <v>60</v>
       </c>
     </row>
@@ -8524,7 +8898,7 @@
       <c r="E8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="44"/>
+      <c r="F8" s="45"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
@@ -8535,14 +8909,14 @@
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="47"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="48"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
@@ -8608,10 +8982,10 @@
         <v>49</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>290</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>291</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>28</v>
@@ -8661,7 +9035,7 @@
         <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>25</v>
@@ -8679,7 +9053,7 @@
         <v>47</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>30</v>
@@ -8697,7 +9071,7 @@
         <v>48</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>33</v>
@@ -8715,7 +9089,7 @@
         <v>70</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>35</v>
@@ -8733,7 +9107,7 @@
         <v>71</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>37</v>
@@ -8751,10 +9125,10 @@
         <v>72</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>11</v>
@@ -8769,10 +9143,10 @@
         <v>73</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>11</v>
@@ -8787,10 +9161,10 @@
         <v>74</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>11</v>
@@ -8802,13 +9176,13 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>11</v>
@@ -8820,13 +9194,13 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>11</v>
@@ -8838,13 +9212,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>292</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>293</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>11</v>
@@ -8856,13 +9230,13 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>294</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>295</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>68</v>
@@ -8871,21 +9245,21 @@
         <v>28</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="D29" s="5" t="s">
         <v>297</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>298</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>28</v>
@@ -8901,182 +9275,182 @@
       <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="47"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="48"/>
     </row>
     <row r="32" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="34" t="s">
-        <v>305</v>
-      </c>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="36"/>
+      <c r="B32" s="35" t="s">
+        <v>304</v>
+      </c>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="37"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="24"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="39"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="40"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="24"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="39"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="40"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="24"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="39"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="40"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="24"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="39"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="40"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="24"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="39"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="40"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="24"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="39"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="40"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="24"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="39"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="40"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="24"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="39"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="40"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="24"/>
-      <c r="B41" s="40"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="42"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="43"/>
     </row>
     <row r="42" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B42" s="34" t="s">
-        <v>304</v>
-      </c>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="36"/>
+      <c r="B42" s="35" t="s">
+        <v>303</v>
+      </c>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="37"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="24"/>
-      <c r="B43" s="37"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="39"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="40"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="24"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="39"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="40"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="24"/>
-      <c r="B45" s="37"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="39"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="40"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="24"/>
-      <c r="B46" s="37"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="38"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="39"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="40"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="24"/>
-      <c r="B47" s="37"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="39"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="40"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="24"/>
-      <c r="B48" s="37"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="39"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="40"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="24"/>
-      <c r="B49" s="37"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="39"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="40"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="24"/>
-      <c r="B50" s="37"/>
-      <c r="C50" s="38"/>
-      <c r="D50" s="38"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="39"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="40"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="24"/>
-      <c r="B51" s="40"/>
-      <c r="C51" s="41"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="41"/>
-      <c r="F51" s="42"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -9103,6 +9477,1045 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90DE9741-D1BF-4988-AD77-690104C9F8FC}">
+  <dimension ref="A1:G69"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.46484375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="51.06640625" customWidth="1"/>
+    <col min="3" max="3" width="58.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.46484375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.53125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22.796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="21" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>419</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="21"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="21"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>373</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="21"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="27"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>364</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>350</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="B32" s="50" t="s">
+        <v>398</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B33" s="51" t="s">
+        <v>401</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B34" s="51" t="s">
+        <v>402</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B35" s="51" t="s">
+        <v>403</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B36" s="51" t="s">
+        <v>404</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B37" s="51" t="s">
+        <v>405</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B38" s="51" t="s">
+        <v>406</v>
+      </c>
+      <c r="C38" s="50" t="s">
+        <v>349</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B39" s="51" t="s">
+        <v>407</v>
+      </c>
+      <c r="C39" s="50" t="s">
+        <v>364</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B40" s="51" t="s">
+        <v>408</v>
+      </c>
+      <c r="C40" s="50" t="s">
+        <v>350</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B41" s="51" t="s">
+        <v>409</v>
+      </c>
+      <c r="C41" s="53" t="s">
+        <v>377</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B42" s="51" t="s">
+        <v>410</v>
+      </c>
+      <c r="C42" s="52" t="s">
+        <v>416</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B43" s="51" t="s">
+        <v>411</v>
+      </c>
+      <c r="C43" s="52" t="s">
+        <v>417</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B44" s="51" t="s">
+        <v>412</v>
+      </c>
+      <c r="C44" s="50" t="s">
+        <v>418</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B45" s="51" t="s">
+        <v>413</v>
+      </c>
+      <c r="C45" s="50" t="s">
+        <v>351</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B46" s="51" t="s">
+        <v>414</v>
+      </c>
+      <c r="C46" s="50" t="s">
+        <v>352</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B47" s="51" t="s">
+        <v>415</v>
+      </c>
+      <c r="C47" s="50" t="s">
+        <v>353</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="3"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="24"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="24"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="24"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="24"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="24"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="24"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="24"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="24"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="24"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="24"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="24"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="24"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="22"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="24"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="24"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="24"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="24"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="24"/>
+      <c r="B68" s="22"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="22"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="24"/>
+      <c r="B69" s="22"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A50:A59"/>
+    <mergeCell ref="B50:F59"/>
+    <mergeCell ref="A60:A69"/>
+    <mergeCell ref="B60:F69"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="F7:F8"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{48205419-3EC5-4522-A480-686F077B4412}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G45"/>
@@ -9478,7 +10891,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>98</v>
@@ -9494,7 +10907,7 @@
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -9710,7 +11123,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
@@ -10036,13 +11449,13 @@
         <v>65</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -10050,19 +11463,19 @@
         <v>41</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>128</v>
-      </c>
       <c r="E21" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -10070,19 +11483,19 @@
         <v>42</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -10090,19 +11503,19 @@
         <v>43</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C23" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -10110,22 +11523,22 @@
         <v>47</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -10133,30 +11546,30 @@
         <v>48</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="108" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>176</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>177</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>67</v>
@@ -10165,33 +11578,33 @@
         <v>28</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C27" s="11" t="s">
+      <c r="E27" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="F27" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>184</v>
-      </c>
       <c r="G27" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -10217,7 +11630,7 @@
         <v>19</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C30" s="22"/>
       <c r="D30" s="22"/>
@@ -10301,7 +11714,7 @@
         <v>20</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C40" s="22"/>
       <c r="D40" s="22"/>
@@ -10408,8 +11821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -10420,7 +11833,7 @@
     <col min="4" max="4" width="23.796875" style="2" customWidth="1"/>
     <col min="5" max="5" width="8.53125" style="2" customWidth="1"/>
     <col min="6" max="6" width="50.59765625" customWidth="1"/>
-    <col min="7" max="7" width="20.53125" customWidth="1"/>
+    <col min="7" max="7" width="18.59765625" customWidth="1"/>
     <col min="8" max="8" width="37.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10655,25 +12068,25 @@
         <v>70</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>195</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>196</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>322</v>
-      </c>
-      <c r="G15" s="29" t="s">
-        <v>222</v>
+        <v>321</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>221</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -10681,29 +12094,29 @@
         <v>71</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>198</v>
-      </c>
       <c r="E16" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F16" s="10"/>
-      <c r="G16" s="29"/>
+      <c r="G16" s="30"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>72</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>67</v>
@@ -10714,9 +12127,9 @@
       <c r="F17" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="G17" s="29"/>
+      <c r="G17" s="30"/>
       <c r="H17" s="14" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -10724,10 +12137,10 @@
         <v>73</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>11</v>
@@ -10736,17 +12149,17 @@
         <v>28</v>
       </c>
       <c r="F18" s="27"/>
-      <c r="G18" s="29"/>
+      <c r="G18" s="30"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>11</v>
@@ -10755,17 +12168,17 @@
         <v>28</v>
       </c>
       <c r="F19" s="10"/>
-      <c r="G19" s="29"/>
+      <c r="G19" s="30"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>68</v>
@@ -10774,38 +12187,38 @@
         <v>28</v>
       </c>
       <c r="F20" s="10"/>
-      <c r="G20" s="29"/>
+      <c r="G20" s="30"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="10"/>
-      <c r="G21" s="30" t="s">
-        <v>222</v>
+      <c r="G21" s="31" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>11</v>
@@ -10814,19 +12227,19 @@
         <v>13</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="G22" s="30"/>
+        <v>163</v>
+      </c>
+      <c r="G22" s="31"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>67</v>
@@ -10837,20 +12250,20 @@
       <c r="F23" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="G23" s="30"/>
+      <c r="G23" s="31"/>
       <c r="H23" s="14" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>11</v>
@@ -10859,17 +12272,17 @@
         <v>28</v>
       </c>
       <c r="F24" s="27"/>
-      <c r="G24" s="30"/>
+      <c r="G24" s="31"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>11</v>
@@ -10878,17 +12291,17 @@
         <v>28</v>
       </c>
       <c r="F25" s="10"/>
-      <c r="G25" s="30"/>
+      <c r="G25" s="31"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>68</v>
@@ -10897,37 +12310,37 @@
         <v>28</v>
       </c>
       <c r="F26" s="10"/>
-      <c r="G26" s="30"/>
+      <c r="G26" s="31"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D27" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="26" t="s">
         <v>160</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F27" s="26" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>68</v>
@@ -10939,13 +12352,13 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>11</v>
@@ -10957,13 +12370,13 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>11</v>
@@ -10975,13 +12388,13 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>11</v>
@@ -10993,36 +12406,36 @@
     </row>
     <row r="32" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="D32" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>325</v>
-      </c>
       <c r="E32" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="27" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>68</v>
@@ -11031,19 +12444,20 @@
         <v>28</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>335</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="G33" s="29"/>
       <c r="H33" s="28"/>
     </row>
     <row r="34" spans="1:8" ht="27" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>68</v>
@@ -11052,61 +12466,63 @@
         <v>28</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>335</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="G34" s="29"/>
       <c r="H34" s="28"/>
     </row>
-    <row r="35" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>352</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>333</v>
-      </c>
       <c r="E35" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>334</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="G35" s="29"/>
       <c r="H35" s="28"/>
     </row>
     <row r="36" spans="1:8" ht="27" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="H36" s="28"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>11</v>
@@ -11114,20 +12530,20 @@
       <c r="E37" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F37" s="31" t="s">
-        <v>337</v>
+      <c r="F37" s="32" t="s">
+        <v>335</v>
       </c>
       <c r="H37" s="28"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>11</v>
@@ -11135,18 +12551,18 @@
       <c r="E38" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F38" s="32"/>
+      <c r="F38" s="33"/>
       <c r="H38" s="28"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>11</v>
@@ -11154,18 +12570,18 @@
       <c r="E39" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F39" s="32"/>
+      <c r="F39" s="33"/>
       <c r="H39" s="28"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>11</v>
@@ -11173,18 +12589,18 @@
       <c r="E40" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F40" s="33"/>
+      <c r="F40" s="34"/>
       <c r="H40" s="28"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>11</v>
@@ -11197,13 +12613,13 @@
     </row>
     <row r="42" spans="1:8" ht="27" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>68</v>
@@ -11212,19 +12628,19 @@
         <v>28</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="H42" s="28"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C43" s="19" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>68</v>
@@ -11233,28 +12649,28 @@
         <v>28</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="H43" s="28"/>
     </row>
     <row r="44" spans="1:8" ht="27" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="H44" s="28"/>
     </row>
@@ -11342,7 +12758,7 @@
         <v>75</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>28</v>
@@ -11356,7 +12772,7 @@
         <v>41</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>76</v>
@@ -11392,7 +12808,7 @@
         <v>19</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C54" s="22"/>
       <c r="D54" s="22"/>
@@ -11476,7 +12892,7 @@
         <v>20</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C64" s="22"/>
       <c r="D64" s="22"/>
@@ -11556,7 +12972,7 @@
       <c r="F73" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="20">
     <mergeCell ref="A53:F53"/>
     <mergeCell ref="A54:A63"/>
     <mergeCell ref="B54:F63"/>
@@ -11567,15 +12983,16 @@
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G15:G20"/>
-    <mergeCell ref="G21:G26"/>
-    <mergeCell ref="A46:F46"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="F23:F24"/>
     <mergeCell ref="F27:F28"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="F37:F40"/>
     <mergeCell ref="H32:H44"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="G15:G20"/>
+    <mergeCell ref="G21:G26"/>
+    <mergeCell ref="A46:F46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -11611,14 +13028,14 @@
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
       <c r="E1" s="22"/>
       <c r="F1" s="22"/>
       <c r="H1" s="21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -11626,7 +13043,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
@@ -11652,7 +13069,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
@@ -11845,22 +13262,22 @@
         <v>70</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="E15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="H15" s="14" t="s">
         <v>235</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -11868,20 +13285,20 @@
         <v>71</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>224</v>
-      </c>
       <c r="D16" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="10"/>
-      <c r="G16" s="29" t="s">
-        <v>222</v>
+      <c r="G16" s="30" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -11889,29 +13306,29 @@
         <v>72</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>198</v>
-      </c>
       <c r="E17" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F17" s="10"/>
-      <c r="G17" s="29"/>
+      <c r="G17" s="30"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>67</v>
@@ -11922,9 +13339,9 @@
       <c r="F18" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="G18" s="29"/>
+      <c r="G18" s="30"/>
       <c r="H18" s="14" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -11932,10 +13349,10 @@
         <v>74</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>11</v>
@@ -11944,17 +13361,17 @@
         <v>28</v>
       </c>
       <c r="F19" s="27"/>
-      <c r="G19" s="29"/>
+      <c r="G19" s="30"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>11</v>
@@ -11963,17 +13380,17 @@
         <v>28</v>
       </c>
       <c r="F20" s="10"/>
-      <c r="G20" s="29"/>
+      <c r="G20" s="30"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>68</v>
@@ -11982,38 +13399,38 @@
         <v>28</v>
       </c>
       <c r="F21" s="10"/>
-      <c r="G21" s="29"/>
+      <c r="G21" s="30"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="10"/>
-      <c r="G22" s="30" t="s">
-        <v>222</v>
+      <c r="G22" s="31" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>11</v>
@@ -12022,19 +13439,19 @@
         <v>13</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="G23" s="30"/>
+        <v>193</v>
+      </c>
+      <c r="G23" s="31"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>67</v>
@@ -12045,20 +13462,20 @@
       <c r="F24" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="G24" s="30"/>
+      <c r="G24" s="31"/>
       <c r="H24" s="14" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>11</v>
@@ -12067,17 +13484,17 @@
         <v>28</v>
       </c>
       <c r="F25" s="27"/>
-      <c r="G25" s="30"/>
+      <c r="G25" s="31"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>11</v>
@@ -12086,17 +13503,17 @@
         <v>28</v>
       </c>
       <c r="F26" s="10"/>
-      <c r="G26" s="30"/>
+      <c r="G26" s="31"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>68</v>
@@ -12105,17 +13522,17 @@
         <v>28</v>
       </c>
       <c r="F27" s="10"/>
-      <c r="G27" s="30"/>
+      <c r="G27" s="31"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>11</v>
@@ -12127,13 +13544,13 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>11</v>
@@ -12145,13 +13562,13 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>11</v>
@@ -12246,7 +13663,7 @@
         <v>75</v>
       </c>
       <c r="